--- a/Container/Data/MiscItemListe.xlsx
+++ b/Container/Data/MiscItemListe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C64D0-D488-4D16-A324-D481C4377B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22607828-6CF2-4931-B548-A73706E5A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8158" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8284" uniqueCount="1810">
   <si>
     <t>Tränke</t>
   </si>
@@ -5400,6 +5400,114 @@
   </si>
   <si>
     <t xml:space="preserve">Aufwachen mit negativ Effekten </t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T1</t>
+  </si>
+  <si>
+    <t>Lieder</t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T2</t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T3</t>
+  </si>
+  <si>
+    <t>Liedtext Minnesang T4</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T1</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T2</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T3</t>
+  </si>
+  <si>
+    <t>Liedtext Rock T4</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T1</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T2</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T3</t>
+  </si>
+  <si>
+    <t>Liedtext Folk T4</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T1</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T2</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T3</t>
+  </si>
+  <si>
+    <t>Liedtext Tavernenmusik T4</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T1</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T2</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T3</t>
+  </si>
+  <si>
+    <t>Liedtext Metal T4</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T1</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T2</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T3</t>
+  </si>
+  <si>
+    <t>Liedtext Polka T4</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T1</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T2</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T3</t>
+  </si>
+  <si>
+    <t>Liedtext Hymne T4</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Geige; Begleitinstrument Laute</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Trommel; Begleitinstrument Dudelsack</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Flöte; Begleitinstrument Trommel</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Laute; Begleitinstrument Geige</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Dudelsack; Begleitinstrument Trompete</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Horn; Begleitinstrument Flöte</t>
+  </si>
+  <si>
+    <t>Hauptinstrument Trompete; Begleitinstrument Horn</t>
   </si>
 </sst>
 </file>
@@ -5627,8 +5735,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}" name="Tabelle1" displayName="Tabelle1" ref="A1:N793" totalsRowShown="0">
-  <autoFilter ref="A1:N793" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}" name="Tabelle1" displayName="Tabelle1" ref="A1:N821" totalsRowShown="0">
+  <autoFilter ref="A1:N821" xr:uid="{2C16F24A-7CF5-4AAB-A73A-FC93949A72A9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N793">
     <sortCondition ref="D1:D793"/>
   </sortState>
@@ -5918,11 +6026,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017005DF-956F-49EF-89FF-B49E3106C927}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N793"/>
+  <dimension ref="A1:N821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F794" sqref="F794:F821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27382,7 +27490,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A785" s="18" t="s">
         <v>1215</v>
       </c>
@@ -27409,7 +27517,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A786" s="18" t="s">
         <v>1217</v>
       </c>
@@ -27436,7 +27544,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A787" s="18" t="s">
         <v>1219</v>
       </c>
@@ -27463,7 +27571,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A788" s="18" t="s">
         <v>1221</v>
       </c>
@@ -27490,7 +27598,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A789" s="18" t="s">
         <v>1223</v>
       </c>
@@ -27517,7 +27625,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A790" s="18" t="s">
         <v>1225</v>
       </c>
@@ -27544,7 +27652,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A791" s="18" t="s">
         <v>1239</v>
       </c>
@@ -27571,7 +27679,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A792" s="18" t="s">
         <v>1241</v>
       </c>
@@ -27598,7 +27706,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A793" s="18" t="s">
         <v>1243</v>
       </c>
@@ -27623,6 +27731,804 @@
       </c>
       <c r="K793" t="s">
         <v>1045</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A794" s="30" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B794" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C794" s="13">
+        <v>0</v>
+      </c>
+      <c r="D794" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E794" t="str">
+        <f t="shared" ref="E794:E821" si="13">H794&amp;", "&amp;I794&amp;", "&amp;J794&amp;", "&amp;K794&amp;", "&amp;L794&amp;", "&amp;M794&amp;", "&amp;N794</f>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F794" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G794">
+        <v>1</v>
+      </c>
+      <c r="I794" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L794" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A795" s="30" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B795" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C795" s="13">
+        <v>0</v>
+      </c>
+      <c r="D795" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E795" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F795" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G795">
+        <v>1</v>
+      </c>
+      <c r="I795" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L795" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A796" s="30" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B796" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C796" s="13">
+        <v>0</v>
+      </c>
+      <c r="D796" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E796" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F796" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G796">
+        <v>1</v>
+      </c>
+      <c r="L796" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A797" s="30" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B797" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C797" s="13">
+        <v>0</v>
+      </c>
+      <c r="D797" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E797" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F797" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G797">
+        <v>0.5</v>
+      </c>
+      <c r="L797" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A798" s="30" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B798" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C798" s="13">
+        <v>0</v>
+      </c>
+      <c r="D798" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E798" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F798" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G798">
+        <v>1</v>
+      </c>
+      <c r="I798" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L798" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A799" s="30" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B799" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C799" s="13">
+        <v>0</v>
+      </c>
+      <c r="D799" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E799" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F799" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G799">
+        <v>1</v>
+      </c>
+      <c r="I799" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L799" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A800" s="30" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B800" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C800" s="13">
+        <v>0</v>
+      </c>
+      <c r="D800" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E800" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F800" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G800">
+        <v>1</v>
+      </c>
+      <c r="L800" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A801" s="30" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B801" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C801" s="13">
+        <v>0</v>
+      </c>
+      <c r="D801" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E801" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F801" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G801">
+        <v>0.5</v>
+      </c>
+      <c r="L801" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A802" s="30" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B802" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C802" s="13">
+        <v>0</v>
+      </c>
+      <c r="D802" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E802" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F802" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G802">
+        <v>1</v>
+      </c>
+      <c r="I802" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L802" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A803" s="30" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B803" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C803" s="13">
+        <v>0</v>
+      </c>
+      <c r="D803" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E803" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F803" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G803">
+        <v>1</v>
+      </c>
+      <c r="I803" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L803" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A804" s="30" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B804" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C804" s="13">
+        <v>0</v>
+      </c>
+      <c r="D804" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E804" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F804" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G804">
+        <v>1</v>
+      </c>
+      <c r="L804" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A805" s="30" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B805" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C805" s="13">
+        <v>0</v>
+      </c>
+      <c r="D805" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E805" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F805" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G805">
+        <v>0.5</v>
+      </c>
+      <c r="L805" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A806" s="30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B806" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C806" s="13">
+        <v>0</v>
+      </c>
+      <c r="D806" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E806" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F806" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G806">
+        <v>1</v>
+      </c>
+      <c r="I806" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L806" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A807" s="30" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B807" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C807" s="13">
+        <v>0</v>
+      </c>
+      <c r="D807" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E807" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F807" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G807">
+        <v>1</v>
+      </c>
+      <c r="I807" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L807" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A808" s="30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B808" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C808" s="13">
+        <v>0</v>
+      </c>
+      <c r="D808" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E808" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F808" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G808">
+        <v>1</v>
+      </c>
+      <c r="L808" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A809" s="30" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B809" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C809" s="13">
+        <v>0</v>
+      </c>
+      <c r="D809" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E809" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F809" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G809">
+        <v>0.5</v>
+      </c>
+      <c r="L809" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A810" s="30" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B810" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C810" s="13">
+        <v>0</v>
+      </c>
+      <c r="D810" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E810" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F810" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G810">
+        <v>1</v>
+      </c>
+      <c r="I810" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L810" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A811" s="30" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B811" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C811" s="13">
+        <v>0</v>
+      </c>
+      <c r="D811" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E811" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F811" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G811">
+        <v>1</v>
+      </c>
+      <c r="I811" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L811" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A812" s="30" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B812" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C812" s="13">
+        <v>0</v>
+      </c>
+      <c r="D812" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E812" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F812" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G812">
+        <v>1</v>
+      </c>
+      <c r="L812" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A813" s="30" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B813" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C813" s="13">
+        <v>0</v>
+      </c>
+      <c r="D813" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E813" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F813" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G813">
+        <v>0.5</v>
+      </c>
+      <c r="L813" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A814" s="30" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B814" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C814" s="13">
+        <v>0</v>
+      </c>
+      <c r="D814" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E814" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F814" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G814">
+        <v>1</v>
+      </c>
+      <c r="I814" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L814" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A815" s="30" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B815" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C815" s="13">
+        <v>0</v>
+      </c>
+      <c r="D815" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E815" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F815" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G815">
+        <v>1</v>
+      </c>
+      <c r="I815" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L815" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A816" s="30" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B816" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C816" s="13">
+        <v>0</v>
+      </c>
+      <c r="D816" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E816" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F816" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G816">
+        <v>1</v>
+      </c>
+      <c r="L816" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A817" s="30" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B817" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C817" s="13">
+        <v>0</v>
+      </c>
+      <c r="D817" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E817" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F817" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G817">
+        <v>0.5</v>
+      </c>
+      <c r="L817" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A818" s="30" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B818" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C818" s="13">
+        <v>0</v>
+      </c>
+      <c r="D818" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E818" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F818" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G818">
+        <v>1</v>
+      </c>
+      <c r="I818" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L818" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A819" s="30" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B819" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C819" s="13">
+        <v>0</v>
+      </c>
+      <c r="D819" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E819" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
+      </c>
+      <c r="F819" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G819">
+        <v>1</v>
+      </c>
+      <c r="I819" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L819" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A820" s="30" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B820" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C820" s="13">
+        <v>0</v>
+      </c>
+      <c r="D820" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E820" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F820" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G820">
+        <v>1</v>
+      </c>
+      <c r="L820" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A821" s="30" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B821" s="31">
+        <v>4500</v>
+      </c>
+      <c r="C821" s="13">
+        <v>0</v>
+      </c>
+      <c r="D821" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E821" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">, , , , Wirt, , </v>
+      </c>
+      <c r="F821" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G821">
+        <v>0.5</v>
+      </c>
+      <c r="L821" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -27736,7 +28642,7 @@
       </c>
       <c r="O2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Schlafsack</v>
+        <v>Spielzeugritter</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -27778,7 +28684,7 @@
       </c>
       <c r="O3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Laterne</v>
+        <v>Stofftier</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -27820,7 +28726,7 @@
       </c>
       <c r="O4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Gute Wurst</v>
+        <v>Fellstiefel</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -27862,7 +28768,7 @@
       </c>
       <c r="O5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Rubin</v>
+        <v>Holzkiste 100 cm</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -27904,7 +28810,7 @@
       </c>
       <c r="O6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Leder</v>
+        <v>Bronzebarren</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -27946,7 +28852,7 @@
       </c>
       <c r="O7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Spielzeugritter</v>
+        <v>Bärenfalle</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -27988,7 +28894,7 @@
       </c>
       <c r="O8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Trockenfleisch</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -28030,7 +28936,7 @@
       </c>
       <c r="O9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Brennholz</v>
+        <v>Merkwürdiges Metall</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -28072,7 +28978,7 @@
       </c>
       <c r="O10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Exquisite Kleidung</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -28114,7 +29020,7 @@
       </c>
       <c r="O11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(A11:A137,RANDBETWEEN(1,127))</f>
-        <v>Metallflasche</v>
+        <v>Trockenfleisch</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -28156,7 +29062,7 @@
       </c>
       <c r="O12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Holzstab</v>
+        <v>Metallflasche</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -28198,7 +29104,7 @@
       </c>
       <c r="O13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S2 M</v>
+        <v>Karottenbündel</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -28240,7 +29146,7 @@
       </c>
       <c r="O14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Laterne</v>
+        <v>Schweinekopf</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -28282,7 +29188,7 @@
       </c>
       <c r="O15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Rahkari Schnaps</v>
+        <v>Paralysetrank S3 M</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -28324,7 +29230,7 @@
       </c>
       <c r="O16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Exquisite Kleidung</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -28366,7 +29272,7 @@
       </c>
       <c r="O17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Schmiedehammer</v>
+        <v>Blumenstrauß</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -28408,7 +29314,7 @@
       </c>
       <c r="O18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Lederbeutel</v>
+        <v>Bohneneintopf</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -28450,7 +29356,7 @@
       </c>
       <c r="O19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Rose</v>
+        <v>Gehstock</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -28492,7 +29398,7 @@
       </c>
       <c r="O20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Traubensaft</v>
+        <v>Elfenknochen</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -28534,7 +29440,7 @@
       </c>
       <c r="O21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>Lindwurmaut</v>
+        <v>Krähenfüße</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -28576,7 +29482,7 @@
       </c>
       <c r="O22" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Schweinekopf</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -28618,7 +29524,7 @@
       </c>
       <c r="O23" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Felldecke</v>
+        <v>Rubin</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -28660,7 +29566,7 @@
       </c>
       <c r="O24" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Gewöhnliche Kleidung</v>
+        <v>Schweinekopf</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -28702,7 +29608,7 @@
       </c>
       <c r="O25" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S4 M</v>
+        <v>Laute</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -28744,7 +29650,7 @@
       </c>
       <c r="O26" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Felldecke</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -28786,7 +29692,7 @@
       </c>
       <c r="O27" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>Bärenfalle</v>
+        <v>Kaisotherz</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -28828,7 +29734,7 @@
       </c>
       <c r="O28" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Silbermesser</v>
+        <v>Rubin</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -28870,7 +29776,7 @@
       </c>
       <c r="O29" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Stofftier</v>
+        <v>Brennholz</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -28912,7 +29818,7 @@
       </c>
       <c r="O30" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Siegelstein</v>
+        <v>Adrenalinika S3 M</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -28954,7 +29860,7 @@
       </c>
       <c r="O31" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Holzkiste 50 cm</v>
+        <v>Heiltrank S4 M</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -28996,7 +29902,7 @@
       </c>
       <c r="O32" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Glasflasche</v>
+        <v>kleine Metallschaufel</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -29038,7 +29944,7 @@
       </c>
       <c r="O33" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Eisenhandschellen</v>
+        <v>Große Tranktasche</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -29080,7 +29986,7 @@
       </c>
       <c r="O34" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Metallflasche</v>
+        <v>Buch</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -29122,7 +30028,7 @@
       </c>
       <c r="O35" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Feuerpilz</v>
+        <v>Strickleiter</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -29164,7 +30070,7 @@
       </c>
       <c r="O36" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S1 M</v>
+        <v>Gegengifttrank S5 M</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -29206,7 +30112,7 @@
       </c>
       <c r="O37" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Merkwürdiges Metall</v>
+        <v>Stofftier</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -29248,7 +30154,7 @@
       </c>
       <c r="O38" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Schrat</v>
+        <v>Kleiner Siegelstein</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -29290,7 +30196,7 @@
       </c>
       <c r="O39" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Elfenknochen</v>
+        <v>Holzspielpuppe</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -29332,7 +30238,7 @@
       </c>
       <c r="O40" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Brief</v>
+        <v>Laute</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -29374,7 +30280,7 @@
       </c>
       <c r="O41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Elfenknochen</v>
+        <v>Ausdauertrank S2 M</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -29416,7 +30322,7 @@
       </c>
       <c r="O42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Bessere Kleidung</v>
+        <v>Kleiner Lederbeutel</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -29458,7 +30364,7 @@
       </c>
       <c r="O43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Gewöhnliche Kleidung</v>
+        <v>Glasflasche</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -29500,7 +30406,7 @@
       </c>
       <c r="O44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Silbergabel</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -29542,7 +30448,7 @@
       </c>
       <c r="O45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S3 B</v>
+        <v>Zwergenstahlbarren</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -29584,7 +30490,7 @@
       </c>
       <c r="O46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Ausdauertrank S1 M</v>
+        <v>Exquisite Kleidung</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -29626,7 +30532,7 @@
       </c>
       <c r="O47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Gegengifttrank S5 M</v>
+        <v>Fellstiefel</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -29668,7 +30574,7 @@
       </c>
       <c r="O48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Zwergenstahlbarren</v>
+        <v>Kleine Tranktasche</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -29710,7 +30616,7 @@
       </c>
       <c r="O49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Rehledermütze</v>
+        <v>Euphorika S1 M</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -29752,7 +30658,7 @@
       </c>
       <c r="O50" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Dudelsack</v>
+        <v>Paralysetrank S3 M</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -29794,7 +30700,7 @@
       </c>
       <c r="O51" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Feuerpilz</v>
+        <v>Holzhammer</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -29836,7 +30742,7 @@
       </c>
       <c r="O52" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Fellstiefel</v>
+        <v>Siegel eines Ruhehofbewahrer</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -29878,7 +30784,7 @@
       </c>
       <c r="O53" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Stahlbarren</v>
+        <v>Gegengifttrank S4 M</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -29920,7 +30826,7 @@
       </c>
       <c r="O54" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Eisenbarren</v>
+        <v>Dudelsack</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -29962,7 +30868,7 @@
       </c>
       <c r="O55" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S4 M</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -30004,7 +30910,7 @@
       </c>
       <c r="O56" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Einpersonen Zelt</v>
+        <v>Fackel</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -30046,7 +30952,7 @@
       </c>
       <c r="O57" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Molotovika S2 B</v>
+        <v>Laute</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -30088,7 +30994,7 @@
       </c>
       <c r="O58" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Merkwürdiges Metall</v>
+        <v>Antipyretika S2 M</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -30130,7 +31036,7 @@
       </c>
       <c r="O59" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Enterhaken</v>
+        <v>Kleiner Lederbeutel</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">

--- a/Container/Data/MiscItemListe.xlsx
+++ b/Container/Data/MiscItemListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7F6E50-C10A-45A5-B294-84BE78A554A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244BD7F-18E1-423A-AEBD-0795B5878A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gegenstände" sheetId="3" r:id="rId1"/>
@@ -6076,9 +6076,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
+    <sheetView topLeftCell="A818" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B839" sqref="B839"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29050,8 +29050,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:O385"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29146,7 +29146,7 @@
       </c>
       <c r="O2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Rose</v>
+        <v>Leinen</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
@@ -29188,7 +29188,7 @@
       </c>
       <c r="O3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Schweinekopf</v>
+        <v>Bombenflasche</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="O4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Felldecke</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
@@ -29272,7 +29272,7 @@
       </c>
       <c r="O5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Fackel</v>
+        <v>Angel</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
@@ -29314,7 +29314,7 @@
       </c>
       <c r="O6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Gerantschrat</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
@@ -29356,7 +29356,7 @@
       </c>
       <c r="O7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Bier</v>
+        <v>Silbergabel</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
@@ -29398,7 +29398,7 @@
       </c>
       <c r="O8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Eisenhandschellen</v>
+        <v>Gute Wurst</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="O9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Rahkari Schnaps</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.5">
@@ -29482,7 +29482,7 @@
       </c>
       <c r="O10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Pamphlet</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
@@ -29524,7 +29524,7 @@
       </c>
       <c r="O11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(A11:A137,RANDBETWEEN(1,127))</f>
-        <v>Seil 3 Meter</v>
+        <v>Dreckiges Fell</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
@@ -29566,7 +29566,7 @@
       </c>
       <c r="O12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Eisenkette 5 m</v>
+        <v>Gifttrank S1 M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
@@ -29608,7 +29608,7 @@
       </c>
       <c r="O13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Wein</v>
+        <v>Gerantschrat</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
@@ -29650,7 +29650,7 @@
       </c>
       <c r="O14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Salzbeutel</v>
+        <v>Goldkette</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
@@ -29692,7 +29692,7 @@
       </c>
       <c r="O15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Holzkiste 100 cm</v>
+        <v>Kochttopf</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
@@ -29734,7 +29734,7 @@
       </c>
       <c r="O16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Brennholz</v>
+        <v>Papier</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
@@ -29776,7 +29776,7 @@
       </c>
       <c r="O17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Pamphlet</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
@@ -29818,7 +29818,7 @@
       </c>
       <c r="O18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Kochttopf</v>
+        <v>Angel</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
@@ -29860,7 +29860,7 @@
       </c>
       <c r="O19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Sapphir</v>
+        <v>Spielkarten</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
@@ -29902,7 +29902,7 @@
       </c>
       <c r="O20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Schmiedehammer</v>
+        <v>Kaisotherz</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="O21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>Fellstiefel</v>
+        <v>kleine Metallschaufel</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
@@ -29986,7 +29986,7 @@
       </c>
       <c r="O22" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Buch</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
@@ -30028,7 +30028,7 @@
       </c>
       <c r="O23" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Granatstein</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
@@ -30070,7 +30070,7 @@
       </c>
       <c r="O24" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Zwergenstahlbarren</v>
+        <v>Gerantschrat</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
@@ -30112,7 +30112,7 @@
       </c>
       <c r="O25" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Eisenhandschellen</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
@@ -30154,7 +30154,7 @@
       </c>
       <c r="O26" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Stofftier</v>
+        <v>Sapphir</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
@@ -30196,7 +30196,7 @@
       </c>
       <c r="O27" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>Sapphir</v>
+        <v>Mittlere Tranktasche</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
@@ -30238,7 +30238,7 @@
       </c>
       <c r="O28" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Eisenkette 5 m</v>
+        <v>Schmiedehammer</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
@@ -30280,7 +30280,7 @@
       </c>
       <c r="O29" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Fächer</v>
+        <v>Papier</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
@@ -30322,7 +30322,7 @@
       </c>
       <c r="O30" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Kleiner Siegelstein</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
@@ -30364,7 +30364,7 @@
       </c>
       <c r="O31" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Große Tranktasche</v>
+        <v>Seife</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
@@ -30406,7 +30406,7 @@
       </c>
       <c r="O32" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Bessere Kleidung</v>
+        <v>Kaisotherz</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
@@ -30448,7 +30448,7 @@
       </c>
       <c r="O33" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Bärenfalle</v>
+        <v>Mittlere Tranktasche</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
@@ -30490,7 +30490,7 @@
       </c>
       <c r="O34" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S3 M</v>
+        <v>Würfel</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
@@ -30532,7 +30532,7 @@
       </c>
       <c r="O35" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Becher mit Würmern</v>
+        <v>Quarzkristall</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="O36" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Stahlbarren</v>
+        <v>Angel</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
@@ -30616,7 +30616,7 @@
       </c>
       <c r="O37" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Zwergenstahlbarren</v>
+        <v>Blumenstrauß</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
@@ -30658,7 +30658,7 @@
       </c>
       <c r="O38" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Glasflasche</v>
+        <v>Goldbarren</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="O39" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Siegel eines Ruhehofbewahrer</v>
+        <v>Holztisch Groß</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
@@ -30742,7 +30742,7 @@
       </c>
       <c r="O40" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Adrenalinika S5 M</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
@@ -30784,7 +30784,7 @@
       </c>
       <c r="O41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Spielkarten</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="O42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S2 B</v>
+        <v>Ausdauertrank S1 M</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -30868,7 +30868,7 @@
       </c>
       <c r="O43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Ausdauertrank S2 M</v>
+        <v>Schrat</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
@@ -30910,7 +30910,7 @@
       </c>
       <c r="O44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Stahlbarren gehärtet</v>
+        <v>Sicht S4 M</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
@@ -30952,7 +30952,7 @@
       </c>
       <c r="O45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Enterhaken</v>
+        <v>Kleiner Lederbeutel</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
@@ -30994,7 +30994,7 @@
       </c>
       <c r="O46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Würfel</v>
+        <v>Molotovika S2 B</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
@@ -31036,7 +31036,7 @@
       </c>
       <c r="O47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Rubin</v>
+        <v>Kleines Stück Seide</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
@@ -31078,7 +31078,7 @@
       </c>
       <c r="O48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S3 M</v>
+        <v>Geweihstücke</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="O49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Paralysetrank S4 M</v>
+        <v>Holzhammer</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
@@ -31162,7 +31162,7 @@
       </c>
       <c r="O50" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Silbermesser</v>
+        <v>Bessere Kleidung</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
@@ -31204,7 +31204,7 @@
       </c>
       <c r="O51" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Gegengifttrank S3 M</v>
+        <v>Madnika S4 M</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
@@ -31246,7 +31246,7 @@
       </c>
       <c r="O52" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Goldbarren</v>
+        <v>Euphorika S4 M</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
@@ -31288,7 +31288,7 @@
       </c>
       <c r="O53" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Große Tranktasche</v>
+        <v>Schlafsack</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
@@ -31330,7 +31330,7 @@
       </c>
       <c r="O54" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Epinephrinika S2 M</v>
+        <v>Nebelgrantika S4 B</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
@@ -31372,7 +31372,7 @@
       </c>
       <c r="O55" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Feuerstahl</v>
+        <v>Mittlere Tranktasche</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
@@ -31414,7 +31414,7 @@
       </c>
       <c r="O56" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Aphrodisika S4 M</v>
+        <v>Strickleiter</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
@@ -31456,7 +31456,7 @@
       </c>
       <c r="O57" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Große Tranktasche</v>
+        <v>Brief</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
@@ -31498,7 +31498,7 @@
       </c>
       <c r="O58" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Molotovika S3 B</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
@@ -31540,7 +31540,7 @@
       </c>
       <c r="O59" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Geschnitzte Figur</v>
+        <v>Kleines Stück Seide</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">

--- a/Container/Data/MiscItemListe.xlsx
+++ b/Container/Data/MiscItemListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244BD7F-18E1-423A-AEBD-0795B5878A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E09FCF-E598-4534-B6EA-6A35BDE6F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gegenstände" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8356" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8356" uniqueCount="1838">
   <si>
     <t>Tränke</t>
   </si>
@@ -5556,6 +5556,42 @@
   </si>
   <si>
     <t>Liedtext Hymne T4 demotivierend</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 10,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 14,7</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 16,8</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 50, Rüstungswert: 18,55</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 16,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 23,1</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 26,4</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 30, Rüstungswert: 29,15</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 22,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 31,5</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 36</t>
+  </si>
+  <si>
+    <t>Entwaffnungschance 5, Rüstungswert: 39,75</t>
   </si>
 </sst>
 </file>
@@ -6076,9 +6112,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N837"/>
   <sheetViews>
-    <sheetView topLeftCell="A818" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="F838" sqref="F838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -21343,7 +21379,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F567" s="13" t="s">
-        <v>1318</v>
+        <v>1826</v>
       </c>
       <c r="G567">
         <v>10</v>
@@ -21376,7 +21412,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F568" s="13" t="s">
-        <v>1320</v>
+        <v>1830</v>
       </c>
       <c r="G568">
         <v>9</v>
@@ -21409,7 +21445,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F569" s="13" t="s">
-        <v>1322</v>
+        <v>1834</v>
       </c>
       <c r="G569">
         <v>8</v>
@@ -21439,7 +21475,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F570" s="13" t="s">
-        <v>1324</v>
+        <v>1827</v>
       </c>
       <c r="G570">
         <v>7</v>
@@ -21469,7 +21505,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F571" s="13" t="s">
-        <v>1326</v>
+        <v>1831</v>
       </c>
       <c r="G571">
         <v>7</v>
@@ -21499,7 +21535,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F572" s="13" t="s">
-        <v>1328</v>
+        <v>1835</v>
       </c>
       <c r="G572">
         <v>5</v>
@@ -21529,7 +21565,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F573" s="13" t="s">
-        <v>1330</v>
+        <v>1828</v>
       </c>
       <c r="G573">
         <v>2</v>
@@ -21556,7 +21592,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F574" s="13" t="s">
-        <v>1332</v>
+        <v>1832</v>
       </c>
       <c r="G574">
         <v>2</v>
@@ -21583,7 +21619,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F575" s="13" t="s">
-        <v>1334</v>
+        <v>1836</v>
       </c>
       <c r="G575">
         <v>2</v>
@@ -21610,7 +21646,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F576" s="13" t="s">
-        <v>1336</v>
+        <v>1829</v>
       </c>
       <c r="G576">
         <v>0.1</v>
@@ -21637,7 +21673,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F577" s="13" t="s">
-        <v>1338</v>
+        <v>1833</v>
       </c>
       <c r="G577">
         <v>0.1</v>
@@ -21664,7 +21700,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F578" s="13" t="s">
-        <v>1340</v>
+        <v>1837</v>
       </c>
       <c r="G578">
         <v>0.1</v>
@@ -29050,7 +29086,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:O385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
@@ -29146,7 +29182,7 @@
       </c>
       <c r="O2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(A2:A128,RANDBETWEEN(1,127))</f>
-        <v>Leinen</v>
+        <v>Fackel</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
@@ -29188,7 +29224,7 @@
       </c>
       <c r="O3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(A3:A129,RANDBETWEEN(1,127))</f>
-        <v>Bombenflasche</v>
+        <v>Bohnen</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.5">
@@ -29230,7 +29266,7 @@
       </c>
       <c r="O4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(A4:A130,RANDBETWEEN(1,127))</f>
-        <v>Felldecke</v>
+        <v>Bohneneintopf</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.5">
@@ -29272,7 +29308,7 @@
       </c>
       <c r="O5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(A5:A131,RANDBETWEEN(1,127))</f>
-        <v>Angel</v>
+        <v>Holztisch Klein</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.5">
@@ -29314,7 +29350,7 @@
       </c>
       <c r="O6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(A6:A132,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Seife</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
@@ -29356,7 +29392,7 @@
       </c>
       <c r="O7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(A7:A133,RANDBETWEEN(1,127))</f>
-        <v>Silbergabel</v>
+        <v>Exquisite Angel</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
@@ -29398,7 +29434,7 @@
       </c>
       <c r="O8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(A8:A134,RANDBETWEEN(1,127))</f>
-        <v>Gute Wurst</v>
+        <v>Salzbeutel</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
@@ -29440,7 +29476,7 @@
       </c>
       <c r="O9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(A9:A135,RANDBETWEEN(1,127))</f>
-        <v>Rahkari Schnaps</v>
+        <v>Inquistororden</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.5">
@@ -29482,7 +29518,7 @@
       </c>
       <c r="O10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(A10:A136,RANDBETWEEN(1,127))</f>
-        <v>Pamphlet</v>
+        <v>Fackel</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
@@ -29524,7 +29560,7 @@
       </c>
       <c r="O11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(A11:A137,RANDBETWEEN(1,127))</f>
-        <v>Dreckiges Fell</v>
+        <v>Heiltrank S2 M</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
@@ -29566,7 +29602,7 @@
       </c>
       <c r="O12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(A12:A138,RANDBETWEEN(1,127))</f>
-        <v>Gifttrank S1 M</v>
+        <v>Feuerpilz</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.5">
@@ -29608,7 +29644,7 @@
       </c>
       <c r="O13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(A13:A139,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Silbermesser</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.5">
@@ -29650,7 +29686,7 @@
       </c>
       <c r="O14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(A14:A140,RANDBETWEEN(1,127))</f>
-        <v>Goldkette</v>
+        <v>Trockenfleisch</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
@@ -29692,7 +29728,7 @@
       </c>
       <c r="O15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(A15:A141,RANDBETWEEN(1,127))</f>
-        <v>Kochttopf</v>
+        <v>Holztisch Klein</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
@@ -29734,7 +29770,7 @@
       </c>
       <c r="O16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(A16:A142,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Lindwurmaut</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
@@ -29776,7 +29812,7 @@
       </c>
       <c r="O17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(A17:A143,RANDBETWEEN(1,127))</f>
-        <v>Pamphlet</v>
+        <v>Paralysetrank S5 M</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
@@ -29818,7 +29854,7 @@
       </c>
       <c r="O18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(A18:A144,RANDBETWEEN(1,127))</f>
-        <v>Angel</v>
+        <v>Gifttrank S1 M</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
@@ -29860,7 +29896,7 @@
       </c>
       <c r="O19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(A19:A145,RANDBETWEEN(1,127))</f>
-        <v>Spielkarten</v>
+        <v>Ausdauertrank S1 M</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
@@ -29902,7 +29938,7 @@
       </c>
       <c r="O20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(A20:A146,RANDBETWEEN(1,127))</f>
-        <v>Kaisotherz</v>
+        <v>Brennholz</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
@@ -29944,7 +29980,7 @@
       </c>
       <c r="O21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(A21:A147,RANDBETWEEN(1,127))</f>
-        <v>kleine Metallschaufel</v>
+        <v>Enterhaken</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
@@ -29986,7 +30022,7 @@
       </c>
       <c r="O22" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(A22:A148,RANDBETWEEN(1,127))</f>
-        <v>Buch</v>
+        <v>Warmes Metall</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
@@ -30028,7 +30064,7 @@
       </c>
       <c r="O23" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(A23:A149,RANDBETWEEN(1,127))</f>
-        <v>Feuerpilz</v>
+        <v>Bombenflasche</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
@@ -30070,7 +30106,7 @@
       </c>
       <c r="O24" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(A24:A150,RANDBETWEEN(1,127))</f>
-        <v>Gerantschrat</v>
+        <v>Eisenhandschellen</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
@@ -30112,7 +30148,7 @@
       </c>
       <c r="O25" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(A25:A151,RANDBETWEEN(1,127))</f>
-        <v>Eisenhandschellen</v>
+        <v>Felldecke</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
@@ -30154,7 +30190,7 @@
       </c>
       <c r="O26" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(A26:A152,RANDBETWEEN(1,127))</f>
-        <v>Sapphir</v>
+        <v>Seife</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
@@ -30196,7 +30232,7 @@
       </c>
       <c r="O27" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(A27:A153,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Adrenalinika S3 M</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
@@ -30238,7 +30274,7 @@
       </c>
       <c r="O28" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(A28:A154,RANDBETWEEN(1,127))</f>
-        <v>Schmiedehammer</v>
+        <v>Gifttrank S3 M</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
@@ -30280,7 +30316,7 @@
       </c>
       <c r="O29" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(A29:A155,RANDBETWEEN(1,127))</f>
-        <v>Papier</v>
+        <v>Silbergabel</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
@@ -30322,7 +30358,7 @@
       </c>
       <c r="O30" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(A30:A156,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Siegelstein</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
@@ -30364,7 +30400,7 @@
       </c>
       <c r="O31" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(A31:A157,RANDBETWEEN(1,127))</f>
-        <v>Seife</v>
+        <v>Warmes Metall</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
@@ -30406,7 +30442,7 @@
       </c>
       <c r="O32" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(A32:A158,RANDBETWEEN(1,127))</f>
-        <v>Kaisotherz</v>
+        <v>Silbermesser</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
@@ -30448,7 +30484,7 @@
       </c>
       <c r="O33" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(A33:A159,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
@@ -30490,7 +30526,7 @@
       </c>
       <c r="O34" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(A34:A160,RANDBETWEEN(1,127))</f>
-        <v>Würfel</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
@@ -30532,7 +30568,7 @@
       </c>
       <c r="O35" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(A35:A161,RANDBETWEEN(1,127))</f>
-        <v>Quarzkristall</v>
+        <v>Eisenkette 5 m</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
@@ -30574,7 +30610,7 @@
       </c>
       <c r="O36" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(A36:A162,RANDBETWEEN(1,127))</f>
-        <v>Angel</v>
+        <v>Glasflasche</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
@@ -30616,7 +30652,7 @@
       </c>
       <c r="O37" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(A37:A163,RANDBETWEEN(1,127))</f>
-        <v>Blumenstrauß</v>
+        <v>Lindwurmaut</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
@@ -30658,7 +30694,7 @@
       </c>
       <c r="O38" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(A38:A164,RANDBETWEEN(1,127))</f>
-        <v>Goldbarren</v>
+        <v>Fächer</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
@@ -30700,7 +30736,7 @@
       </c>
       <c r="O39" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(A39:A165,RANDBETWEEN(1,127))</f>
-        <v>Holztisch Groß</v>
+        <v>Ausdauertrank S1 M</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
@@ -30742,7 +30778,7 @@
       </c>
       <c r="O40" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(A40:A166,RANDBETWEEN(1,127))</f>
-        <v>Adrenalinika S5 M</v>
+        <v>Silbermesser</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
@@ -30784,7 +30820,7 @@
       </c>
       <c r="O41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(A41:A167,RANDBETWEEN(1,127))</f>
-        <v>Heiltrank S3 M</v>
+        <v>Holztruhe 150 x 100 cm</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
@@ -30826,7 +30862,7 @@
       </c>
       <c r="O42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(A42:A168,RANDBETWEEN(1,127))</f>
-        <v>Ausdauertrank S1 M</v>
+        <v>Kleine Tranktasche</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -30868,7 +30904,7 @@
       </c>
       <c r="O43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(A43:A169,RANDBETWEEN(1,127))</f>
-        <v>Schrat</v>
+        <v>Fell</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
@@ -30910,7 +30946,7 @@
       </c>
       <c r="O44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(A44:A170,RANDBETWEEN(1,127))</f>
-        <v>Sicht S4 M</v>
+        <v>Bombenflasche</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
@@ -30952,7 +30988,7 @@
       </c>
       <c r="O45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(A45:A171,RANDBETWEEN(1,127))</f>
-        <v>Kleiner Lederbeutel</v>
+        <v>Paralysetrank S6 M</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
@@ -30994,7 +31030,7 @@
       </c>
       <c r="O46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(A46:A172,RANDBETWEEN(1,127))</f>
-        <v>Molotovika S2 B</v>
+        <v>Gifttrank S3 M</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
@@ -31036,7 +31072,7 @@
       </c>
       <c r="O47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(A47:A173,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Fellstiefel</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
@@ -31078,7 +31114,7 @@
       </c>
       <c r="O48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(A48:A174,RANDBETWEEN(1,127))</f>
-        <v>Geweihstücke</v>
+        <v>Heiltrank S4 M</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
@@ -31120,7 +31156,7 @@
       </c>
       <c r="O49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(A49:A175,RANDBETWEEN(1,127))</f>
-        <v>Holzhammer</v>
+        <v>Heiltrank S3 M</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
@@ -31162,7 +31198,7 @@
       </c>
       <c r="O50" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(A50:A176,RANDBETWEEN(1,127))</f>
-        <v>Bessere Kleidung</v>
+        <v>Spielkarten</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
@@ -31204,7 +31240,7 @@
       </c>
       <c r="O51" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(A51:A177,RANDBETWEEN(1,127))</f>
-        <v>Madnika S4 M</v>
+        <v>Ausdauertrank S2 M</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
@@ -31246,7 +31282,7 @@
       </c>
       <c r="O52" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(A52:A178,RANDBETWEEN(1,127))</f>
-        <v>Euphorika S4 M</v>
+        <v>Elfenknochen</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
@@ -31288,7 +31324,7 @@
       </c>
       <c r="O53" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(A53:A179,RANDBETWEEN(1,127))</f>
-        <v>Schlafsack</v>
+        <v>Nebelgrantika S5 B</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
@@ -31330,7 +31366,7 @@
       </c>
       <c r="O54" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(A54:A180,RANDBETWEEN(1,127))</f>
-        <v>Nebelgrantika S4 B</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
@@ -31372,7 +31408,7 @@
       </c>
       <c r="O55" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(A55:A181,RANDBETWEEN(1,127))</f>
-        <v>Mittlere Tranktasche</v>
+        <v>Becher mit Würmern</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
@@ -31414,7 +31450,7 @@
       </c>
       <c r="O56" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(A56:A182,RANDBETWEEN(1,127))</f>
-        <v>Strickleiter</v>
+        <v>Gifttrank S3 M</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
@@ -31456,7 +31492,7 @@
       </c>
       <c r="O57" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(A57:A183,RANDBETWEEN(1,127))</f>
-        <v>Brief</v>
+        <v>Narkotika S2 M</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
@@ -31498,7 +31534,7 @@
       </c>
       <c r="O58" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(A58:A184,RANDBETWEEN(1,127))</f>
-        <v>Molotovika S3 B</v>
+        <v>Sapphir</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
@@ -31540,7 +31576,7 @@
       </c>
       <c r="O59" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(A59:A185,RANDBETWEEN(1,127))</f>
-        <v>Kleines Stück Seide</v>
+        <v>Ausdauertrank S4 M</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">

--- a/Container/Data/MiscItemListe.xlsx
+++ b/Container/Data/MiscItemListe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E930E-F022-416C-A6F6-4D32D62A4D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C24DDA4-414C-4A07-BB7D-E2D11CF520FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3493,9 +3493,6 @@
     <t>Beutel mit Pollen</t>
   </si>
   <si>
-    <t>Gummimesser</t>
-  </si>
-  <si>
     <t>Anleitung zu Rauchzeichen</t>
   </si>
   <si>
@@ -3845,6 +3842,9 @@
   </si>
   <si>
     <t>Gibt einen +1 Modifikator beim nächsten Schwimmen Check.</t>
+  </si>
+  <si>
+    <t>Schere</t>
   </si>
 </sst>
 </file>
@@ -3911,7 +3911,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3957,12 +3957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="3" builtinId="3"/>
@@ -4295,9 +4289,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A873" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B884" sqref="B884"/>
+      <selection pane="topRight" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,7 +4790,7 @@
         <v xml:space="preserve">, Allgemein, , , , , </v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -5151,7 +5145,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , , , , </v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -5208,7 +5202,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , , , , </v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -5379,7 +5373,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6095,7 +6089,7 @@
         <v xml:space="preserve">, Allgemein, , , , , </v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -7361,7 +7355,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B111" s="7">
         <v>100</v>
@@ -7502,7 +7496,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B116" s="7">
         <v>100</v>
@@ -7617,7 +7611,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B120" s="7">
         <v>50</v>
@@ -7888,7 +7882,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>1151</v>
+        <v>1268</v>
       </c>
       <c r="B130" s="7">
         <v>75</v>
@@ -7916,7 +7910,7 @@
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B131" s="7">
         <v>150</v>
@@ -7932,7 +7926,7 @@
         <v xml:space="preserve">, Allgemein, , , , , </v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -7943,7 +7937,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B132" s="7">
         <v>650</v>
@@ -7971,7 +7965,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B133" s="7">
         <v>75</v>
@@ -7999,7 +7993,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B134" s="7">
         <v>150</v>
@@ -8030,7 +8024,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B135" s="7">
         <v>150</v>
@@ -8046,7 +8040,7 @@
         <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -8060,7 +8054,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B136" s="7">
         <v>100</v>
@@ -8088,7 +8082,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B137" s="7">
         <v>150</v>
@@ -8116,7 +8110,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B138" s="7">
         <v>50</v>
@@ -8141,7 +8135,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B139" s="7">
         <v>30</v>
@@ -8157,7 +8151,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , , , , </v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -8171,7 +8165,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B140" s="7">
         <v>250</v>
@@ -8196,7 +8190,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B141" s="7">
         <v>50</v>
@@ -8221,7 +8215,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B142" s="7">
         <v>50</v>
@@ -8246,7 +8240,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B143" s="7">
         <v>15</v>
@@ -8274,7 +8268,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B144" s="7">
         <v>75</v>
@@ -8299,7 +8293,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B145" s="7">
         <v>10</v>
@@ -8321,7 +8315,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B146" s="7">
         <v>75</v>
@@ -24208,7 +24202,7 @@
         <v xml:space="preserve">, Allgemein, Alchemist, , , , </v>
       </c>
       <c r="F725" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G725">
         <v>15</v>
@@ -24238,7 +24232,7 @@
         <v xml:space="preserve">Hehler, , , , , , </v>
       </c>
       <c r="F726" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G726">
         <v>7</v>
@@ -24377,7 +24371,7 @@
         <v>1128</v>
       </c>
       <c r="F731" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G731">
         <v>9</v>
@@ -24409,7 +24403,7 @@
         <v>1129</v>
       </c>
       <c r="F732" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G732">
         <v>7</v>
@@ -24438,7 +24432,7 @@
         <v>1130</v>
       </c>
       <c r="F733" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G733">
         <v>1.5</v>
@@ -24464,7 +24458,7 @@
         <v>1130</v>
       </c>
       <c r="F734" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G734">
         <v>0.1</v>
@@ -24748,7 +24742,7 @@
         <v>1131</v>
       </c>
       <c r="F744" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -24771,7 +24765,7 @@
         <v>1128</v>
       </c>
       <c r="F745" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G745">
         <v>6</v>
@@ -24803,7 +24797,7 @@
         <v>1129</v>
       </c>
       <c r="F746" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G746">
         <v>4</v>
@@ -24832,7 +24826,7 @@
         <v>1130</v>
       </c>
       <c r="F747" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G747">
         <v>1.5</v>
@@ -24858,7 +24852,7 @@
         <v>1130</v>
       </c>
       <c r="F748" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G748">
         <v>0.1</v>
@@ -24884,7 +24878,7 @@
         <v>1129</v>
       </c>
       <c r="F749" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G749">
         <v>7</v>
@@ -24913,7 +24907,7 @@
         <v>1129</v>
       </c>
       <c r="F750" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G750">
         <v>5</v>
@@ -24942,7 +24936,7 @@
         <v>1130</v>
       </c>
       <c r="F751" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G751">
         <v>1.5</v>
@@ -24968,7 +24962,7 @@
         <v>1130</v>
       </c>
       <c r="F752" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G752">
         <v>0.1</v>
@@ -25104,7 +25098,7 @@
         <v>1129</v>
       </c>
       <c r="F757" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G757">
         <v>8</v>
@@ -25133,7 +25127,7 @@
         <v>1129</v>
       </c>
       <c r="F758" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G758">
         <v>6</v>
@@ -25162,7 +25156,7 @@
         <v>1130</v>
       </c>
       <c r="F759" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G759">
         <v>1.5</v>
@@ -25188,7 +25182,7 @@
         <v>1130</v>
       </c>
       <c r="F760" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G760">
         <v>0.1</v>
@@ -25237,7 +25231,7 @@
         <v>1129</v>
       </c>
       <c r="F762" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G762">
         <v>6</v>
@@ -25295,7 +25289,7 @@
         <v>1130</v>
       </c>
       <c r="F764" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G764">
         <v>1.5</v>
@@ -25321,7 +25315,7 @@
         <v>1130</v>
       </c>
       <c r="F765" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G765">
         <v>0.1</v>
@@ -25460,7 +25454,7 @@
         <v>1128</v>
       </c>
       <c r="F770" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G770">
         <v>9</v>
@@ -25492,7 +25486,7 @@
         <v>1129</v>
       </c>
       <c r="F771" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G771">
         <v>6</v>
@@ -25521,7 +25515,7 @@
         <v>1130</v>
       </c>
       <c r="F772" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G772">
         <v>1.5</v>
@@ -25547,7 +25541,7 @@
         <v>1130</v>
       </c>
       <c r="F773" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G773">
         <v>0.1</v>
@@ -25573,7 +25567,7 @@
         <v>1129</v>
       </c>
       <c r="F774" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G774">
         <v>6</v>
@@ -25602,7 +25596,7 @@
         <v>1129</v>
       </c>
       <c r="F775" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G775">
         <v>4</v>
@@ -25631,7 +25625,7 @@
         <v>1130</v>
       </c>
       <c r="F776" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G776">
         <v>1.5</v>
@@ -25657,7 +25651,7 @@
         <v>1130</v>
       </c>
       <c r="F777" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G777">
         <v>0.1</v>
@@ -26248,7 +26242,7 @@
         <v>1129</v>
       </c>
       <c r="F798" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G798">
         <v>5</v>
@@ -26277,7 +26271,7 @@
         <v>1129</v>
       </c>
       <c r="F799" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G799">
         <v>4</v>
@@ -26306,7 +26300,7 @@
         <v>1130</v>
       </c>
       <c r="F800" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G800">
         <v>1.5</v>
@@ -26332,7 +26326,7 @@
         <v>1130</v>
       </c>
       <c r="F801" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G801">
         <v>0.1</v>
@@ -26937,7 +26931,7 @@
         <v>1129</v>
       </c>
       <c r="F823" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G823">
         <v>8</v>
@@ -27079,7 +27073,7 @@
         <v>1128</v>
       </c>
       <c r="F828" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G828">
         <v>8</v>
@@ -27111,7 +27105,7 @@
         <v>1129</v>
       </c>
       <c r="F829" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G829">
         <v>4</v>
@@ -27140,7 +27134,7 @@
         <v>1130</v>
       </c>
       <c r="F830" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G830">
         <v>1.5</v>
@@ -27166,7 +27160,7 @@
         <v>1130</v>
       </c>
       <c r="F831" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G831">
         <v>0.1</v>
@@ -27177,7 +27171,7 @@
     </row>
     <row r="832" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B832" s="5">
         <v>3500</v>
@@ -27192,7 +27186,7 @@
         <v>1129</v>
       </c>
       <c r="F832" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G832">
         <v>8</v>
@@ -27441,7 +27435,7 @@
         <v>1129</v>
       </c>
       <c r="F841" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G841">
         <v>7</v>
@@ -27913,7 +27907,7 @@
         <v>1129</v>
       </c>
       <c r="F858" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G858">
         <v>8</v>
@@ -27942,7 +27936,7 @@
         <v>1129</v>
       </c>
       <c r="F859" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G859">
         <v>6</v>
@@ -27971,7 +27965,7 @@
         <v>1130</v>
       </c>
       <c r="F860" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G860">
         <v>1.5</v>
@@ -27997,7 +27991,7 @@
         <v>1130</v>
       </c>
       <c r="F861" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G861">
         <v>0.1</v>
@@ -28046,7 +28040,7 @@
         <v>1128</v>
       </c>
       <c r="F863" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G863">
         <v>7</v>
@@ -28078,7 +28072,7 @@
         <v>1129</v>
       </c>
       <c r="F864" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G864">
         <v>5</v>
@@ -28107,7 +28101,7 @@
         <v>1130</v>
       </c>
       <c r="F865" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G865">
         <v>1.5</v>
@@ -28133,7 +28127,7 @@
         <v>1130</v>
       </c>
       <c r="F866" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G866">
         <v>0.1</v>
@@ -28269,7 +28263,7 @@
         <v>1129</v>
       </c>
       <c r="F871" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G871">
         <v>7</v>
@@ -28298,7 +28292,7 @@
         <v>1129</v>
       </c>
       <c r="F872" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G872">
         <v>7</v>
@@ -28312,7 +28306,7 @@
     </row>
     <row r="873" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A873" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B873" s="7">
         <v>2500</v>
@@ -28328,7 +28322,7 @@
         <v>, , , Schmied, , , Kuriositätenhändler</v>
       </c>
       <c r="F873" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G873">
         <v>1</v>
@@ -28342,7 +28336,7 @@
     </row>
     <row r="874" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B874" s="7">
         <v>500</v>
@@ -28358,7 +28352,7 @@
         <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
       </c>
       <c r="F874" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G874">
         <v>2</v>
@@ -28372,7 +28366,7 @@
     </row>
     <row r="875" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A875" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B875" s="7">
         <v>800</v>
@@ -28388,7 +28382,7 @@
         <v xml:space="preserve">, Allgemein, , , Wirt, , </v>
       </c>
       <c r="F875" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G875">
         <v>2</v>
@@ -28401,10 +28395,10 @@
       </c>
     </row>
     <row r="876" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A876" s="17" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B876" s="18">
+      <c r="A876" s="12" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B876" s="7">
         <v>2000</v>
       </c>
       <c r="C876" s="5">
@@ -28418,7 +28412,7 @@
         <v>Hehler, Allgemein, , , , , Kuriositätenhändler</v>
       </c>
       <c r="F876" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G876">
         <v>0.4</v>
@@ -28434,10 +28428,10 @@
       </c>
     </row>
     <row r="877" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A877" s="17" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B877" s="18">
+      <c r="A877" s="12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B877" s="7">
         <v>500</v>
       </c>
       <c r="C877" s="5">
@@ -28451,7 +28445,7 @@
         <v>, Allgemein, Alchemist, , , , Kuriositätenhändler</v>
       </c>
       <c r="F877" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G877">
         <v>1</v>
@@ -28467,10 +28461,10 @@
       </c>
     </row>
     <row r="878" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A878" s="17" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B878" s="18">
+      <c r="A878" s="12" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B878" s="7">
         <v>1600</v>
       </c>
       <c r="C878" s="5">
@@ -28484,7 +28478,7 @@
         <v>Hehler, , , , , , Kuriositätenhändler</v>
       </c>
       <c r="F878" s="9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G878">
         <v>0.1</v>
@@ -28497,10 +28491,10 @@
       </c>
     </row>
     <row r="879" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A879" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B879" s="18">
+      <c r="A879" s="12" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B879" s="7">
         <v>400</v>
       </c>
       <c r="C879" s="5">
@@ -28514,7 +28508,7 @@
         <v xml:space="preserve">, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F879" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G879">
         <v>1</v>
@@ -28528,12 +28522,12 @@
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A880" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B880" s="7"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E880" s="3" t="str">
         <f t="shared" si="20"/>
@@ -28549,7 +28543,7 @@
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A881" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B881" s="7"/>
       <c r="C881" s="5"/>
@@ -28568,7 +28562,7 @@
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A882" s="12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B882" s="7"/>
       <c r="C882" s="5"/>
@@ -28587,7 +28581,7 @@
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A883" s="12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B883" s="7"/>
       <c r="C883" s="5"/>
@@ -28606,7 +28600,7 @@
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A884" s="12" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B884" s="7"/>
       <c r="C884" s="5"/>
@@ -28625,7 +28619,7 @@
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A885" s="12" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B885" s="7"/>
       <c r="C885" s="5"/>
@@ -28644,7 +28638,7 @@
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A886" s="12" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B886" s="7"/>
       <c r="C886" s="5"/>
@@ -28663,7 +28657,7 @@
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A887" s="12" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B887" s="7"/>
       <c r="C887" s="5"/>
@@ -28682,7 +28676,7 @@
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A888" s="12" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B888" s="7"/>
       <c r="C888" s="5"/>
@@ -28701,7 +28695,7 @@
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A889" s="12" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B889" s="7"/>
       <c r="C889" s="5"/>
@@ -28720,7 +28714,7 @@
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A890" s="12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B890" s="7"/>
       <c r="C890" s="5"/>
@@ -28739,7 +28733,7 @@
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A891" s="12" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B891" s="7"/>
       <c r="C891" s="5"/>
@@ -28758,7 +28752,7 @@
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A892" s="12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B892" s="7"/>
       <c r="C892" s="5"/>
@@ -28774,7 +28768,7 @@
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A893" s="12" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B893" s="7"/>
       <c r="C893" s="5"/>
@@ -28790,7 +28784,7 @@
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A894" s="12" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B894" s="7"/>
       <c r="C894" s="5"/>
@@ -28809,7 +28803,7 @@
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A895" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B895" s="7"/>
       <c r="C895" s="5"/>
@@ -28828,7 +28822,7 @@
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A896" s="12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B896" s="7"/>
       <c r="C896" s="5"/>
@@ -28847,7 +28841,7 @@
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A897" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B897" s="7"/>
       <c r="C897" s="5"/>
@@ -28866,7 +28860,7 @@
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A898" s="12" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B898" s="7"/>
       <c r="C898" s="5"/>
@@ -28879,7 +28873,7 @@
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A899" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B899" s="7"/>
       <c r="C899" s="5"/>
@@ -28892,7 +28886,7 @@
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A900" s="12" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B900" s="7"/>
       <c r="C900" s="5"/>
@@ -28905,7 +28899,7 @@
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A901" s="12" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B901" s="7"/>
       <c r="C901" s="5"/>
@@ -28918,7 +28912,7 @@
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A902" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B902" s="7"/>
       <c r="C902" s="5"/>
@@ -28931,7 +28925,7 @@
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A903" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B903" s="7"/>
       <c r="C903" s="5"/>
@@ -28944,7 +28938,7 @@
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A904" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B904" s="7"/>
       <c r="C904" s="5"/>
@@ -28957,7 +28951,7 @@
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A905" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B905" s="7"/>
       <c r="C905" s="5"/>

--- a/Container/Data/MiscItemListe.xlsx
+++ b/Container/Data/MiscItemListe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EADAA-0954-4119-8B03-E7A43CCE4C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C93FEF-BE94-44E7-9BA3-C82813744D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="8040" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gegenstände" sheetId="3" r:id="rId1"/>
@@ -4558,26 +4558,26 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:O943"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A750" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A907" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A759" sqref="A759"/>
+      <selection pane="topRight" activeCell="A920" sqref="A920"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="22.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.31640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="22.6796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.31640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.6796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.31640625" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="17.31640625" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" s="10" t="s">
         <v>117</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="10" t="s">
         <v>475</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="10" t="s">
         <v>139</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" s="10" t="s">
         <v>152</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="10" t="s">
         <v>115</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" s="10" t="s">
         <v>154</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" s="10" t="s">
         <v>116</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" s="10" t="s">
         <v>522</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" s="10" t="s">
         <v>509</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
         <v>50</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="10" t="s">
         <v>510</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" s="10" t="s">
         <v>511</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" s="10" t="s">
         <v>508</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" s="10" t="s">
         <v>493</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" s="10" t="s">
         <v>99</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" s="10" t="s">
         <v>126</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" s="10" t="s">
         <v>151</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" s="10" t="s">
         <v>127</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" s="10" t="s">
         <v>1076</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" s="10" t="s">
         <v>501</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" s="10" t="s">
         <v>98</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" s="10" t="s">
         <v>125</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27" s="10" t="s">
         <v>483</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" s="10" t="s">
         <v>58</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31" s="10" t="s">
         <v>123</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" s="10" t="s">
         <v>153</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" s="10" t="s">
         <v>496</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" s="10" t="s">
         <v>498</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" s="10" t="s">
         <v>28</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" s="10" t="s">
         <v>529</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A37" s="10" t="s">
         <v>49</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38" s="10" t="s">
         <v>57</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40" s="10" t="s">
         <v>91</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41" s="10" t="s">
         <v>104</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" s="10" t="s">
         <v>519</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" s="10" t="s">
         <v>512</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" s="10" t="s">
         <v>48</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" s="10" t="s">
         <v>27</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" s="10" t="s">
         <v>472</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A47" s="10" t="s">
         <v>477</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48" s="10" t="s">
         <v>479</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A49" s="10" t="s">
         <v>514</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A50" s="10" t="s">
         <v>100</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A51" s="10" t="s">
         <v>156</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52" s="10" t="s">
         <v>523</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53" s="10" t="s">
         <v>524</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A54" s="10" t="s">
         <v>515</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A55" s="10" t="s">
         <v>25</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" s="10" t="s">
         <v>102</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A57" s="10" t="s">
         <v>103</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A58" s="10" t="s">
         <v>114</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A59" s="10" t="s">
         <v>128</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A60" s="10" t="s">
         <v>129</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A61" s="10" t="s">
         <v>149</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A62" s="10" t="s">
         <v>517</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A63" s="10" t="s">
         <v>46</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.75">
       <c r="A64" s="10" t="s">
         <v>33</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A65" s="10" t="s">
         <v>88</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A66" s="10" t="s">
         <v>92</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A67" s="10" t="s">
         <v>96</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A68" s="10" t="s">
         <v>101</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A69" s="10" t="s">
         <v>108</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A70" s="10" t="s">
         <v>113</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A71" s="10" t="s">
         <v>130</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A72" s="10" t="s">
         <v>134</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A73" s="10" t="s">
         <v>135</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A74" s="10" t="s">
         <v>136</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A75" s="10" t="s">
         <v>157</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A76" s="10" t="s">
         <v>481</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A77" s="10" t="s">
         <v>500</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A78" s="10" t="s">
         <v>528</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A79" s="10" t="s">
         <v>47</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A80" s="10" t="s">
         <v>45</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A81" s="10" t="s">
         <v>24</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A82" s="10" t="s">
         <v>89</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A83" s="10" t="s">
         <v>90</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A84" s="10" t="s">
         <v>93</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A85" s="10" t="s">
         <v>94</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A86" s="10" t="s">
         <v>132</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A87" s="10" t="s">
         <v>158</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A88" s="10" t="s">
         <v>518</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A89" s="10" t="s">
         <v>97</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A90" s="10" t="s">
         <v>480</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A91" s="10" t="s">
         <v>491</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A92" s="10" t="s">
         <v>505</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A93" s="10" t="s">
         <v>95</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A94" s="10" t="s">
         <v>131</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A95" s="10" t="s">
         <v>159</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A96" s="10" t="s">
         <v>474</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A97" s="10" t="s">
         <v>32</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A98" s="10" t="s">
         <v>110</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A99" s="10" t="s">
         <v>485</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A100" s="10" t="s">
         <v>109</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A101" s="10" t="s">
         <v>133</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A102" s="10" t="s">
         <v>160</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A103" s="10" t="s">
         <v>161</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A104" s="10" t="s">
         <v>155</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A105" s="10" t="s">
         <v>111</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A106" s="10" t="s">
         <v>112</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A107" s="10" t="s">
         <v>122</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A108" s="10" t="s">
         <v>78</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A109" s="10" t="s">
         <v>470</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A110" s="10" t="s">
         <v>471</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A111" s="12" t="s">
         <v>1120</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A112" s="12" t="s">
         <v>1084</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A113" s="12" t="s">
         <v>1085</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A114" s="12" t="s">
         <v>1086</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A115" s="12" t="s">
         <v>1089</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A116" s="12" t="s">
         <v>1121</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A117" s="12" t="s">
         <v>1090</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A118" s="12" t="s">
         <v>1091</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A119" s="12" t="s">
         <v>1092</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A120" s="12" t="s">
         <v>1122</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A121" s="12" t="s">
         <v>1093</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A122" s="12" t="s">
         <v>1094</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A123" s="12" t="s">
         <v>1095</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A124" s="12" t="s">
         <v>1096</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A125" s="12" t="s">
         <v>1097</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A126" s="12" t="s">
         <v>1098</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A127" s="12" t="s">
         <v>1099</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A128" s="12" t="s">
         <v>1100</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A129" s="12" t="s">
         <v>1101</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A130" s="12" t="s">
         <v>1170</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A131" s="12" t="s">
         <v>1102</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A132" s="12" t="s">
         <v>1104</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A133" s="12" t="s">
         <v>1105</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A134" s="12" t="s">
         <v>1106</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A135" s="12" t="s">
         <v>1107</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A136" s="12" t="s">
         <v>1108</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A137" s="12" t="s">
         <v>1123</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A138" s="12" t="s">
         <v>1109</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A139" s="12" t="s">
         <v>1135</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A140" s="12" t="s">
         <v>1110</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A141" s="12" t="s">
         <v>1111</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A142" s="12" t="s">
         <v>1112</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A143" s="12" t="s">
         <v>1113</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A144" s="12" t="s">
         <v>1114</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A145" s="12" t="s">
         <v>1125</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A146" s="12" t="s">
         <v>1115</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A147" s="10" t="s">
         <v>61</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A148" s="10" t="s">
         <v>60</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A149" s="10" t="s">
         <v>59</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A150" s="10" t="s">
         <v>83</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A151" s="10" t="s">
         <v>84</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A152" s="10" t="s">
         <v>86</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A153" s="10" t="s">
         <v>87</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A154" s="12" t="s">
         <v>1018</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A155" s="12" t="s">
         <v>1019</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A156" s="12" t="s">
         <v>1020</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A157" s="12" t="s">
         <v>1021</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A158" s="12" t="s">
         <v>1022</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A159" s="12" t="s">
         <v>1035</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A160" s="12" t="s">
         <v>1039</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A161" s="12" t="s">
         <v>1043</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A162" s="12" t="s">
         <v>1047</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A163" s="12" t="s">
         <v>1051</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A164" s="12" t="s">
         <v>1053</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A165" s="12" t="s">
         <v>1057</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A166" s="12" t="s">
         <v>1061</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A167" s="12" t="s">
         <v>1065</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A168" s="12" t="s">
         <v>1069</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A169" s="12" t="s">
         <v>1073</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A170" s="12" t="s">
         <v>1075</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A171" s="12" t="s">
         <v>1034</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A172" s="12" t="s">
         <v>1038</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A173" s="12" t="s">
         <v>1042</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A174" s="12" t="s">
         <v>1046</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A175" s="12" t="s">
         <v>1050</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A176" s="12" t="s">
         <v>1056</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A177" s="12" t="s">
         <v>1060</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A178" s="12" t="s">
         <v>1064</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A179" s="12" t="s">
         <v>1068</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A180" s="12" t="s">
         <v>1072</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A181" s="12" t="s">
         <v>1033</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A182" s="12" t="s">
         <v>1037</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A183" s="12" t="s">
         <v>1041</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A184" s="12" t="s">
         <v>1045</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A185" s="12" t="s">
         <v>1049</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A186" s="12" t="s">
         <v>1052</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A187" s="12" t="s">
         <v>1055</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A188" s="12" t="s">
         <v>1059</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A189" s="12" t="s">
         <v>1063</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A190" s="12" t="s">
         <v>1067</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A191" s="12" t="s">
         <v>1071</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A192" s="12" t="s">
         <v>1074</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A193" s="12" t="s">
         <v>1032</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A194" s="12" t="s">
         <v>1036</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A195" s="12" t="s">
         <v>1040</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A196" s="12" t="s">
         <v>1044</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A197" s="12" t="s">
         <v>1048</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A198" s="12" t="s">
         <v>1054</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A199" s="12" t="s">
         <v>1058</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A200" s="12" t="s">
         <v>1062</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A201" s="12" t="s">
         <v>1066</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A202" s="12" t="s">
         <v>1070</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A203" s="10" t="s">
         <v>107</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A204" s="10" t="s">
         <v>106</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A205" s="10" t="s">
         <v>105</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A206" s="10" t="s">
         <v>148</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A207" s="10" t="s">
         <v>162</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A208" s="10" t="s">
         <v>322</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A209" s="10" t="s">
         <v>323</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A210" s="10" t="s">
         <v>324</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A211" s="10" t="s">
         <v>325</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A212" s="10" t="s">
         <v>326</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A213" s="10" t="s">
         <v>327</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A214" s="10" t="s">
         <v>329</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A215" s="10" t="s">
         <v>330</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A216" s="10" t="s">
         <v>331</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A217" s="10" t="s">
         <v>332</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A218" s="10" t="s">
         <v>333</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A219" s="10" t="s">
         <v>334</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A220" s="10" t="s">
         <v>335</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A221" s="10" t="s">
         <v>336</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A222" s="10" t="s">
         <v>337</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A223" s="10" t="s">
         <v>338</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A224" s="10" t="s">
         <v>339</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A225" s="10" t="s">
         <v>340</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A226" s="10" t="s">
         <v>341</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A227" s="10" t="s">
         <v>342</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A228" s="10" t="s">
         <v>343</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A229" s="10" t="s">
         <v>344</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A230" s="10" t="s">
         <v>345</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A231" s="10" t="s">
         <v>346</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A232" s="10" t="s">
         <v>347</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A233" s="10" t="s">
         <v>348</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A234" s="10" t="s">
         <v>349</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A235" s="10" t="s">
         <v>350</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A236" s="10" t="s">
         <v>351</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A237" s="10" t="s">
         <v>352</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A238" s="10" t="s">
         <v>353</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A239" s="10" t="s">
         <v>354</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A240" s="10" t="s">
         <v>355</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A241" s="10" t="s">
         <v>356</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A242" s="10" t="s">
         <v>357</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A243" s="10" t="s">
         <v>358</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A244" s="10" t="s">
         <v>360</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A245" s="10" t="s">
         <v>361</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A246" s="10" t="s">
         <v>362</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A247" s="10" t="s">
         <v>363</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A248" s="10" t="s">
         <v>364</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A249" s="10" t="s">
         <v>365</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A250" s="10" t="s">
         <v>366</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A251" s="10" t="s">
         <v>367</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A252" s="10" t="s">
         <v>368</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A253" s="10" t="s">
         <v>369</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A254" s="10" t="s">
         <v>370</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A255" s="10" t="s">
         <v>371</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A256" s="10" t="s">
         <v>372</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A257" s="10" t="s">
         <v>373</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A258" s="10" t="s">
         <v>374</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A259" s="10" t="s">
         <v>375</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A260" s="10" t="s">
         <v>376</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A261" s="10" t="s">
         <v>377</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A262" s="10" t="s">
         <v>378</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A263" s="10" t="s">
         <v>379</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A264" s="10" t="s">
         <v>380</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A265" s="10" t="s">
         <v>381</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A266" s="10" t="s">
         <v>382</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A267" s="10" t="s">
         <v>383</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A268" s="10" t="s">
         <v>384</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A269" s="10" t="s">
         <v>385</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A270" s="10" t="s">
         <v>386</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A271" s="10" t="s">
         <v>387</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A272" s="10" t="s">
         <v>388</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A273" s="10" t="s">
         <v>389</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A274" s="10" t="s">
         <v>390</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A275" s="10" t="s">
         <v>391</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A276" s="10" t="s">
         <v>392</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A277" s="10" t="s">
         <v>393</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A278" s="10" t="s">
         <v>394</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A279" s="10" t="s">
         <v>395</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A280" s="10" t="s">
         <v>396</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A281" s="10" t="s">
         <v>397</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A282" s="10" t="s">
         <v>398</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A283" s="10" t="s">
         <v>399</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A284" s="10" t="s">
         <v>400</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A285" s="10" t="s">
         <v>401</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A286" s="10" t="s">
         <v>402</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A287" s="10" t="s">
         <v>403</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A288" s="10" t="s">
         <v>404</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A289" s="10" t="s">
         <v>405</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A290" s="10" t="s">
         <v>406</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A291" s="10" t="s">
         <v>407</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A292" s="10" t="s">
         <v>408</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A293" s="10" t="s">
         <v>409</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A294" s="10" t="s">
         <v>410</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A295" s="10" t="s">
         <v>411</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A296" s="10" t="s">
         <v>412</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A297" s="10" t="s">
         <v>413</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A298" s="10" t="s">
         <v>414</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A299" s="10" t="s">
         <v>415</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A300" s="10" t="s">
         <v>416</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A301" s="10" t="s">
         <v>417</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A302" s="10" t="s">
         <v>418</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A303" s="10" t="s">
         <v>466</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A304" s="10" t="s">
         <v>465</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A305" s="10" t="s">
         <v>464</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A306" s="10" t="s">
         <v>463</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A307" s="10" t="s">
         <v>462</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A308" s="10" t="s">
         <v>461</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A309" s="10" t="s">
         <v>460</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A310" s="10" t="s">
         <v>459</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A311" s="10" t="s">
         <v>458</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A312" s="10" t="s">
         <v>457</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A313" s="10" t="s">
         <v>456</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A314" s="10" t="s">
         <v>106</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A315" s="10" t="s">
         <v>455</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A316" s="10" t="s">
         <v>454</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A317" s="10" t="s">
         <v>453</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A318" s="10" t="s">
         <v>452</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A319" s="10" t="s">
         <v>451</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A320" s="10" t="s">
         <v>450</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A321" s="10" t="s">
         <v>449</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A322" s="10" t="s">
         <v>448</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A323" s="10" t="s">
         <v>447</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A324" s="10" t="s">
         <v>446</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A325" s="10" t="s">
         <v>445</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A326" s="10" t="s">
         <v>444</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A327" s="10" t="s">
         <v>443</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A328" s="10" t="s">
         <v>442</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A329" s="10" t="s">
         <v>441</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A330" s="10" t="s">
         <v>440</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A331" s="10" t="s">
         <v>439</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A332" s="10" t="s">
         <v>438</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A333" s="10" t="s">
         <v>437</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A334" s="10" t="s">
         <v>436</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A335" s="10" t="s">
         <v>435</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A336" s="10" t="s">
         <v>434</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A337" s="10" t="s">
         <v>433</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A338" s="10" t="s">
         <v>432</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A339" s="10" t="s">
         <v>431</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A340" s="10" t="s">
         <v>430</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A341" s="10" t="s">
         <v>429</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A342" s="10" t="s">
         <v>428</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A343" s="10" t="s">
         <v>427</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A344" s="10" t="s">
         <v>426</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A345" s="10" t="s">
         <v>425</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A346" s="10" t="s">
         <v>468</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A347" s="10" t="s">
         <v>424</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A348" s="10" t="s">
         <v>423</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A349" s="10" t="s">
         <v>422</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A350" s="10" t="s">
         <v>421</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A351" s="10" t="s">
         <v>420</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A352" s="10" t="s">
         <v>476</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A353" s="6" t="s">
         <v>19</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A354" s="10" t="s">
         <v>497</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A355" s="10" t="s">
         <v>521</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A356" s="6" t="s">
         <v>53</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A357" s="10" t="s">
         <v>530</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A358" s="10" t="s">
         <v>527</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A359" s="10" t="s">
         <v>507</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A360" s="10" t="s">
         <v>526</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A361" s="10" t="s">
         <v>492</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A362" s="10" t="s">
         <v>520</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A363" s="10" t="s">
         <v>499</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A364" s="10" t="s">
         <v>504</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A365" s="10" t="s">
         <v>516</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A366" s="6" t="s">
         <v>17</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A367" s="6" t="s">
         <v>20</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A368" s="10" t="s">
         <v>482</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A369" s="10" t="s">
         <v>478</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A370" s="10" t="s">
         <v>502</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A371" s="10" t="s">
         <v>513</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A372" s="6" t="s">
         <v>22</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A373" s="6" t="s">
         <v>1</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A374" s="6" t="s">
         <v>16</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A375" s="6" t="s">
         <v>23</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A376" s="10" t="s">
         <v>548</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A377" s="6" t="s">
         <v>18</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A378" s="6" t="s">
         <v>21</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A379" s="6" t="s">
         <v>138</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A380" s="10" t="s">
         <v>494</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A381" s="6" t="s">
         <v>54</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A382" s="6" t="s">
         <v>5</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A383" s="6" t="s">
         <v>12</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A384" s="6" t="s">
         <v>6</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A385" s="6" t="s">
         <v>55</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A386" s="10" t="s">
         <v>484</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A387" s="10" t="s">
         <v>486</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A388" s="6" t="s">
         <v>2</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A389" s="6" t="s">
         <v>44</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A390" s="6" t="s">
         <v>52</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A391" s="6" t="s">
         <v>137</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A392" s="10" t="s">
         <v>525</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A393" s="6" t="s">
         <v>9</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A394" s="6" t="s">
         <v>14</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A395" s="6" t="s">
         <v>7</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A396" s="6" t="s">
         <v>8</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A397" s="6" t="s">
         <v>51</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A398" s="6" t="s">
         <v>56</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A399" s="6" t="s">
         <v>15</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A400" s="6" t="s">
         <v>43</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A401" s="6" t="s">
         <v>13</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A402" s="10" t="s">
         <v>469</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A403" s="12" t="s">
         <v>64</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A404" s="12" t="s">
         <v>71</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A405" s="12" t="s">
         <v>66</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A406" s="12" t="s">
         <v>70</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A407" s="12" t="s">
         <v>65</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A408" s="12" t="s">
         <v>69</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A409" s="12" t="s">
         <v>67</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A410" s="12" t="s">
         <v>68</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A411" s="10" t="s">
         <v>163</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A412" s="10" t="s">
         <v>164</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A413" s="10" t="s">
         <v>165</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A414" s="10" t="s">
         <v>166</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A415" s="10" t="s">
         <v>167</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A416" s="10" t="s">
         <v>240</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A417" s="10" t="s">
         <v>267</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A418" s="10" t="s">
         <v>268</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A419" s="10" t="s">
         <v>270</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A420" s="10" t="s">
         <v>272</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A421" s="10" t="s">
         <v>282</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A422" s="10" t="s">
         <v>286</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A423" s="10" t="s">
         <v>292</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A424" s="10" t="s">
         <v>293</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A425" s="10" t="s">
         <v>298</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A426" s="10" t="s">
         <v>305</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A427" s="10" t="s">
         <v>309</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A428" s="10" t="s">
         <v>313</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A429" s="10" t="s">
         <v>168</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A430" s="10" t="s">
         <v>169</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A431" s="10" t="s">
         <v>285</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A432" s="10" t="s">
         <v>301</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A433" s="10" t="s">
         <v>306</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A434" s="10" t="s">
         <v>315</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A435" s="10" t="s">
         <v>170</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A436" s="10" t="s">
         <v>171</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A437" s="10" t="s">
         <v>172</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A438" s="10" t="s">
         <v>173</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A439" s="10" t="s">
         <v>174</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A440" s="10" t="s">
         <v>175</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A441" s="10" t="s">
         <v>176</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A442" s="10" t="s">
         <v>236</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A443" s="10" t="s">
         <v>256</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A444" s="10" t="s">
         <v>288</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A445" s="10" t="s">
         <v>289</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A446" s="10" t="s">
         <v>291</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A447" s="10" t="s">
         <v>294</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A448" s="10" t="s">
         <v>311</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A449" s="10" t="s">
         <v>312</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A450" s="10" t="s">
         <v>316</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A451" s="10" t="s">
         <v>320</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A452" s="10" t="s">
         <v>177</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A453" s="10" t="s">
         <v>178</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A454" s="10" t="s">
         <v>179</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A455" s="10" t="s">
         <v>180</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A456" s="10" t="s">
         <v>181</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A457" s="10" t="s">
         <v>228</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A458" s="10" t="s">
         <v>229</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A459" s="10" t="s">
         <v>234</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A460" s="10" t="s">
         <v>252</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A461" s="10" t="s">
         <v>255</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A462" s="10" t="s">
         <v>257</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A463" s="10" t="s">
         <v>277</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A464" s="10" t="s">
         <v>284</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A465" s="10" t="s">
         <v>290</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A466" s="10" t="s">
         <v>297</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A467" s="10" t="s">
         <v>302</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A468" s="10" t="s">
         <v>303</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A469" s="10" t="s">
         <v>310</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A470" s="10" t="s">
         <v>314</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A471" s="10" t="s">
         <v>321</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A472" s="10" t="s">
         <v>182</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A473" s="10" t="s">
         <v>183</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A474" s="10" t="s">
         <v>184</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A475" s="10" t="s">
         <v>185</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A476" s="10" t="s">
         <v>186</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A477" s="10" t="s">
         <v>187</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A478" s="10" t="s">
         <v>188</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A479" s="10" t="s">
         <v>189</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A480" s="10" t="s">
         <v>190</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A481" s="10" t="s">
         <v>245</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A482" s="10" t="s">
         <v>246</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A483" s="10" t="s">
         <v>247</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A484" s="10" t="s">
         <v>249</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A485" s="10" t="s">
         <v>254</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A486" s="10" t="s">
         <v>262</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A487" s="10" t="s">
         <v>271</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A488" s="10" t="s">
         <v>281</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A489" s="10" t="s">
         <v>287</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A490" s="10" t="s">
         <v>296</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A491" s="10" t="s">
         <v>299</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A492" s="10" t="s">
         <v>304</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A493" s="10" t="s">
         <v>308</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A494" s="10" t="s">
         <v>317</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A495" s="10" t="s">
         <v>319</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A496" s="10" t="s">
         <v>191</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A497" s="10" t="s">
         <v>192</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A498" s="10" t="s">
         <v>193</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A499" s="10" t="s">
         <v>194</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A500" s="10" t="s">
         <v>195</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A501" s="10" t="s">
         <v>235</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A502" s="10" t="s">
         <v>239</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A503" s="10" t="s">
         <v>261</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A504" s="10" t="s">
         <v>275</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A505" s="10" t="s">
         <v>280</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A506" s="10" t="s">
         <v>283</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A507" s="10" t="s">
         <v>295</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A508" s="10" t="s">
         <v>307</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A509" s="10" t="s">
         <v>318</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A510" s="10" t="s">
         <v>196</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A511" s="10" t="s">
         <v>197</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A512" s="10" t="s">
         <v>198</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A513" s="10" t="s">
         <v>199</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A514" s="10" t="s">
         <v>200</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A515" s="10" t="s">
         <v>201</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A516" s="10" t="s">
         <v>202</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A517" s="10" t="s">
         <v>203</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A518" s="10" t="s">
         <v>204</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A519" s="10" t="s">
         <v>205</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A520" s="10" t="s">
         <v>206</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A521" s="10" t="s">
         <v>233</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A522" s="10" t="s">
         <v>238</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A523" s="10" t="s">
         <v>242</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A524" s="10" t="s">
         <v>248</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A525" s="10" t="s">
         <v>276</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A526" s="10" t="s">
         <v>207</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A527" s="10" t="s">
         <v>208</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A528" s="10" t="s">
         <v>209</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A529" s="10" t="s">
         <v>210</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A530" s="10" t="s">
         <v>211</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A531" s="10" t="s">
         <v>212</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A532" s="10" t="s">
         <v>213</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A533" s="10" t="s">
         <v>214</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A534" s="10" t="s">
         <v>215</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A535" s="10" t="s">
         <v>216</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A536" s="10" t="s">
         <v>244</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A537" s="10" t="s">
         <v>250</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A538" s="10" t="s">
         <v>253</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A539" s="10" t="s">
         <v>258</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A540" s="10" t="s">
         <v>260</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A541" s="10" t="s">
         <v>264</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A542" s="10" t="s">
         <v>266</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A543" s="10" t="s">
         <v>269</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A544" s="10" t="s">
         <v>279</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A545" s="10" t="s">
         <v>300</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A546" s="10" t="s">
         <v>217</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A547" s="10" t="s">
         <v>218</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A548" s="10" t="s">
         <v>219</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A549" s="10" t="s">
         <v>220</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A550" s="10" t="s">
         <v>221</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A551" s="10" t="s">
         <v>241</v>
       </c>
@@ -19539,7 +19539,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A552" s="10" t="s">
         <v>243</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A553" s="10" t="s">
         <v>251</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A554" s="10" t="s">
         <v>265</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A555" s="10" t="s">
         <v>273</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A556" s="10" t="s">
         <v>278</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A557" s="10" t="s">
         <v>222</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A558" s="10" t="s">
         <v>223</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A559" s="10" t="s">
         <v>224</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A560" s="10" t="s">
         <v>225</v>
       </c>
@@ -19764,7 +19764,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A561" s="10" t="s">
         <v>226</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A562" s="10" t="s">
         <v>227</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A563" s="10" t="s">
         <v>230</v>
       </c>
@@ -19839,7 +19839,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A564" s="10" t="s">
         <v>231</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A565" s="10" t="s">
         <v>232</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A566" s="10" t="s">
         <v>237</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A567" s="10" t="s">
         <v>259</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A568" s="10" t="s">
         <v>263</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A569" s="10" t="s">
         <v>274</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A570" s="11" t="s">
         <v>945</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A571" s="11" t="s">
         <v>947</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A572" s="11" t="s">
         <v>944</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A573" s="11" t="s">
         <v>950</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A574" s="11" t="s">
         <v>898</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A575" s="11" t="s">
         <v>1010</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.75">
       <c r="A576" s="11" t="s">
         <v>927</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A577" s="11" t="s">
         <v>949</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A578" s="11" t="s">
         <v>943</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A579" s="11" t="s">
         <v>946</v>
       </c>
@@ -20274,7 +20274,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A580" s="11" t="s">
         <v>1014</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A581" s="11" t="s">
         <v>897</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A582" s="11" t="s">
         <v>1009</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A583" s="11" t="s">
         <v>926</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A584" s="11" t="s">
         <v>948</v>
       </c>
@@ -20424,7 +20424,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A585" s="11" t="s">
         <v>896</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A586" s="11" t="s">
         <v>1008</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A587" s="11" t="s">
         <v>909</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A588" s="11" t="s">
         <v>1013</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A589" s="11" t="s">
         <v>925</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A590" s="11" t="s">
         <v>938</v>
       </c>
@@ -20598,7 +20598,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A591" s="11" t="s">
         <v>895</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A592" s="11" t="s">
         <v>1007</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A593" s="11" t="s">
         <v>1012</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A594" s="11" t="s">
         <v>924</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A595" s="10" t="s">
         <v>993</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A596" s="10" t="s">
         <v>994</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A597" s="10" t="s">
         <v>995</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A598" s="10" t="s">
         <v>996</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A599" s="10" t="s">
         <v>997</v>
       </c>
@@ -20850,7 +20850,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A600" s="10" t="s">
         <v>998</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A601" s="10" t="s">
         <v>999</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A602" s="10" t="s">
         <v>1000</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A603" s="10" t="s">
         <v>1001</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A604" s="10" t="s">
         <v>1002</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A605" s="10" t="s">
         <v>1003</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A606" s="10" t="s">
         <v>1004</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A607" s="10" t="s">
         <v>1005</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A608" s="10" t="s">
         <v>1006</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A609" s="11" t="s">
         <v>919</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A610" s="11" t="s">
         <v>942</v>
       </c>
@@ -21150,7 +21150,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A611" s="11" t="s">
         <v>1011</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A612" s="11" t="s">
         <v>937</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A613" s="10" t="s">
         <v>979</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A614" s="10" t="s">
         <v>980</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A615" s="10" t="s">
         <v>981</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A616" s="10" t="s">
         <v>982</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A617" s="10" t="s">
         <v>983</v>
       </c>
@@ -21342,7 +21342,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A618" s="10" t="s">
         <v>984</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A619" s="10" t="s">
         <v>985</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A620" s="10" t="s">
         <v>986</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A621" s="10" t="s">
         <v>987</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A622" s="10" t="s">
         <v>988</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A623" s="10" t="s">
         <v>989</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A624" s="10" t="s">
         <v>990</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A625" s="10" t="s">
         <v>991</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A626" s="10" t="s">
         <v>992</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A627" s="11" t="s">
         <v>906</v>
       </c>
@@ -21615,7 +21615,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A628" s="11" t="s">
         <v>915</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A629" s="11" t="s">
         <v>918</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A630" s="11" t="s">
         <v>936</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A631" s="11" t="s">
         <v>907</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A632" s="11" t="s">
         <v>923</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A633" s="11" t="s">
         <v>930</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A634" s="11" t="s">
         <v>905</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A635" s="11" t="s">
         <v>914</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A636" s="11" t="s">
         <v>921</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A637" s="11" t="s">
         <v>935</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A638" s="11" t="s">
         <v>908</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A639" s="11" t="s">
         <v>917</v>
       </c>
@@ -21951,7 +21951,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A640" s="10" t="s">
         <v>965</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A641" s="10" t="s">
         <v>966</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A642" s="10" t="s">
         <v>967</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A643" s="10" t="s">
         <v>968</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A644" s="10" t="s">
         <v>969</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A645" s="10" t="s">
         <v>970</v>
       </c>
@@ -22113,7 +22113,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A646" s="10" t="s">
         <v>971</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A647" s="10" t="s">
         <v>972</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A648" s="10" t="s">
         <v>973</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A649" s="10" t="s">
         <v>974</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A650" s="10" t="s">
         <v>975</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A651" s="10" t="s">
         <v>976</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A652" s="10" t="s">
         <v>977</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A653" s="10" t="s">
         <v>978</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A654" s="11" t="s">
         <v>894</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A655" s="11" t="s">
         <v>916</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A656" s="11" t="s">
         <v>904</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A657" s="11" t="s">
         <v>913</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A658" s="11" t="s">
         <v>920</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A659" s="11" t="s">
         <v>934</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A660" s="11" t="s">
         <v>941</v>
       </c>
@@ -22527,7 +22527,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A661" s="11" t="s">
         <v>886</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A662" s="11" t="s">
         <v>890</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A663" s="11" t="s">
         <v>902</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A664" s="11" t="s">
         <v>939</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A665" s="11" t="s">
         <v>893</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A666" s="11" t="s">
         <v>929</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A667" s="11" t="s">
         <v>922</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A668" s="10" t="s">
         <v>951</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A669" s="10" t="s">
         <v>952</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A670" s="10" t="s">
         <v>953</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A671" s="10" t="s">
         <v>954</v>
       </c>
@@ -22839,7 +22839,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A672" s="10" t="s">
         <v>955</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A673" s="10" t="s">
         <v>956</v>
       </c>
@@ -22893,7 +22893,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A674" s="10" t="s">
         <v>957</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A675" s="10" t="s">
         <v>958</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A676" s="10" t="s">
         <v>959</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A677" s="10" t="s">
         <v>960</v>
       </c>
@@ -23001,7 +23001,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A678" s="10" t="s">
         <v>961</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A679" s="10" t="s">
         <v>962</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A680" s="10" t="s">
         <v>963</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A681" s="10" t="s">
         <v>964</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A682" s="11" t="s">
         <v>885</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="683" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A683" s="11" t="s">
         <v>889</v>
       </c>
@@ -23172,7 +23172,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A684" s="11" t="s">
         <v>901</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A685" s="11" t="s">
         <v>892</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A686" s="11" t="s">
         <v>903</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A687" s="11" t="s">
         <v>912</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.75">
       <c r="A688" s="11" t="s">
         <v>933</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A689" s="11" t="s">
         <v>940</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="690" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:12" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A690" s="11" t="s">
         <v>928</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A691" s="11" t="s">
         <v>884</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="692" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:12" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A692" s="11" t="s">
         <v>888</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A693" s="11" t="s">
         <v>900</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A694" s="11" t="s">
         <v>891</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A695" s="11" t="s">
         <v>932</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A696" s="11" t="s">
         <v>911</v>
       </c>
@@ -23559,7 +23559,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A697" s="11" t="s">
         <v>883</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A698" s="11" t="s">
         <v>887</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A699" s="11" t="s">
         <v>899</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A700" s="11" t="s">
         <v>931</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A701" s="11" t="s">
         <v>910</v>
       </c>
@@ -23715,7 +23715,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A702" s="10" t="s">
         <v>121</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A703" s="10" t="s">
         <v>546</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A704" s="10" t="s">
         <v>120</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="705" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A705" s="10" t="s">
         <v>545</v>
       </c>
@@ -23841,7 +23841,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="706" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A706" s="12" t="s">
         <v>778</v>
       </c>
@@ -23871,7 +23871,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="707" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A707" s="10" t="s">
         <v>119</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="708" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A708" s="10" t="s">
         <v>544</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="709" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A709" s="10" t="s">
         <v>489</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="710" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A710" s="10" t="s">
         <v>118</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="711" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A711" s="10" t="s">
         <v>37</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="712" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A712" s="10" t="s">
         <v>487</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="713" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A713" s="10" t="s">
         <v>543</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="714" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A714" s="10" t="s">
         <v>488</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="715" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A715" s="10" t="s">
         <v>490</v>
       </c>
@@ -24132,7 +24132,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="716" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A716" s="10" t="s">
         <v>41</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="717" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A717" s="10" t="s">
         <v>495</v>
       </c>
@@ -24186,7 +24186,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="718" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A718" s="10" t="s">
         <v>36</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="719" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A719" s="10" t="s">
         <v>40</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="720" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A720" s="10" t="s">
         <v>42</v>
       </c>
@@ -24273,7 +24273,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A721" s="10" t="s">
         <v>506</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A722" s="10" t="s">
         <v>503</v>
       </c>
@@ -24330,7 +24330,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A723" s="10" t="s">
         <v>473</v>
       </c>
@@ -24357,7 +24357,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A724" s="10" t="s">
         <v>419</v>
       </c>
@@ -24387,7 +24387,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="725" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A725" s="12" t="s">
         <v>1077</v>
       </c>
@@ -24417,7 +24417,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="726" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A726" s="12" t="s">
         <v>1078</v>
       </c>
@@ -24444,7 +24444,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="727" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A727" s="6" t="s">
         <v>553</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A728" s="6" t="s">
         <v>569</v>
       </c>
@@ -24511,7 +24511,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="729" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A729" s="6" t="s">
         <v>570</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="730" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A730" s="6" t="s">
         <v>571</v>
       </c>
@@ -24569,7 +24569,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="731" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A731" s="6" t="s">
         <v>556</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="732" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A732" s="6" t="s">
         <v>573</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="733" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A733" s="6" t="s">
         <v>583</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="734" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A734" s="6" t="s">
         <v>593</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="735" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A735" s="6" t="s">
         <v>815</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="736" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A736" s="6" t="s">
         <v>558</v>
       </c>
@@ -24764,7 +24764,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="737" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A737" s="6" t="s">
         <v>575</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="738" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A738" s="6" t="s">
         <v>585</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="739" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A739" s="6" t="s">
         <v>595</v>
       </c>
@@ -24854,7 +24854,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="740" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A740" s="12" t="s">
         <v>1226</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="741" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A741" s="12" t="s">
         <v>1227</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="742" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A742" s="12" t="s">
         <v>1228</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="743" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A743" s="12" t="s">
         <v>1229</v>
       </c>
@@ -24972,7 +24972,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="744" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A744" s="6" t="s">
         <v>79</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="745" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A745" s="6" t="s">
         <v>567</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="746" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A746" s="6" t="s">
         <v>603</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="747" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A747" s="6" t="s">
         <v>606</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="748" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A748" s="6" t="s">
         <v>609</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="749" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A749" s="12" t="s">
         <v>1179</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="750" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A750" s="6" t="s">
         <v>561</v>
       </c>
@@ -25190,7 +25190,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="751" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A751" s="6" t="s">
         <v>578</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="752" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A752" s="6" t="s">
         <v>588</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A753" s="6" t="s">
         <v>598</v>
       </c>
@@ -25280,7 +25280,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A754" s="6" t="s">
         <v>560</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A755" s="6" t="s">
         <v>577</v>
       </c>
@@ -25344,7 +25344,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A756" s="6" t="s">
         <v>587</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A757" s="6" t="s">
         <v>597</v>
       </c>
@@ -25402,7 +25402,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A758" s="6" t="s">
         <v>1351</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A759" s="6" t="s">
         <v>564</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A760" s="6" t="s">
         <v>581</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A761" s="6" t="s">
         <v>591</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="762" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A762" s="6" t="s">
         <v>601</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="763" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A763" s="12" t="s">
         <v>1205</v>
       </c>
@@ -25586,7 +25586,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="764" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A764" s="12" t="s">
         <v>1206</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="765" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A765" s="12" t="s">
         <v>1207</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="766" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A766" s="12" t="s">
         <v>1208</v>
       </c>
@@ -25679,7 +25679,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="767" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A767" s="6" t="s">
         <v>559</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="768" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A768" s="6" t="s">
         <v>576</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="769" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A769" s="6" t="s">
         <v>586</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="770" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A770" s="6" t="s">
         <v>596</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="771" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A771" s="6" t="s">
         <v>562</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="772" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A772" s="6" t="s">
         <v>579</v>
       </c>
@@ -25868,7 +25868,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="773" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A773" s="6" t="s">
         <v>589</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="774" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A774" s="6" t="s">
         <v>599</v>
       </c>
@@ -25926,7 +25926,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="775" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A775" s="6" t="s">
         <v>1175</v>
       </c>
@@ -25961,7 +25961,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="776" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A776" s="6" t="s">
         <v>1176</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="777" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A777" s="6" t="s">
         <v>1177</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="778" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A778" s="6" t="s">
         <v>1178</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="779" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A779" s="12" t="s">
         <v>1185</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="780" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A780" s="12" t="s">
         <v>1189</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="781" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A781" s="12" t="s">
         <v>1190</v>
       </c>
@@ -26150,7 +26150,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A782" s="6" t="s">
         <v>615</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A783" s="6" t="s">
         <v>621</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A784" s="6" t="s">
         <v>627</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A785" s="6" t="s">
         <v>633</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A786" s="6" t="s">
         <v>616</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A787" s="6" t="s">
         <v>622</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A788" s="6" t="s">
         <v>628</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A789" s="6" t="s">
         <v>634</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A790" s="6" t="s">
         <v>613</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A791" s="6" t="s">
         <v>619</v>
       </c>
@@ -26467,7 +26467,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A792" s="6" t="s">
         <v>625</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A793" s="6" t="s">
         <v>631</v>
       </c>
@@ -26525,7 +26525,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A794" s="6" t="s">
         <v>611</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A795" s="6" t="s">
         <v>617</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A796" s="6" t="s">
         <v>623</v>
       </c>
@@ -26621,7 +26621,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A797" s="6" t="s">
         <v>629</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A798" s="6" t="s">
         <v>614</v>
       </c>
@@ -26685,7 +26685,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A799" s="6" t="s">
         <v>620</v>
       </c>
@@ -26717,7 +26717,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A800" s="6" t="s">
         <v>626</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A801" s="6" t="s">
         <v>632</v>
       </c>
@@ -26775,7 +26775,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="802" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A802" s="12" t="s">
         <v>1191</v>
       </c>
@@ -26805,7 +26805,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="803" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A803" s="6" t="s">
         <v>1171</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="804" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A804" s="6" t="s">
         <v>1172</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="805" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A805" s="6" t="s">
         <v>1173</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A806" s="6" t="s">
         <v>639</v>
       </c>
@@ -26933,7 +26933,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A807" s="6" t="s">
         <v>645</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A808" s="6" t="s">
         <v>651</v>
       </c>
@@ -26994,7 +26994,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="809" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A809" s="6" t="s">
         <v>657</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A810" s="6" t="s">
         <v>640</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A811" s="6" t="s">
         <v>646</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A812" s="6" t="s">
         <v>652</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="813" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A813" s="6" t="s">
         <v>658</v>
       </c>
@@ -27145,7 +27145,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A814" s="6" t="s">
         <v>637</v>
       </c>
@@ -27177,7 +27177,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A815" s="6" t="s">
         <v>643</v>
       </c>
@@ -27209,7 +27209,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A816" s="6" t="s">
         <v>649</v>
       </c>
@@ -27238,7 +27238,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="817" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A817" s="6" t="s">
         <v>655</v>
       </c>
@@ -27267,7 +27267,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A818" s="6" t="s">
         <v>635</v>
       </c>
@@ -27299,7 +27299,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A819" s="6" t="s">
         <v>641</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A820" s="6" t="s">
         <v>647</v>
       </c>
@@ -27360,7 +27360,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="821" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A821" s="6" t="s">
         <v>653</v>
       </c>
@@ -27389,7 +27389,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A822" s="6" t="s">
         <v>638</v>
       </c>
@@ -27421,7 +27421,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A823" s="6" t="s">
         <v>644</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A824" s="6" t="s">
         <v>650</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="825" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A825" s="6" t="s">
         <v>656</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A826" s="6" t="s">
         <v>1174</v>
       </c>
@@ -27540,7 +27540,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="827" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A827" s="6" t="s">
         <v>1218</v>
       </c>
@@ -27575,7 +27575,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="828" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A828" s="6" t="s">
         <v>1219</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="829" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A829" s="6" t="s">
         <v>1220</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="830" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A830" s="6" t="s">
         <v>1221</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="831" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A831" s="6" t="s">
         <v>568</v>
       </c>
@@ -27697,7 +27697,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="832" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A832" s="6" t="s">
         <v>604</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="833" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A833" s="6" t="s">
         <v>607</v>
       </c>
@@ -27758,7 +27758,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="834" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A834" s="6" t="s">
         <v>610</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="835" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A835" s="6" t="s">
         <v>554</v>
       </c>
@@ -27819,7 +27819,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="836" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A836" s="12" t="s">
         <v>1196</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A837" s="6" t="s">
         <v>663</v>
       </c>
@@ -27887,7 +27887,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A838" s="6" t="s">
         <v>669</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A839" s="6" t="s">
         <v>675</v>
       </c>
@@ -27948,7 +27948,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A840" s="6" t="s">
         <v>681</v>
       </c>
@@ -27977,7 +27977,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A841" s="6" t="s">
         <v>664</v>
       </c>
@@ -28009,7 +28009,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A842" s="6" t="s">
         <v>670</v>
       </c>
@@ -28041,7 +28041,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A843" s="6" t="s">
         <v>676</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A844" s="6" t="s">
         <v>682</v>
       </c>
@@ -28099,7 +28099,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A845" s="12" t="s">
         <v>1197</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A846" s="6" t="s">
         <v>661</v>
       </c>
@@ -28164,7 +28164,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A847" s="6" t="s">
         <v>667</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A848" s="6" t="s">
         <v>673</v>
       </c>
@@ -28225,7 +28225,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A849" s="6" t="s">
         <v>679</v>
       </c>
@@ -28254,7 +28254,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A850" s="6" t="s">
         <v>659</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A851" s="6" t="s">
         <v>665</v>
       </c>
@@ -28318,7 +28318,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A852" s="6" t="s">
         <v>671</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A853" s="6" t="s">
         <v>677</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="854" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A854" s="6" t="s">
         <v>662</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A855" s="6" t="s">
         <v>668</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A856" s="6" t="s">
         <v>674</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="857" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A857" s="6" t="s">
         <v>680</v>
       </c>
@@ -28498,7 +28498,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="858" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A858" s="12" t="s">
         <v>1198</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="859" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A859" s="12" t="s">
         <v>1199</v>
       </c>
@@ -28558,7 +28558,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="860" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A860" s="6" t="s">
         <v>1225</v>
       </c>
@@ -28590,7 +28590,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="861" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A861" s="6" t="s">
         <v>1224</v>
       </c>
@@ -28622,7 +28622,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="862" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A862" s="6" t="s">
         <v>1222</v>
       </c>
@@ -28651,7 +28651,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="863" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A863" s="6" t="s">
         <v>1223</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="864" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A864" s="6" t="s">
         <v>77</v>
       </c>
@@ -28712,7 +28712,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="865" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A865" s="12" t="s">
         <v>1204</v>
       </c>
@@ -28745,7 +28745,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="866" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A866" s="12" t="s">
         <v>1192</v>
       </c>
@@ -28781,7 +28781,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="867" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A867" s="12" t="s">
         <v>1193</v>
       </c>
@@ -28814,7 +28814,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="868" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A868" s="12" t="s">
         <v>1194</v>
       </c>
@@ -28844,7 +28844,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="869" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A869" s="12" t="s">
         <v>1195</v>
       </c>
@@ -28874,7 +28874,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="870" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A870" s="12" t="s">
         <v>1180</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="871" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A871" s="12" t="s">
         <v>1181</v>
       </c>
@@ -28943,7 +28943,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="872" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A872" s="12" t="s">
         <v>1182</v>
       </c>
@@ -28973,7 +28973,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="873" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A873" s="12" t="s">
         <v>1126</v>
       </c>
@@ -29003,7 +29003,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A874" s="12" t="s">
         <v>1128</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="875" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A875" s="12" t="s">
         <v>1131</v>
       </c>
@@ -29063,7 +29063,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="876" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A876" s="12" t="s">
         <v>1162</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="877" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A877" s="12" t="s">
         <v>1165</v>
       </c>
@@ -29129,7 +29129,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="878" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A878" s="12" t="s">
         <v>1166</v>
       </c>
@@ -29159,7 +29159,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="879" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A879" s="12" t="s">
         <v>1168</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="880" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A880" s="12" t="s">
         <v>1137</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="881" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A881" s="12" t="s">
         <v>1139</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="882" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A882" s="12" t="s">
         <v>1140</v>
       </c>
@@ -29249,7 +29249,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="883" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A883" s="12" t="s">
         <v>1141</v>
       </c>
@@ -29269,7 +29269,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="884" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A884" s="12" t="s">
         <v>1142</v>
       </c>
@@ -29289,7 +29289,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="885" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A885" s="12" t="s">
         <v>1143</v>
       </c>
@@ -29309,7 +29309,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="886" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A886" s="12" t="s">
         <v>1144</v>
       </c>
@@ -29329,7 +29329,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="887" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A887" s="12" t="s">
         <v>1145</v>
       </c>
@@ -29349,7 +29349,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="888" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A888" s="12" t="s">
         <v>1146</v>
       </c>
@@ -29369,7 +29369,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="889" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A889" s="12" t="s">
         <v>1147</v>
       </c>
@@ -29389,7 +29389,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="890" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A890" s="12" t="s">
         <v>1148</v>
       </c>
@@ -29409,7 +29409,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="891" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A891" s="12" t="s">
         <v>1149</v>
       </c>
@@ -29429,7 +29429,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="892" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A892" s="12" t="s">
         <v>1150</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="893" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A893" s="12" t="s">
         <v>1151</v>
       </c>
@@ -29463,7 +29463,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="894" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A894" s="12" t="s">
         <v>1152</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="895" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A895" s="12" t="s">
         <v>1153</v>
       </c>
@@ -29503,7 +29503,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="896" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
       <c r="A896" s="12" t="s">
         <v>1154</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A897" s="12" t="s">
         <v>1155</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="898" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A898" s="12" t="s">
         <v>1157</v>
       </c>
@@ -29557,7 +29557,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="899" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A899" s="12" t="s">
         <v>1158</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A900" s="12" t="s">
         <v>1159</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="901" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A901" s="12" t="s">
         <v>1160</v>
       </c>
@@ -29599,7 +29599,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="902" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A902" s="12" t="s">
         <v>1156</v>
       </c>
@@ -29613,7 +29613,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A903" s="12" t="s">
         <v>1156</v>
       </c>
@@ -29627,7 +29627,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A904" s="12" t="s">
         <v>1156</v>
       </c>
@@ -29641,7 +29641,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="905" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
       <c r="A905" s="12" t="s">
         <v>1156</v>
       </c>
@@ -29655,7 +29655,7 @@
         <v xml:space="preserve">, , , , , , </v>
       </c>
     </row>
-    <row r="906" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A906" s="12" t="s">
         <v>1183</v>
       </c>
@@ -29685,7 +29685,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="907" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A907" s="12" t="s">
         <v>1184</v>
       </c>
@@ -29721,7 +29721,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="908" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A908" s="12" t="s">
         <v>1186</v>
       </c>
@@ -29754,7 +29754,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="909" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A909" s="12" t="s">
         <v>1187</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="910" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A910" s="12" t="s">
         <v>1188</v>
       </c>
@@ -29814,7 +29814,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="911" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A911" s="6" t="s">
         <v>683</v>
       </c>
@@ -29849,7 +29849,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="912" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A912" s="6" t="s">
         <v>685</v>
       </c>
@@ -29881,7 +29881,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="913" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A913" s="6" t="s">
         <v>687</v>
       </c>
@@ -29910,7 +29910,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="914" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A914" s="6" t="s">
         <v>689</v>
       </c>
@@ -29939,7 +29939,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A915" s="6" t="s">
         <v>566</v>
       </c>
@@ -29974,7 +29974,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="916" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A916" s="6" t="s">
         <v>602</v>
       </c>
@@ -30006,7 +30006,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="917" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A917" s="6" t="s">
         <v>605</v>
       </c>
@@ -30035,7 +30035,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="918" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A918" s="6" t="s">
         <v>608</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="919" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A919" s="6" t="s">
         <v>1136</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="920" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A920" s="6" t="s">
         <v>74</v>
       </c>
@@ -30128,7 +30128,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="921" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A921" s="6" t="s">
         <v>555</v>
       </c>
@@ -30163,7 +30163,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="922" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A922" s="6" t="s">
         <v>572</v>
       </c>
@@ -30195,7 +30195,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="923" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A923" s="6" t="s">
         <v>582</v>
       </c>
@@ -30224,7 +30224,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="924" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A924" s="6" t="s">
         <v>592</v>
       </c>
@@ -30253,7 +30253,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="925" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A925" s="6" t="s">
         <v>563</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="926" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A926" s="6" t="s">
         <v>580</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="927" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A927" s="6" t="s">
         <v>590</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="928" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A928" s="6" t="s">
         <v>600</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="929" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A929" s="6" t="s">
         <v>78</v>
       </c>
@@ -30401,7 +30401,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="930" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A930" s="6" t="s">
         <v>557</v>
       </c>
@@ -30436,7 +30436,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="931" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A931" s="6" t="s">
         <v>574</v>
       </c>
@@ -30468,7 +30468,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="932" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A932" s="6" t="s">
         <v>584</v>
       </c>
@@ -30497,7 +30497,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="933" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A933" s="6" t="s">
         <v>594</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="934" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A934" s="6" t="s">
         <v>684</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="935" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A935" s="6" t="s">
         <v>686</v>
       </c>
@@ -30590,7 +30590,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="936" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A936" s="6" t="s">
         <v>688</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="937" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A937" s="6" t="s">
         <v>690</v>
       </c>
@@ -30648,7 +30648,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="938" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A938" s="6" t="s">
         <v>76</v>
       </c>
@@ -30680,7 +30680,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="939" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A939" s="12" t="s">
         <v>1200</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="940" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A940" s="12" t="s">
         <v>1201</v>
       </c>
@@ -30749,7 +30749,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="941" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A941" s="12" t="s">
         <v>1202</v>
       </c>
@@ -30779,7 +30779,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="942" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A942" s="12" t="s">
         <v>1203</v>
       </c>
@@ -30809,7 +30809,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="943" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A943" s="6" t="s">
         <v>75</v>
       </c>
@@ -30862,9 +30862,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>814</v>
       </c>
@@ -30875,7 +30875,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>805</v>
       </c>
@@ -30883,7 +30883,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>806</v>
       </c>
@@ -30891,7 +30891,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>807</v>
       </c>
@@ -30899,7 +30899,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>808</v>
       </c>
@@ -30907,7 +30907,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>809</v>
       </c>
@@ -30915,7 +30915,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="36.65" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>810</v>
       </c>
@@ -30923,7 +30923,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>811</v>
       </c>
@@ -30931,7 +30931,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>812</v>
       </c>
@@ -30939,7 +30939,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>813</v>
       </c>
@@ -30948,7 +30948,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>804</v>
       </c>
@@ -30956,23 +30956,23 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="39" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="40" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="41" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="42" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="43" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="44" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="81" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="82" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="83" s="15" customFormat="1" x14ac:dyDescent="0.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30986,12 +30986,12 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.31640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -31010,7 +31010,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>693</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>694</v>
       </c>
@@ -31032,7 +31032,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>695</v>
       </c>
@@ -31043,7 +31043,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>696</v>
       </c>
@@ -31054,7 +31054,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>697</v>
       </c>
@@ -31065,7 +31065,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>698</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>699</v>
       </c>
@@ -31087,7 +31087,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>700</v>
       </c>
@@ -31098,7 +31098,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -31109,7 +31109,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -31120,7 +31120,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>701</v>
       </c>
@@ -31131,7 +31131,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>702</v>
       </c>
@@ -31142,7 +31142,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>703</v>
       </c>
@@ -31153,7 +31153,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -31164,7 +31164,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>704</v>
       </c>
@@ -31172,7 +31172,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>705</v>
       </c>
@@ -31180,7 +31180,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>720</v>
       </c>
@@ -31188,17 +31188,17 @@
         <v>726</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>724</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>730</v>
       </c>
@@ -31220,7 +31220,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>744</v>
       </c>
@@ -31231,7 +31231,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -31239,7 +31239,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>763</v>
       </c>
@@ -31247,7 +31247,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>764</v>
       </c>
@@ -31255,7 +31255,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>765</v>
       </c>
@@ -31263,7 +31263,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>766</v>
       </c>
@@ -31271,7 +31271,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>767</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>768</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>769</v>
       </c>
@@ -31295,12 +31295,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>771</v>
       </c>
@@ -31308,7 +31308,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>772</v>
       </c>
@@ -31316,7 +31316,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>773</v>
       </c>

--- a/Container/Data/MiscItemListe.xlsx
+++ b/Container/Data/MiscItemListe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C93FEF-BE94-44E7-9BA3-C82813744D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108AA790-F49C-4ACD-9407-B37EBCB4C014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="8040" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Gegenstände" sheetId="3" r:id="rId1"/>
@@ -3679,18 +3679,6 @@
     <t>Schaden: 69, Geschwindigkeit: 3, AP: 0%, Durchdringung: 65%, Nachladechance: 50, Nachladedauer: 1, Trefferchance: 100, Reichweite: Lang</t>
   </si>
   <si>
-    <t>Schaden: 24, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 9, Wurfschaden: 17</t>
-  </si>
-  <si>
-    <t>Schaden: 34, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 13, Wurfschaden: 24</t>
-  </si>
-  <si>
-    <t>Schaden: 38, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 14, Wurfschaden: 27</t>
-  </si>
-  <si>
-    <t>Schaden: 42, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 16, Wurfschaden: 29</t>
-  </si>
-  <si>
     <t>Schaden: 1, Geschwindigkeit: 5, AP: 0%, Durchdringung: 0%, Wurfschaden: 2, Interruptchance: 99%, Zerstörungschance: 100%, Anzahl im Köcher: 1</t>
   </si>
   <si>
@@ -3742,75 +3730,15 @@
     <t>Schaden: 21, Geschwindigkeit: 6, AP: 0%, Durchdringung: 55%, Nachladechance: 50, Nachladedauer: 1, Trefferchance: 100, Reichweite: Mittel</t>
   </si>
   <si>
-    <t>Schaden: 26, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 21, Wurfschaden: 13,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 24, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 19, Wurfschaden: 12,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 21, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 17, Wurfschaden: 10,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 15, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 12, Wurfschaden: 8,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
     <t>Schaden: 10, Geschwindigkeit: 10, AP: 0%, Durchdringung: 5%, Parieren: 30, Wurfschaden: 10,Attentat: Nein, Betäubungschance: 50%, Versteckchance: 100%</t>
   </si>
   <si>
-    <t>Schaden: 18, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 3, Wurfschaden: 2,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 70%</t>
-  </si>
-  <si>
-    <t>Schaden: 25, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 4, Wurfschaden: 2,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 70%</t>
-  </si>
-  <si>
-    <t>Schaden: 29, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 5, Wurfschaden: 3,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 70%</t>
-  </si>
-  <si>
-    <t>Schaden: 32, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 5, Wurfschaden: 3,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 70%</t>
-  </si>
-  <si>
     <t>Schaden: 8, Geschwindigkeit: 10, AP: 30%, Durchdringung: 15%, Wurfschaden: 20, Interruptchance: 15%, Zerstörungschance: 30%, Anzahl im Köcher: 5</t>
   </si>
   <si>
-    <t>Schaden: 63, Geschwindigkeit: 5, AP: 0%, Durchdringung: 75%, Parieren: 25, Wurfschaden: 13</t>
-  </si>
-  <si>
-    <t>Schaden: 58, Geschwindigkeit: 5, AP: 0%, Durchdringung: 75%, Parieren: 23, Wurfschaden: 12</t>
-  </si>
-  <si>
-    <t>Schaden: 52, Geschwindigkeit: 5, AP: 0%, Durchdringung: 75%, Parieren: 21, Wurfschaden: 10</t>
-  </si>
-  <si>
-    <t>Schaden: 40, Geschwindigkeit: 5, AP: 0%, Durchdringung: 75%, Parieren: 16, Wurfschaden: 8</t>
-  </si>
-  <si>
-    <t>Schaden: 50, Geschwindigkeit: 4, AP: 40%, Durchdringung: 85%, Parieren: 19, Wurfschaden: 15</t>
-  </si>
-  <si>
-    <t>Schaden: 46, Geschwindigkeit: 4, AP: 40%, Durchdringung: 85%, Parieren: 17, Wurfschaden: 14</t>
-  </si>
-  <si>
-    <t>Schaden: 42, Geschwindigkeit: 4, AP: 40%, Durchdringung: 85%, Parieren: 16, Wurfschaden: 13</t>
-  </si>
-  <si>
-    <t>Schaden: 32, Geschwindigkeit: 4, AP: 40%, Durchdringung: 85%, Parieren: 12, Wurfschaden: 10</t>
-  </si>
-  <si>
     <t>Schaden: 1, Geschwindigkeit: 6, AP: 0%, Durchdringung: 0%, Wurfschaden: 2, Interruptchance: 70%, Zerstörungschance: 100%, Anzahl im Köcher: 20</t>
   </si>
   <si>
-    <t>Schaden: 30, Geschwindigkeit: 3, AP: 25%, Durchdringung: 40%, Parieren: 9, Wurfschaden: 15</t>
-  </si>
-  <si>
-    <t>Schaden: 42, Geschwindigkeit: 3, AP: 25%, Durchdringung: 40%, Parieren: 13, Wurfschaden: 21</t>
-  </si>
-  <si>
-    <t>Schaden: 48, Geschwindigkeit: 3, AP: 25%, Durchdringung: 40%, Parieren: 14, Wurfschaden: 24</t>
-  </si>
-  <si>
-    <t>Schaden: 53, Geschwindigkeit: 3, AP: 25%, Durchdringung: 40%, Parieren: 16, Wurfschaden: 26</t>
-  </si>
-  <si>
     <t>Schaden: 18, Geschwindigkeit: 8, AP: 0%, Durchdringung: 30%, Parieren: 9, Wurfschaden: 7</t>
   </si>
   <si>
@@ -3835,18 +3763,6 @@
     <t>Schaden: 28, Geschwindigkeit: 2, AP: 70%, Durchdringung: 65%, Parieren: 4, Wurfschaden: 8</t>
   </si>
   <si>
-    <t>Schaden: 24, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 8, Wurfschaden: 7</t>
-  </si>
-  <si>
-    <t>Schaden: 22, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 7, Wurfschaden: 7</t>
-  </si>
-  <si>
-    <t>Schaden: 19, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 6, Wurfschaden: 6</t>
-  </si>
-  <si>
-    <t>Schaden: 14, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 4, Wurfschaden: 4</t>
-  </si>
-  <si>
     <t>Schaden: 37, Geschwindigkeit: 7, AP: 0%, Durchdringung: 30%, Nachladechance: 100, Nachladedauer: 0, Trefferchance: 100, Reichweite: Mittel</t>
   </si>
   <si>
@@ -3859,18 +3775,6 @@
     <t>Schaden: 18, Geschwindigkeit: 7, AP: 0%, Durchdringung: 30%, Nachladechance: 100, Nachladedauer: 0, Trefferchance: 100, Reichweite: Mittel</t>
   </si>
   <si>
-    <t>Schaden: 34, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 19, Wurfschaden: 7</t>
-  </si>
-  <si>
-    <t>Schaden: 29, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 17, Wurfschaden: 6</t>
-  </si>
-  <si>
-    <t>Schaden: 21, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 12, Wurfschaden: 4</t>
-  </si>
-  <si>
-    <t>Schaden: 37, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 21, Wurfschaden: 7</t>
-  </si>
-  <si>
     <t>Schaden: 53, Geschwindigkeit: 5, AP: 0%, Durchdringung: 40%, Nachladechance: 100, Nachladedauer: 0, Trefferchance: 100, Reichweite: Lang</t>
   </si>
   <si>
@@ -3910,18 +3814,6 @@
     <t>Schaden: 69, Geschwindigkeit: 4, AP: 90%, Durchdringung: 90%, Nachladechance: 0, Nachladedauer: 2, Trefferchance: 85, Reichweite: Mittel</t>
   </si>
   <si>
-    <t>Schaden: 15, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 30, Wurfschaden: 8,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 21, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 42, Wurfschaden: 10,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 24, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 48, Wurfschaden: 12,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 26, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 53, Wurfschaden: 13,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
     <t>Schaden: 42, Geschwindigkeit: 5, AP: 35%, Durchdringung: 10%, Parieren: 11, Wurfschaden: 29</t>
   </si>
   <si>
@@ -3937,30 +3829,9 @@
     <t>Schaden: 22, Geschwindigkeit: 6, AP: 70%, Durchdringung: 60%, Wurfschaden: 55, Interruptchance: 30%, Zerstörungschance: 40%, Anzahl im Köcher: 1</t>
   </si>
   <si>
-    <t>Schaden: 34, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 5, Wurfschaden: 0</t>
-  </si>
-  <si>
-    <t>Schaden: 31, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 5, Wurfschaden: 0</t>
-  </si>
-  <si>
-    <t>Schaden: 27, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 4, Wurfschaden: 0</t>
-  </si>
-  <si>
-    <t>Schaden: 20, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 3, Wurfschaden: 0</t>
-  </si>
-  <si>
     <t>Schaden: 46, Geschwindigkeit: 7, AP: 90%, Durchdringung: 80%, Nachladechance: 0, Nachladedauer: 2, Trefferchance: 85, Reichweite: Kurz</t>
   </si>
   <si>
-    <t>Schaden: 29, Geschwindigkeit: 10, AP: 10%, Durchdringung: 20%, Parieren: 34, Wurfschaden: 20</t>
-  </si>
-  <si>
-    <t>Schaden: 21, Geschwindigkeit: 10, AP: 10%, Durchdringung: 20%, Parieren: 24, Wurfschaden: 15</t>
-  </si>
-  <si>
-    <t>Schaden: 34, Geschwindigkeit: 10, AP: 10%, Durchdringung: 20%, Parieren: 38, Wurfschaden: 24</t>
-  </si>
-  <si>
     <t>Schaden: 37, Geschwindigkeit: 10, AP: 10%, Durchdringung: 20%, Parieren: 42, Wurfschaden: 26</t>
   </si>
   <si>
@@ -3994,18 +3865,6 @@
     <t>Schaden: 10, Geschwindigkeit: 6, AP: 0%, Durchdringung: 0%, Wurfschaden: 25, Interruptchance: 60%, Zerstörungschance: 0%, Anzahl im</t>
   </si>
   <si>
-    <t>Schaden: 26, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 32, Wurfschaden: 3,Attentat: Nein, Betäubungschance: 75%, Versteckchance: 90%</t>
-  </si>
-  <si>
-    <t>Schaden: 24, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 29, Wurfschaden: 2,Attentat: Nein, Betäubungschance: 75%, Versteckchance: 90%</t>
-  </si>
-  <si>
-    <t>Schaden: 21, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 25, Wurfschaden: 2,Attentat: Nein, Betäubungschance: 75%, Versteckchance: 90%</t>
-  </si>
-  <si>
-    <t>Schaden: 15, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 18, Wurfschaden: 2,Attentat: Nein, Betäubungschance: 75%, Versteckchance: 90%</t>
-  </si>
-  <si>
     <t>Schaden: 37, Geschwindigkeit: 7, AP: 10%, Durchdringung: 10%, Parieren: 5, Wurfschaden: 48</t>
   </si>
   <si>
@@ -4057,18 +3916,6 @@
     <t>Schaden: 17, Geschwindigkeit: 8, AP: 40%, Durchdringung: 15%, Wurfschaden: 42, Interruptchance: 35%, Zerstörungschance: 10%, Anzahl im Köcher: 2</t>
   </si>
   <si>
-    <t>Schaden: 12, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 6, Wurfschaden: 8,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 17, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 8, Wurfschaden: 12,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 19, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 10, Wurfschaden: 13,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
-    <t>Schaden: 21, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 11, Wurfschaden: 15,Attentat: Ja, Betäubungschance: 0%, Versteckchance: 50%</t>
-  </si>
-  <si>
     <t>Schaden: 8, Geschwindigkeit: 10, AP: 30%, Durchdringung: 0%, Wurfschaden: 20, Interruptchance: 15%, Zerstörungschance: 30%, Anzahl im Köcher: 5</t>
   </si>
   <si>
@@ -4094,6 +3941,159 @@
   </si>
   <si>
     <t>Handsand</t>
+  </si>
+  <si>
+    <t>Schaden: 32, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 9, Wurfschaden: 27, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 44, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 13, Wurfschaden: 37, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 50, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 14, Wurfschaden: 42, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 56, Geschwindigkeit: 6, AP: 30%, Durchdringung: 50%, Parieren: 16, Wurfschaden: 48, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 15, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 12, Wurfschaden: 8, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 21, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 17, Wurfschaden: 10, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 24, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 19, Wurfschaden: 12, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 26, Geschwindigkeit: 9, AP: 80%, Durchdringung: 20%, Parieren: 21, Wurfschaden: 13, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 18, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 3, Wurfschaden: 2, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 25, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 4, Wurfschaden: 2, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 29, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 5, Wurfschaden: 3, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 32, Geschwindigkeit: 10, AP: 70%, Durchdringung: 5%, Parieren: 5, Wurfschaden: 3, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 40, Geschwindigkeit: 4, AP: 40%, Durchdringung: 80%, Parieren: 12, Wurfschaden: 12, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 52, Geschwindigkeit: 4, AP: 40%, Durchdringung: 80%, Parieren: 16, Wurfschaden: 16, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 58, Geschwindigkeit: 4, AP: 40%, Durchdringung: 80%, Parieren: 17, Wurfschaden: 17, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 63, Geschwindigkeit: 4, AP: 40%, Durchdringung: 80%, Parieren: 19, Wurfschaden: 19, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 32, Geschwindigkeit: 5, AP: 0%, Durchdringung: 100%, Parieren: 16, Wurfschaden: 6, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 42, Geschwindigkeit: 5, AP: 0%, Durchdringung: 100%, Parieren: 21, Wurfschaden: 8, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 46, Geschwindigkeit: 5, AP: 0%, Durchdringung: 100%, Parieren: 23, Wurfschaden: 9, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 50, Geschwindigkeit: 5, AP: 0%, Durchdringung: 100%, Parieren: 25, Wurfschaden: 10, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 30, Geschwindigkeit: 3, AP: 25%, Durchdringung: 60%, Parieren: 9, Wurfschaden: 15, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 42, Geschwindigkeit: 3, AP: 25%, Durchdringung: 60%, Parieren: 13, Wurfschaden: 21, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 48, Geschwindigkeit: 3, AP: 25%, Durchdringung: 60%, Parieren: 14, Wurfschaden: 24, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 53, Geschwindigkeit: 3, AP: 25%, Durchdringung: 60%, Parieren: 16, Wurfschaden: 26, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 14, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 4, Wurfschaden: 4, Betäubungschance: 80%</t>
+  </si>
+  <si>
+    <t>Schaden: 19, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 6, Wurfschaden: 6, Betäubungschance: 80%</t>
+  </si>
+  <si>
+    <t>Schaden: 22, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 7, Wurfschaden: 7, Betäubungschance: 80%</t>
+  </si>
+  <si>
+    <t>Schaden: 24, Geschwindigkeit: 5, AP: 40%, Durchdringung: 20%, Parieren: 8, Wurfschaden: 7, Betäubungschance: 80%</t>
+  </si>
+  <si>
+    <t>Schaden: 21, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 12, Wurfschaden: 4, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 35%</t>
+  </si>
+  <si>
+    <t>Schaden: 29, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 17, Wurfschaden: 6, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 35%</t>
+  </si>
+  <si>
+    <t>Schaden: 34, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 19, Wurfschaden: 7, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 35%</t>
+  </si>
+  <si>
+    <t>Schaden: 37, Geschwindigkeit: 9, AP: 25%, Durchdringung: 50%, Parieren: 21, Wurfschaden: 7, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 35%</t>
+  </si>
+  <si>
+    <t>Schaden: 26, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 53, Wurfschaden: 13, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 24, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 48, Wurfschaden: 12, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 21, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 42, Wurfschaden: 10, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 15, Geschwindigkeit: 7, AP: 30%, Durchdringung: 20%, Parieren: 30, Wurfschaden: 8, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 34, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 5, Wurfschaden: 0, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 31, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 5, Wurfschaden: 0, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 27, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 4, Wurfschaden: 0, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 20, Geschwindigkeit: 4, AP: 90%, Durchdringung: 25%, Parieren: 3, Wurfschaden: 0, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 34, Geschwindigkeit: 10, AP: 10%, Durchdringung: 20%, Parieren: 38, Wurfschaden: 24, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 29, Geschwindigkeit: 10, AP: 10%, Durchdringung: 20%, Parieren: 34, Wurfschaden: 20, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 21, Geschwindigkeit: 10, AP: 10%, Durchdringung: 20%, Parieren: 24, Wurfschaden: 15, Betäubungschance: 0%</t>
+  </si>
+  <si>
+    <t>Schaden: 15, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 18, Wurfschaden: 2, Betäubungschance: 75%, Attentat: Nein,  Versteckchance: 90%</t>
+  </si>
+  <si>
+    <t>Schaden: 21, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 25, Wurfschaden: 2, Betäubungschance: 75%, Attentat: Nein,  Versteckchance: 90%</t>
+  </si>
+  <si>
+    <t>Schaden: 24, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 29, Wurfschaden: 2, Betäubungschance: 75%, Attentat: Nein,  Versteckchance: 90%</t>
+  </si>
+  <si>
+    <t>Schaden: 26, Geschwindigkeit: 10, AP: 30%, Durchdringung: 5%, Parieren: 32, Wurfschaden: 3, Betäubungschance: 75%, Attentat: Nein,  Versteckchance: 90%</t>
+  </si>
+  <si>
+    <t>Schaden: 12, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 6, Wurfschaden: 8, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 17, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 8, Wurfschaden: 12, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 19, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 10, Wurfschaden: 13, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
+  </si>
+  <si>
+    <t>Schaden: 21, Geschwindigkeit: 8, AP: 0%, Durchdringung: 20%, Parieren: 11, Wurfschaden: 15, Betäubungschance: 0%, Attentat: Ja,  Versteckchance: 70%</t>
   </si>
 </sst>
 </file>
@@ -4160,7 +4160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4206,6 +4206,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="3" builtinId="3"/>
@@ -4558,9 +4561,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:O943"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A907" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A921" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A920" sqref="A920"/>
+      <selection pane="topRight" activeCell="E947" sqref="E947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4621,7 +4624,7 @@
         <v>775</v>
       </c>
       <c r="O1" t="s">
-        <v>1344</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.75">
@@ -6731,7 +6734,7 @@
       <c r="C79" s="5">
         <v>0.5</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="5" t="s">
         <v>783</v>
       </c>
       <c r="E79" s="3" t="str">
@@ -6938,7 +6941,7 @@
       <c r="C87" s="5">
         <v>0.3</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="5" t="s">
         <v>784</v>
       </c>
       <c r="E87" s="3" t="str">
@@ -6993,7 +6996,7 @@
       <c r="C89" s="5">
         <v>0.1</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="5" t="s">
         <v>783</v>
       </c>
       <c r="E89" s="3" t="str">
@@ -7038,7 +7041,7 @@
       <c r="A91" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="17">
         <v>70</v>
       </c>
       <c r="C91" s="5">
@@ -7065,7 +7068,7 @@
       <c r="A92" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="17">
         <v>60</v>
       </c>
       <c r="C92" s="5">
@@ -7095,13 +7098,13 @@
       <c r="A93" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="17">
         <v>50</v>
       </c>
       <c r="C93" s="5">
         <v>0.1</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="5" t="s">
         <v>783</v>
       </c>
       <c r="E93" s="3" t="str">
@@ -7119,7 +7122,7 @@
       <c r="A94" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="17">
         <v>50</v>
       </c>
       <c r="C94" s="5">
@@ -7143,7 +7146,7 @@
       <c r="A95" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="17">
         <v>50</v>
       </c>
       <c r="C95" s="5">
@@ -7173,7 +7176,7 @@
       <c r="A96" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="17">
         <v>50</v>
       </c>
       <c r="C96" s="5">
@@ -7203,7 +7206,7 @@
       <c r="A97" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="17">
         <v>40</v>
       </c>
       <c r="C97" s="5">
@@ -7227,7 +7230,7 @@
       <c r="A98" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="17">
         <v>40</v>
       </c>
       <c r="C98" s="5">
@@ -24448,11 +24451,11 @@
       <c r="A727" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B727" s="5">
-        <v>5000</v>
+      <c r="B727" s="3">
+        <v>7500</v>
       </c>
       <c r="C727" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D727" s="5" t="s">
         <v>795</v>
@@ -24476,18 +24479,18 @@
         <v>538</v>
       </c>
       <c r="O727" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="728" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A728" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B728" s="5">
-        <v>15000</v>
+      <c r="B728" s="3">
+        <v>22500</v>
       </c>
       <c r="C728" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D728" s="5" t="s">
         <v>795</v>
@@ -24508,18 +24511,18 @@
         <v>538</v>
       </c>
       <c r="O728" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="729" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A729" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B729" s="5">
-        <v>30000</v>
+      <c r="B729" s="3">
+        <v>45000</v>
       </c>
       <c r="C729" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D729" s="5" t="s">
         <v>795</v>
@@ -24537,18 +24540,18 @@
         <v>538</v>
       </c>
       <c r="O729" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="730" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A730" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B730" s="5">
-        <v>60000</v>
+      <c r="B730" s="3">
+        <v>90000</v>
       </c>
       <c r="C730" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D730" s="5" t="s">
         <v>795</v>
@@ -24566,15 +24569,15 @@
         <v>538</v>
       </c>
       <c r="O730" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="731" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A731" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B731" s="4">
-        <v>5000</v>
+      <c r="B731" s="3">
+        <v>3500</v>
       </c>
       <c r="C731" s="4">
         <v>2</v>
@@ -24586,7 +24589,7 @@
         <v>1079</v>
       </c>
       <c r="F731" s="8" t="s">
-        <v>1213</v>
+        <v>1301</v>
       </c>
       <c r="G731">
         <v>9</v>
@@ -24601,15 +24604,15 @@
         <v>538</v>
       </c>
       <c r="O731" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="732" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A732" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B732" s="4">
-        <v>15000</v>
+      <c r="B732" s="3">
+        <v>10500</v>
       </c>
       <c r="C732" s="4">
         <v>2</v>
@@ -24621,7 +24624,7 @@
         <v>1080</v>
       </c>
       <c r="F732" s="8" t="s">
-        <v>1214</v>
+        <v>1302</v>
       </c>
       <c r="G732">
         <v>7</v>
@@ -24633,15 +24636,15 @@
         <v>538</v>
       </c>
       <c r="O732" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="733" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A733" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B733" s="4">
-        <v>30000</v>
+      <c r="B733" s="3">
+        <v>21000</v>
       </c>
       <c r="C733" s="4">
         <v>2</v>
@@ -24653,7 +24656,7 @@
         <v>1081</v>
       </c>
       <c r="F733" s="8" t="s">
-        <v>1215</v>
+        <v>1303</v>
       </c>
       <c r="G733">
         <v>1.5</v>
@@ -24662,15 +24665,15 @@
         <v>538</v>
       </c>
       <c r="O733" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="734" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A734" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B734" s="4">
-        <v>60000</v>
+      <c r="B734" s="3">
+        <v>42000</v>
       </c>
       <c r="C734" s="4">
         <v>2</v>
@@ -24682,7 +24685,7 @@
         <v>1081</v>
       </c>
       <c r="F734" s="8" t="s">
-        <v>1216</v>
+        <v>1304</v>
       </c>
       <c r="G734">
         <v>0.1</v>
@@ -24691,7 +24694,7 @@
         <v>538</v>
       </c>
       <c r="O734" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="735" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -24711,7 +24714,7 @@
         <v>1079</v>
       </c>
       <c r="F735" s="8" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="G735">
         <v>8</v>
@@ -24726,18 +24729,18 @@
         <v>538</v>
       </c>
       <c r="O735" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="736" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A736" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B736" s="4">
+      <c r="B736" s="3">
         <v>2000</v>
       </c>
-      <c r="C736" s="4">
-        <v>0.5</v>
+      <c r="C736" s="3">
+        <v>0.3</v>
       </c>
       <c r="D736" s="5" t="s">
         <v>795</v>
@@ -24746,7 +24749,7 @@
         <v>1079</v>
       </c>
       <c r="F736" s="8" t="s">
-        <v>1237</v>
+        <v>1305</v>
       </c>
       <c r="G736">
         <v>10</v>
@@ -24761,18 +24764,18 @@
         <v>538</v>
       </c>
       <c r="O736" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="737" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A737" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B737" s="4">
+      <c r="B737" s="3">
         <v>6000</v>
       </c>
-      <c r="C737" s="4">
-        <v>0.5</v>
+      <c r="C737" s="3">
+        <v>0.3</v>
       </c>
       <c r="D737" s="5" t="s">
         <v>795</v>
@@ -24781,7 +24784,7 @@
         <v>1080</v>
       </c>
       <c r="F737" s="8" t="s">
-        <v>1236</v>
+        <v>1306</v>
       </c>
       <c r="G737">
         <v>7</v>
@@ -24793,18 +24796,18 @@
         <v>538</v>
       </c>
       <c r="O737" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="738" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A738" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B738" s="4">
+      <c r="B738" s="3">
         <v>12000</v>
       </c>
-      <c r="C738" s="4">
-        <v>0.5</v>
+      <c r="C738" s="3">
+        <v>0.3</v>
       </c>
       <c r="D738" s="5" t="s">
         <v>795</v>
@@ -24813,7 +24816,7 @@
         <v>1081</v>
       </c>
       <c r="F738" s="8" t="s">
-        <v>1235</v>
+        <v>1307</v>
       </c>
       <c r="G738">
         <v>1.5</v>
@@ -24822,18 +24825,18 @@
         <v>538</v>
       </c>
       <c r="O738" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="739" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A739" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B739" s="4">
+      <c r="B739" s="3">
         <v>24000</v>
       </c>
-      <c r="C739" s="4">
-        <v>0.5</v>
+      <c r="C739" s="3">
+        <v>0.3</v>
       </c>
       <c r="D739" s="5" t="s">
         <v>795</v>
@@ -24842,7 +24845,7 @@
         <v>1081</v>
       </c>
       <c r="F739" s="8" t="s">
-        <v>1234</v>
+        <v>1308</v>
       </c>
       <c r="G739">
         <v>0.1</v>
@@ -24851,14 +24854,16 @@
         <v>538</v>
       </c>
       <c r="O739" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="740" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A740" s="12" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B740" s="7"/>
+        <v>1222</v>
+      </c>
+      <c r="B740" s="3">
+        <v>6000</v>
+      </c>
       <c r="C740" s="3">
         <v>1</v>
       </c>
@@ -24870,7 +24875,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F740" s="8" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="G740">
         <v>6</v>
@@ -24882,14 +24887,16 @@
         <v>538</v>
       </c>
       <c r="O740" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="741" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A741" s="12" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B741" s="7"/>
+        <v>1223</v>
+      </c>
+      <c r="B741" s="3">
+        <v>18000</v>
+      </c>
       <c r="C741" s="3">
         <v>1</v>
       </c>
@@ -24901,7 +24908,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F741" s="8" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G741">
         <v>3</v>
@@ -24913,14 +24920,16 @@
         <v>538</v>
       </c>
       <c r="O741" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="742" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A742" s="12" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B742" s="7"/>
+        <v>1224</v>
+      </c>
+      <c r="B742" s="3">
+        <v>36000</v>
+      </c>
       <c r="C742" s="3">
         <v>1</v>
       </c>
@@ -24932,7 +24941,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F742" s="8" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G742">
         <v>1</v>
@@ -24941,14 +24950,16 @@
         <v>538</v>
       </c>
       <c r="O742" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="743" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A743" s="12" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B743" s="7"/>
+        <v>1225</v>
+      </c>
+      <c r="B743" s="3">
+        <v>72000</v>
+      </c>
       <c r="C743" s="3">
         <v>1</v>
       </c>
@@ -24960,7 +24971,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F743" s="8" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G743">
         <v>0.1</v>
@@ -24969,7 +24980,7 @@
         <v>538</v>
       </c>
       <c r="O743" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="744" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -24989,21 +25000,21 @@
         <v>1082</v>
       </c>
       <c r="F744" s="8" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="G744">
         <v>0</v>
       </c>
       <c r="O744" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="745" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A745" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B745" s="5">
-        <v>4000</v>
+      <c r="B745" s="3">
+        <v>2000</v>
       </c>
       <c r="C745" s="5">
         <v>0.5</v>
@@ -25015,7 +25026,7 @@
         <v>1079</v>
       </c>
       <c r="F745" s="8" t="s">
-        <v>1239</v>
+        <v>1309</v>
       </c>
       <c r="G745">
         <v>6</v>
@@ -25030,15 +25041,15 @@
         <v>538</v>
       </c>
       <c r="O745" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="746" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A746" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B746" s="5">
-        <v>12000</v>
+      <c r="B746" s="3">
+        <v>6000</v>
       </c>
       <c r="C746" s="5">
         <v>0.5</v>
@@ -25050,7 +25061,7 @@
         <v>1080</v>
       </c>
       <c r="F746" s="8" t="s">
-        <v>1240</v>
+        <v>1310</v>
       </c>
       <c r="G746">
         <v>4</v>
@@ -25062,15 +25073,15 @@
         <v>538</v>
       </c>
       <c r="O746" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="747" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A747" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B747" s="5">
-        <v>24000</v>
+      <c r="B747" s="3">
+        <v>12000</v>
       </c>
       <c r="C747" s="5">
         <v>0.5</v>
@@ -25082,7 +25093,7 @@
         <v>1081</v>
       </c>
       <c r="F747" s="8" t="s">
-        <v>1241</v>
+        <v>1311</v>
       </c>
       <c r="G747">
         <v>1.5</v>
@@ -25091,15 +25102,15 @@
         <v>538</v>
       </c>
       <c r="O747" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="748" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A748" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B748" s="5">
-        <v>48000</v>
+      <c r="B748" s="3">
+        <v>24000</v>
       </c>
       <c r="C748" s="5">
         <v>0.5</v>
@@ -25111,7 +25122,7 @@
         <v>1081</v>
       </c>
       <c r="F748" s="8" t="s">
-        <v>1242</v>
+        <v>1312</v>
       </c>
       <c r="G748">
         <v>0.1</v>
@@ -25120,7 +25131,7 @@
         <v>538</v>
       </c>
       <c r="O748" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="749" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -25140,7 +25151,7 @@
         <v>1080</v>
       </c>
       <c r="F749" s="8" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="G749">
         <v>4</v>
@@ -25155,7 +25166,7 @@
         <v>538</v>
       </c>
       <c r="O749" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="750" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25175,7 +25186,7 @@
         <v>1080</v>
       </c>
       <c r="F750" s="8" t="s">
-        <v>1251</v>
+        <v>1313</v>
       </c>
       <c r="G750">
         <v>7</v>
@@ -25187,7 +25198,7 @@
         <v>538</v>
       </c>
       <c r="O750" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="751" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25207,7 +25218,7 @@
         <v>1080</v>
       </c>
       <c r="F751" s="8" t="s">
-        <v>1250</v>
+        <v>1314</v>
       </c>
       <c r="G751">
         <v>5</v>
@@ -25219,7 +25230,7 @@
         <v>538</v>
       </c>
       <c r="O751" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="752" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25239,7 +25250,7 @@
         <v>1081</v>
       </c>
       <c r="F752" s="8" t="s">
-        <v>1249</v>
+        <v>1315</v>
       </c>
       <c r="G752">
         <v>1.5</v>
@@ -25248,7 +25259,7 @@
         <v>538</v>
       </c>
       <c r="O752" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="753" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25268,7 +25279,7 @@
         <v>1081</v>
       </c>
       <c r="F753" s="8" t="s">
-        <v>1248</v>
+        <v>1316</v>
       </c>
       <c r="G753">
         <v>0.1</v>
@@ -25277,15 +25288,15 @@
         <v>538</v>
       </c>
       <c r="O753" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="754" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A754" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B754" s="4">
-        <v>6500</v>
+      <c r="B754" s="3">
+        <v>7500</v>
       </c>
       <c r="C754" s="4">
         <v>3</v>
@@ -25297,7 +25308,7 @@
         <v>1080</v>
       </c>
       <c r="F754" s="8" t="s">
-        <v>1247</v>
+        <v>1317</v>
       </c>
       <c r="G754">
         <v>7</v>
@@ -25309,15 +25320,15 @@
         <v>538</v>
       </c>
       <c r="O754" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="755" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A755" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B755" s="4">
-        <v>19500</v>
+      <c r="B755" s="3">
+        <v>22500</v>
       </c>
       <c r="C755" s="4">
         <v>3</v>
@@ -25329,7 +25340,7 @@
         <v>1080</v>
       </c>
       <c r="F755" s="8" t="s">
-        <v>1246</v>
+        <v>1318</v>
       </c>
       <c r="G755">
         <v>5</v>
@@ -25341,15 +25352,15 @@
         <v>538</v>
       </c>
       <c r="O755" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="756" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A756" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="B756" s="4">
-        <v>39000</v>
+      <c r="B756" s="3">
+        <v>45000</v>
       </c>
       <c r="C756" s="4">
         <v>3</v>
@@ -25361,7 +25372,7 @@
         <v>1081</v>
       </c>
       <c r="F756" s="8" t="s">
-        <v>1245</v>
+        <v>1319</v>
       </c>
       <c r="G756">
         <v>1.5</v>
@@ -25370,15 +25381,15 @@
         <v>538</v>
       </c>
       <c r="O756" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="757" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="757" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A757" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B757" s="4">
-        <v>78000</v>
+      <c r="B757" s="3">
+        <v>90000</v>
       </c>
       <c r="C757" s="4">
         <v>3</v>
@@ -25390,7 +25401,7 @@
         <v>1081</v>
       </c>
       <c r="F757" s="8" t="s">
-        <v>1244</v>
+        <v>1320</v>
       </c>
       <c r="G757">
         <v>0.1</v>
@@ -25399,12 +25410,12 @@
         <v>538</v>
       </c>
       <c r="O757" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="758" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A758" s="6" t="s">
-        <v>1351</v>
+        <v>1300</v>
       </c>
       <c r="B758" s="5">
         <v>0</v>
@@ -25419,21 +25430,21 @@
         <v>1082</v>
       </c>
       <c r="F758" s="8" t="s">
-        <v>1252</v>
+        <v>1232</v>
       </c>
       <c r="G758">
         <v>0</v>
       </c>
       <c r="O758" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="759" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A759" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B759" s="5">
-        <v>7000</v>
+      <c r="B759" s="3">
+        <v>7500</v>
       </c>
       <c r="C759" s="5">
         <v>7</v>
@@ -25445,7 +25456,7 @@
         <v>1080</v>
       </c>
       <c r="F759" s="8" t="s">
-        <v>1253</v>
+        <v>1321</v>
       </c>
       <c r="G759">
         <v>6</v>
@@ -25457,15 +25468,15 @@
         <v>538</v>
       </c>
       <c r="O759" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="760" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A760" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B760" s="5">
-        <v>21000</v>
+      <c r="B760" s="3">
+        <v>22500</v>
       </c>
       <c r="C760" s="5">
         <v>7</v>
@@ -25477,7 +25488,7 @@
         <v>1080</v>
       </c>
       <c r="F760" s="8" t="s">
-        <v>1254</v>
+        <v>1322</v>
       </c>
       <c r="G760">
         <v>5</v>
@@ -25489,15 +25500,15 @@
         <v>538</v>
       </c>
       <c r="O760" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="761" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A761" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B761" s="5">
-        <v>42000</v>
+      <c r="B761" s="3">
+        <v>45000</v>
       </c>
       <c r="C761" s="5">
         <v>7</v>
@@ -25509,7 +25520,7 @@
         <v>1081</v>
       </c>
       <c r="F761" s="8" t="s">
-        <v>1255</v>
+        <v>1323</v>
       </c>
       <c r="G761">
         <v>1.5</v>
@@ -25518,15 +25529,15 @@
         <v>538</v>
       </c>
       <c r="O761" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="762" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A762" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B762" s="5">
-        <v>84000</v>
+      <c r="B762" s="3">
+        <v>90000</v>
       </c>
       <c r="C762" s="5">
         <v>7</v>
@@ -25538,7 +25549,7 @@
         <v>1081</v>
       </c>
       <c r="F762" s="8" t="s">
-        <v>1256</v>
+        <v>1324</v>
       </c>
       <c r="G762">
         <v>0.1</v>
@@ -25547,7 +25558,7 @@
         <v>538</v>
       </c>
       <c r="O762" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="763" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25568,7 +25579,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F763" s="8" t="s">
-        <v>1257</v>
+        <v>1233</v>
       </c>
       <c r="G763">
         <v>7</v>
@@ -25583,7 +25594,7 @@
         <v>538</v>
       </c>
       <c r="O763" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="764" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25604,7 +25615,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F764" s="8" t="s">
-        <v>1258</v>
+        <v>1234</v>
       </c>
       <c r="G764">
         <v>5</v>
@@ -25616,7 +25627,7 @@
         <v>538</v>
       </c>
       <c r="O764" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="765" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25637,7 +25648,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F765" s="8" t="s">
-        <v>1259</v>
+        <v>1235</v>
       </c>
       <c r="G765">
         <v>1</v>
@@ -25646,7 +25657,7 @@
         <v>538</v>
       </c>
       <c r="O765" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="766" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25667,7 +25678,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F766" s="8" t="s">
-        <v>1260</v>
+        <v>1236</v>
       </c>
       <c r="G766">
         <v>0.1</v>
@@ -25676,18 +25687,18 @@
         <v>538</v>
       </c>
       <c r="O766" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="767" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="767" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A767" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B767" s="4">
-        <v>2500</v>
-      </c>
-      <c r="C767" s="4">
-        <v>1</v>
+      <c r="B767" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C767" s="3">
+        <v>2</v>
       </c>
       <c r="D767" s="5" t="s">
         <v>795</v>
@@ -25695,8 +25706,8 @@
       <c r="E767" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="F767" s="8" t="s">
-        <v>1268</v>
+      <c r="F767" t="s">
+        <v>1325</v>
       </c>
       <c r="G767">
         <v>9</v>
@@ -25711,18 +25722,18 @@
         <v>538</v>
       </c>
       <c r="O767" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="768" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="768" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A768" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B768" s="4">
-        <v>7500</v>
-      </c>
-      <c r="C768" s="4">
-        <v>1</v>
+      <c r="B768" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C768" s="3">
+        <v>2</v>
       </c>
       <c r="D768" s="5" t="s">
         <v>795</v>
@@ -25730,8 +25741,8 @@
       <c r="E768" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="F768" s="8" t="s">
-        <v>1267</v>
+      <c r="F768" t="s">
+        <v>1326</v>
       </c>
       <c r="G768">
         <v>6</v>
@@ -25743,18 +25754,18 @@
         <v>538</v>
       </c>
       <c r="O768" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="769" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="769" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A769" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B769" s="4">
-        <v>15000</v>
-      </c>
-      <c r="C769" s="4">
-        <v>1</v>
+      <c r="B769" s="3">
+        <v>12000</v>
+      </c>
+      <c r="C769" s="3">
+        <v>2</v>
       </c>
       <c r="D769" s="5" t="s">
         <v>795</v>
@@ -25762,8 +25773,8 @@
       <c r="E769" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="F769" s="8" t="s">
-        <v>1266</v>
+      <c r="F769" t="s">
+        <v>1327</v>
       </c>
       <c r="G769">
         <v>1.5</v>
@@ -25772,18 +25783,18 @@
         <v>538</v>
       </c>
       <c r="O769" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="770" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A770" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B770" s="4">
-        <v>30000</v>
-      </c>
-      <c r="C770" s="4">
-        <v>1</v>
+      <c r="B770" s="3">
+        <v>24000</v>
+      </c>
+      <c r="C770" s="3">
+        <v>2</v>
       </c>
       <c r="D770" s="5" t="s">
         <v>795</v>
@@ -25791,8 +25802,8 @@
       <c r="E770" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="F770" s="8" t="s">
-        <v>1265</v>
+      <c r="F770" t="s">
+        <v>1328</v>
       </c>
       <c r="G770">
         <v>0.1</v>
@@ -25801,7 +25812,7 @@
         <v>538</v>
       </c>
       <c r="O770" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="771" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25821,7 +25832,7 @@
         <v>1080</v>
       </c>
       <c r="F771" s="8" t="s">
-        <v>1264</v>
+        <v>1240</v>
       </c>
       <c r="G771">
         <v>6</v>
@@ -25833,7 +25844,7 @@
         <v>538</v>
       </c>
       <c r="O771" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="772" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25853,7 +25864,7 @@
         <v>1080</v>
       </c>
       <c r="F772" s="8" t="s">
-        <v>1263</v>
+        <v>1239</v>
       </c>
       <c r="G772">
         <v>4</v>
@@ -25865,7 +25876,7 @@
         <v>538</v>
       </c>
       <c r="O772" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="773" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25885,7 +25896,7 @@
         <v>1081</v>
       </c>
       <c r="F773" s="8" t="s">
-        <v>1262</v>
+        <v>1238</v>
       </c>
       <c r="G773">
         <v>1.5</v>
@@ -25894,7 +25905,7 @@
         <v>538</v>
       </c>
       <c r="O773" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="774" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -25914,7 +25925,7 @@
         <v>1081</v>
       </c>
       <c r="F774" s="8" t="s">
-        <v>1261</v>
+        <v>1237</v>
       </c>
       <c r="G774">
         <v>0.1</v>
@@ -25923,17 +25934,17 @@
         <v>538</v>
       </c>
       <c r="O774" t="s">
-        <v>1349</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="775" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A775" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="B775" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C775" s="5">
+      <c r="B775" s="3">
+        <v>4500</v>
+      </c>
+      <c r="C775" s="3">
         <v>1</v>
       </c>
       <c r="D775" s="5" t="s">
@@ -25943,7 +25954,7 @@
         <v>1079</v>
       </c>
       <c r="F775" s="8" t="s">
-        <v>1272</v>
+        <v>1244</v>
       </c>
       <c r="G775">
         <v>10</v>
@@ -25958,17 +25969,17 @@
         <v>538</v>
       </c>
       <c r="O775" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="776" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A776" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="B776" s="5">
-        <v>15000</v>
-      </c>
-      <c r="C776" s="5">
+      <c r="B776" s="3">
+        <v>13500</v>
+      </c>
+      <c r="C776" s="3">
         <v>1</v>
       </c>
       <c r="D776" s="5" t="s">
@@ -25978,7 +25989,7 @@
         <v>1080</v>
       </c>
       <c r="F776" s="8" t="s">
-        <v>1271</v>
+        <v>1243</v>
       </c>
       <c r="G776">
         <v>6</v>
@@ -25990,17 +26001,17 @@
         <v>538</v>
       </c>
       <c r="O776" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="777" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A777" s="6" t="s">
         <v>1177</v>
       </c>
-      <c r="B777" s="5">
-        <v>30000</v>
-      </c>
-      <c r="C777" s="5">
+      <c r="B777" s="3">
+        <v>27000</v>
+      </c>
+      <c r="C777" s="3">
         <v>1</v>
       </c>
       <c r="D777" s="5" t="s">
@@ -26010,7 +26021,7 @@
         <v>1081</v>
       </c>
       <c r="F777" s="8" t="s">
-        <v>1270</v>
+        <v>1242</v>
       </c>
       <c r="G777">
         <v>1.5</v>
@@ -26019,17 +26030,17 @@
         <v>538</v>
       </c>
       <c r="O777" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="778" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A778" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="B778" s="5">
-        <v>60000</v>
-      </c>
-      <c r="C778" s="5">
+      <c r="B778" s="3">
+        <v>54000</v>
+      </c>
+      <c r="C778" s="3">
         <v>1</v>
       </c>
       <c r="D778" s="5" t="s">
@@ -26039,7 +26050,7 @@
         <v>1081</v>
       </c>
       <c r="F778" s="8" t="s">
-        <v>1269</v>
+        <v>1241</v>
       </c>
       <c r="G778">
         <v>0.1</v>
@@ -26048,18 +26059,18 @@
         <v>538</v>
       </c>
       <c r="O778" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="779" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="779" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A779" s="12" t="s">
         <v>1185</v>
       </c>
-      <c r="B779" s="7">
+      <c r="B779" s="3">
         <v>4000</v>
       </c>
-      <c r="C779" s="5">
-        <v>1</v>
+      <c r="C779" s="3">
+        <v>0.5</v>
       </c>
       <c r="D779" s="5" t="s">
         <v>795</v>
@@ -26069,7 +26080,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F779" s="8" t="s">
-        <v>1275</v>
+        <v>1329</v>
       </c>
       <c r="G779">
         <v>9</v>
@@ -26084,18 +26095,18 @@
         <v>538</v>
       </c>
       <c r="O779" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="780" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="780" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A780" s="12" t="s">
         <v>1189</v>
       </c>
-      <c r="B780" s="7">
+      <c r="B780" s="3">
         <v>12000</v>
       </c>
-      <c r="C780" s="5">
-        <v>1</v>
+      <c r="C780" s="3">
+        <v>0.5</v>
       </c>
       <c r="D780" s="5" t="s">
         <v>795</v>
@@ -26105,7 +26116,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F780" s="8" t="s">
-        <v>1274</v>
+        <v>1330</v>
       </c>
       <c r="G780">
         <v>7</v>
@@ -26117,18 +26128,18 @@
         <v>538</v>
       </c>
       <c r="O780" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="781" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="781" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A781" s="12" t="s">
         <v>1190</v>
       </c>
-      <c r="B781" s="7">
+      <c r="B781" s="3">
         <v>24000</v>
       </c>
-      <c r="C781" s="5">
-        <v>1</v>
+      <c r="C781" s="3">
+        <v>0.5</v>
       </c>
       <c r="D781" s="5" t="s">
         <v>795</v>
@@ -26138,7 +26149,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F781" s="8" t="s">
-        <v>1273</v>
+        <v>1331</v>
       </c>
       <c r="G781">
         <v>1.5</v>
@@ -26147,50 +26158,45 @@
         <v>538</v>
       </c>
       <c r="O781" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A782" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="B782" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C782" s="5">
-        <v>1.2</v>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="782" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A782" s="12" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B782" s="3">
+        <v>48000</v>
+      </c>
+      <c r="C782" s="3">
+        <v>0.5</v>
       </c>
       <c r="D782" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="E782" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F782" s="4" t="s">
-        <v>612</v>
+        <v>795</v>
+      </c>
+      <c r="E782" s="3" t="str">
+        <f>H782&amp;", "&amp;I782&amp;", "&amp;J782&amp;", "&amp;K782&amp;", "&amp;L782&amp;", "&amp;M782&amp;", "&amp;N782</f>
+        <v xml:space="preserve">, , , Schmied, , , </v>
+      </c>
+      <c r="F782" s="8" t="s">
+        <v>1332</v>
       </c>
       <c r="G782">
-        <v>9</v>
-      </c>
-      <c r="H782" t="s">
-        <v>549</v>
-      </c>
-      <c r="I782" t="s">
-        <v>536</v>
+        <v>0.1</v>
       </c>
       <c r="K782" t="s">
         <v>538</v>
       </c>
       <c r="O782" t="s">
-        <v>787</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="783" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A783" s="6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B783" s="5">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="C783" s="5">
         <v>1.2</v>
@@ -26199,17 +26205,20 @@
         <v>787</v>
       </c>
       <c r="E783" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F783" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G783">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H783" t="s">
         <v>549</v>
       </c>
+      <c r="I783" t="s">
+        <v>536</v>
+      </c>
       <c r="K783" t="s">
         <v>538</v>
       </c>
@@ -26219,10 +26228,10 @@
     </row>
     <row r="784" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A784" s="6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B784" s="5">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C784" s="5">
         <v>1.2</v>
@@ -26231,13 +26240,16 @@
         <v>787</v>
       </c>
       <c r="E784" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F784" s="4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G784">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H784" t="s">
+        <v>549</v>
       </c>
       <c r="K784" t="s">
         <v>538</v>
@@ -26246,12 +26258,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="785" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A785" s="6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B785" s="5">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="C785" s="5">
         <v>1.2</v>
@@ -26263,10 +26275,10 @@
         <v>1081</v>
       </c>
       <c r="F785" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G785">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K785" t="s">
         <v>538</v>
@@ -26275,12 +26287,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="786" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A786" s="6" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="B786" s="5">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="C786" s="5">
         <v>1.2</v>
@@ -26289,19 +26301,13 @@
         <v>787</v>
       </c>
       <c r="E786" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F786" s="4" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="G786">
-        <v>9</v>
-      </c>
-      <c r="H786" t="s">
-        <v>549</v>
-      </c>
-      <c r="I786" t="s">
-        <v>536</v>
+        <v>0.1</v>
       </c>
       <c r="K786" t="s">
         <v>538</v>
@@ -26312,10 +26318,10 @@
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A787" s="6" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B787" s="5">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="C787" s="5">
         <v>1.2</v>
@@ -26324,17 +26330,20 @@
         <v>787</v>
       </c>
       <c r="E787" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F787" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G787">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H787" t="s">
         <v>549</v>
       </c>
+      <c r="I787" t="s">
+        <v>536</v>
+      </c>
       <c r="K787" t="s">
         <v>538</v>
       </c>
@@ -26344,10 +26353,10 @@
     </row>
     <row r="788" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A788" s="6" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B788" s="5">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C788" s="5">
         <v>1.2</v>
@@ -26356,13 +26365,16 @@
         <v>787</v>
       </c>
       <c r="E788" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F788" s="4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G788">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H788" t="s">
+        <v>549</v>
       </c>
       <c r="K788" t="s">
         <v>538</v>
@@ -26371,12 +26383,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="789" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A789" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B789" s="5">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="C789" s="5">
         <v>1.2</v>
@@ -26388,10 +26400,10 @@
         <v>1081</v>
       </c>
       <c r="F789" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G789">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K789" t="s">
         <v>538</v>
@@ -26400,12 +26412,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="790" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A790" s="6" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="B790" s="5">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="C790" s="5">
         <v>1.2</v>
@@ -26414,19 +26426,13 @@
         <v>787</v>
       </c>
       <c r="E790" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F790" s="4" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="G790">
-        <v>9</v>
-      </c>
-      <c r="H790" t="s">
-        <v>549</v>
-      </c>
-      <c r="I790" t="s">
-        <v>536</v>
+        <v>0.1</v>
       </c>
       <c r="K790" t="s">
         <v>538</v>
@@ -26437,10 +26443,10 @@
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A791" s="6" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B791" s="5">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="C791" s="5">
         <v>1.2</v>
@@ -26449,17 +26455,20 @@
         <v>787</v>
       </c>
       <c r="E791" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F791" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G791">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H791" t="s">
         <v>549</v>
       </c>
+      <c r="I791" t="s">
+        <v>536</v>
+      </c>
       <c r="K791" t="s">
         <v>538</v>
       </c>
@@ -26469,10 +26478,10 @@
     </row>
     <row r="792" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A792" s="6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B792" s="5">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C792" s="5">
         <v>1.2</v>
@@ -26481,13 +26490,16 @@
         <v>787</v>
       </c>
       <c r="E792" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F792" s="4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G792">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H792" t="s">
+        <v>549</v>
       </c>
       <c r="K792" t="s">
         <v>538</v>
@@ -26496,12 +26508,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="793" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A793" s="6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B793" s="5">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="C793" s="5">
         <v>1.2</v>
@@ -26513,10 +26525,10 @@
         <v>1081</v>
       </c>
       <c r="F793" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G793">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K793" t="s">
         <v>538</v>
@@ -26525,12 +26537,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="794" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A794" s="6" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="B794" s="5">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="C794" s="5">
         <v>1.2</v>
@@ -26539,19 +26551,13 @@
         <v>787</v>
       </c>
       <c r="E794" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F794" s="4" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="G794">
-        <v>9</v>
-      </c>
-      <c r="H794" t="s">
-        <v>549</v>
-      </c>
-      <c r="I794" t="s">
-        <v>536</v>
+        <v>0.1</v>
       </c>
       <c r="K794" t="s">
         <v>538</v>
@@ -26562,10 +26568,10 @@
     </row>
     <row r="795" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A795" s="6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B795" s="5">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="C795" s="5">
         <v>1.2</v>
@@ -26574,17 +26580,20 @@
         <v>787</v>
       </c>
       <c r="E795" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F795" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G795">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H795" t="s">
         <v>549</v>
       </c>
+      <c r="I795" t="s">
+        <v>536</v>
+      </c>
       <c r="K795" t="s">
         <v>538</v>
       </c>
@@ -26594,10 +26603,10 @@
     </row>
     <row r="796" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A796" s="6" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B796" s="5">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C796" s="5">
         <v>1.2</v>
@@ -26606,13 +26615,16 @@
         <v>787</v>
       </c>
       <c r="E796" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F796" s="4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G796">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H796" t="s">
+        <v>549</v>
       </c>
       <c r="K796" t="s">
         <v>538</v>
@@ -26621,12 +26633,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="797" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A797" s="6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B797" s="5">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="C797" s="5">
         <v>1.2</v>
@@ -26638,10 +26650,10 @@
         <v>1081</v>
       </c>
       <c r="F797" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G797">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K797" t="s">
         <v>538</v>
@@ -26650,12 +26662,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="798" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A798" s="6" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="B798" s="5">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="C798" s="5">
         <v>1.2</v>
@@ -26664,19 +26676,13 @@
         <v>787</v>
       </c>
       <c r="E798" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F798" s="4" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="G798">
-        <v>9</v>
-      </c>
-      <c r="H798" t="s">
-        <v>549</v>
-      </c>
-      <c r="I798" t="s">
-        <v>536</v>
+        <v>0.1</v>
       </c>
       <c r="K798" t="s">
         <v>538</v>
@@ -26687,10 +26693,10 @@
     </row>
     <row r="799" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A799" s="6" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B799" s="5">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="C799" s="5">
         <v>1.2</v>
@@ -26699,17 +26705,20 @@
         <v>787</v>
       </c>
       <c r="E799" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F799" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G799">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H799" t="s">
         <v>549</v>
       </c>
+      <c r="I799" t="s">
+        <v>536</v>
+      </c>
       <c r="K799" t="s">
         <v>538</v>
       </c>
@@ -26719,10 +26728,10 @@
     </row>
     <row r="800" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A800" s="6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B800" s="5">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="C800" s="5">
         <v>1.2</v>
@@ -26731,13 +26740,16 @@
         <v>787</v>
       </c>
       <c r="E800" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F800" s="4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G800">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H800" t="s">
+        <v>549</v>
       </c>
       <c r="K800" t="s">
         <v>538</v>
@@ -26746,12 +26758,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="801" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A801" s="6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B801" s="5">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="C801" s="5">
         <v>1.2</v>
@@ -26763,10 +26775,10 @@
         <v>1081</v>
       </c>
       <c r="F801" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G801">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K801" t="s">
         <v>538</v>
@@ -26776,24 +26788,23 @@
       </c>
     </row>
     <row r="802" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A802" s="12" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B802" s="7">
-        <v>48000</v>
+      <c r="A802" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B802" s="5">
+        <v>24000</v>
       </c>
       <c r="C802" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D802" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E802" s="3" t="str">
-        <f>H802&amp;", "&amp;I802&amp;", "&amp;J802&amp;", "&amp;K802&amp;", "&amp;L802&amp;", "&amp;M802&amp;", "&amp;N802</f>
-        <v xml:space="preserve">, , , Schmied, , , </v>
-      </c>
-      <c r="F802" s="8" t="s">
-        <v>1276</v>
+        <v>787</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F802" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="G802">
         <v>0.1</v>
@@ -26802,18 +26813,18 @@
         <v>538</v>
       </c>
       <c r="O802" t="s">
-        <v>1346</v>
+        <v>787</v>
       </c>
     </row>
     <row r="803" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A803" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="B803" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C803" s="5">
-        <v>1</v>
+      <c r="B803" s="3">
+        <v>5500</v>
+      </c>
+      <c r="C803" s="3">
+        <v>2</v>
       </c>
       <c r="D803" s="5" t="s">
         <v>795</v>
@@ -26822,7 +26833,7 @@
         <v>1079</v>
       </c>
       <c r="F803" s="8" t="s">
-        <v>1279</v>
+        <v>1247</v>
       </c>
       <c r="G803">
         <v>10</v>
@@ -26837,18 +26848,18 @@
         <v>538</v>
       </c>
       <c r="O803" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="804" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A804" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="B804" s="5">
-        <v>15000</v>
-      </c>
-      <c r="C804" s="5">
-        <v>1</v>
+      <c r="B804" s="3">
+        <v>16500</v>
+      </c>
+      <c r="C804" s="3">
+        <v>2</v>
       </c>
       <c r="D804" s="5" t="s">
         <v>795</v>
@@ -26857,7 +26868,7 @@
         <v>1080</v>
       </c>
       <c r="F804" s="8" t="s">
-        <v>1278</v>
+        <v>1246</v>
       </c>
       <c r="G804">
         <v>6</v>
@@ -26869,18 +26880,18 @@
         <v>538</v>
       </c>
       <c r="O804" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="805" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A805" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="B805" s="5">
-        <v>30000</v>
-      </c>
-      <c r="C805" s="5">
-        <v>1</v>
+      <c r="B805" s="3">
+        <v>33000</v>
+      </c>
+      <c r="C805" s="3">
+        <v>2</v>
       </c>
       <c r="D805" s="5" t="s">
         <v>795</v>
@@ -26889,7 +26900,7 @@
         <v>1081</v>
       </c>
       <c r="F805" s="8" t="s">
-        <v>1277</v>
+        <v>1245</v>
       </c>
       <c r="G805">
         <v>1.5</v>
@@ -26898,47 +26909,44 @@
         <v>538</v>
       </c>
       <c r="O805" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="806" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="806" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A806" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="B806" s="5">
-        <v>3000</v>
-      </c>
-      <c r="C806" s="5">
-        <v>3</v>
+        <v>1174</v>
+      </c>
+      <c r="B806" s="3">
+        <v>66000</v>
+      </c>
+      <c r="C806" s="3">
+        <v>2</v>
       </c>
       <c r="D806" s="5" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="E806" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F806" s="4" t="s">
-        <v>636</v>
+        <v>1081</v>
+      </c>
+      <c r="F806" s="8" t="s">
+        <v>1248</v>
       </c>
       <c r="G806">
-        <v>9</v>
-      </c>
-      <c r="H806" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K806" t="s">
         <v>538</v>
       </c>
       <c r="O806" t="s">
-        <v>787</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="807" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A807" s="6" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B807" s="5">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="C807" s="5">
         <v>3</v>
@@ -26950,10 +26958,10 @@
         <v>1080</v>
       </c>
       <c r="F807" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G807">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H807" t="s">
         <v>549</v>
@@ -26967,10 +26975,10 @@
     </row>
     <row r="808" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A808" s="6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B808" s="5">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="C808" s="5">
         <v>3</v>
@@ -26979,13 +26987,16 @@
         <v>787</v>
       </c>
       <c r="E808" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F808" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G808">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H808" t="s">
+        <v>549</v>
       </c>
       <c r="K808" t="s">
         <v>538</v>
@@ -26996,10 +27007,10 @@
     </row>
     <row r="809" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A809" s="6" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B809" s="5">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="C809" s="5">
         <v>3</v>
@@ -27011,10 +27022,10 @@
         <v>1081</v>
       </c>
       <c r="F809" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G809">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K809" t="s">
         <v>538</v>
@@ -27025,10 +27036,10 @@
     </row>
     <row r="810" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A810" s="6" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="B810" s="5">
-        <v>3000</v>
+        <v>36000</v>
       </c>
       <c r="C810" s="5">
         <v>3</v>
@@ -27037,16 +27048,13 @@
         <v>787</v>
       </c>
       <c r="E810" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F810" s="4" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="G810">
-        <v>9</v>
-      </c>
-      <c r="H810" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K810" t="s">
         <v>538</v>
@@ -27057,10 +27065,10 @@
     </row>
     <row r="811" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A811" s="6" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B811" s="5">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="C811" s="5">
         <v>3</v>
@@ -27072,10 +27080,10 @@
         <v>1080</v>
       </c>
       <c r="F811" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G811">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H811" t="s">
         <v>549</v>
@@ -27089,10 +27097,10 @@
     </row>
     <row r="812" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A812" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B812" s="5">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="C812" s="5">
         <v>3</v>
@@ -27101,13 +27109,16 @@
         <v>787</v>
       </c>
       <c r="E812" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F812" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G812">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H812" t="s">
+        <v>549</v>
       </c>
       <c r="K812" t="s">
         <v>538</v>
@@ -27118,10 +27129,10 @@
     </row>
     <row r="813" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A813" s="6" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B813" s="5">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="C813" s="5">
         <v>3</v>
@@ -27133,10 +27144,10 @@
         <v>1081</v>
       </c>
       <c r="F813" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G813">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K813" t="s">
         <v>538</v>
@@ -27147,10 +27158,10 @@
     </row>
     <row r="814" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A814" s="6" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="B814" s="5">
-        <v>3000</v>
+        <v>36000</v>
       </c>
       <c r="C814" s="5">
         <v>3</v>
@@ -27159,16 +27170,13 @@
         <v>787</v>
       </c>
       <c r="E814" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F814" s="4" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="G814">
-        <v>9</v>
-      </c>
-      <c r="H814" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K814" t="s">
         <v>538</v>
@@ -27179,10 +27187,10 @@
     </row>
     <row r="815" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A815" s="6" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B815" s="5">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="C815" s="5">
         <v>3</v>
@@ -27194,10 +27202,10 @@
         <v>1080</v>
       </c>
       <c r="F815" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G815">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H815" t="s">
         <v>549</v>
@@ -27211,10 +27219,10 @@
     </row>
     <row r="816" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A816" s="6" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B816" s="5">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="C816" s="5">
         <v>3</v>
@@ -27223,13 +27231,16 @@
         <v>787</v>
       </c>
       <c r="E816" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F816" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G816">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H816" t="s">
+        <v>549</v>
       </c>
       <c r="K816" t="s">
         <v>538</v>
@@ -27240,10 +27251,10 @@
     </row>
     <row r="817" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A817" s="6" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B817" s="5">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="C817" s="5">
         <v>3</v>
@@ -27255,10 +27266,10 @@
         <v>1081</v>
       </c>
       <c r="F817" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G817">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K817" t="s">
         <v>538</v>
@@ -27269,10 +27280,10 @@
     </row>
     <row r="818" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A818" s="6" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="B818" s="5">
-        <v>3000</v>
+        <v>36000</v>
       </c>
       <c r="C818" s="5">
         <v>3</v>
@@ -27281,16 +27292,13 @@
         <v>787</v>
       </c>
       <c r="E818" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F818" s="4" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="G818">
-        <v>9</v>
-      </c>
-      <c r="H818" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K818" t="s">
         <v>538</v>
@@ -27301,10 +27309,10 @@
     </row>
     <row r="819" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A819" s="6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B819" s="5">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="C819" s="5">
         <v>3</v>
@@ -27316,10 +27324,10 @@
         <v>1080</v>
       </c>
       <c r="F819" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G819">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H819" t="s">
         <v>549</v>
@@ -27333,10 +27341,10 @@
     </row>
     <row r="820" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A820" s="6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B820" s="5">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="C820" s="5">
         <v>3</v>
@@ -27345,13 +27353,16 @@
         <v>787</v>
       </c>
       <c r="E820" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F820" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G820">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H820" t="s">
+        <v>549</v>
       </c>
       <c r="K820" t="s">
         <v>538</v>
@@ -27362,10 +27373,10 @@
     </row>
     <row r="821" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A821" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B821" s="5">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="C821" s="5">
         <v>3</v>
@@ -27377,10 +27388,10 @@
         <v>1081</v>
       </c>
       <c r="F821" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G821">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K821" t="s">
         <v>538</v>
@@ -27391,10 +27402,10 @@
     </row>
     <row r="822" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A822" s="6" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="B822" s="5">
-        <v>3000</v>
+        <v>36000</v>
       </c>
       <c r="C822" s="5">
         <v>3</v>
@@ -27403,16 +27414,13 @@
         <v>787</v>
       </c>
       <c r="E822" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F822" s="4" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="G822">
-        <v>9</v>
-      </c>
-      <c r="H822" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K822" t="s">
         <v>538</v>
@@ -27423,10 +27431,10 @@
     </row>
     <row r="823" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A823" s="6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B823" s="5">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="C823" s="5">
         <v>3</v>
@@ -27438,10 +27446,10 @@
         <v>1080</v>
       </c>
       <c r="F823" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G823">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H823" t="s">
         <v>549</v>
@@ -27455,10 +27463,10 @@
     </row>
     <row r="824" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A824" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B824" s="5">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="C824" s="5">
         <v>3</v>
@@ -27467,13 +27475,16 @@
         <v>787</v>
       </c>
       <c r="E824" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F824" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G824">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H824" t="s">
+        <v>549</v>
       </c>
       <c r="K824" t="s">
         <v>538</v>
@@ -27484,10 +27495,10 @@
     </row>
     <row r="825" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A825" s="6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B825" s="5">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="C825" s="5">
         <v>3</v>
@@ -27499,10 +27510,10 @@
         <v>1081</v>
       </c>
       <c r="F825" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G825">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="K825" t="s">
         <v>538</v>
@@ -27511,24 +27522,24 @@
         <v>787</v>
       </c>
     </row>
-    <row r="826" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="826" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A826" s="6" t="s">
-        <v>1174</v>
+        <v>656</v>
       </c>
       <c r="B826" s="5">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="C826" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D826" s="5" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="E826" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="F826" s="8" t="s">
-        <v>1280</v>
+      <c r="F826" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="G826">
         <v>0.1</v>
@@ -27537,12 +27548,12 @@
         <v>538</v>
       </c>
       <c r="O826" t="s">
-        <v>1345</v>
+        <v>787</v>
       </c>
     </row>
     <row r="827" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A827" s="6" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B827" s="5">
         <v>2000</v>
@@ -27557,7 +27568,7 @@
         <v>1079</v>
       </c>
       <c r="F827" s="8" t="s">
-        <v>1284</v>
+        <v>1252</v>
       </c>
       <c r="G827">
         <v>10</v>
@@ -27577,7 +27588,7 @@
     </row>
     <row r="828" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A828" s="6" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B828" s="5">
         <v>6000</v>
@@ -27592,7 +27603,7 @@
         <v>1080</v>
       </c>
       <c r="F828" s="8" t="s">
-        <v>1283</v>
+        <v>1251</v>
       </c>
       <c r="G828">
         <v>7</v>
@@ -27609,7 +27620,7 @@
     </row>
     <row r="829" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A829" s="6" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B829" s="5">
         <v>12000</v>
@@ -27624,7 +27635,7 @@
         <v>1081</v>
       </c>
       <c r="F829" s="8" t="s">
-        <v>1282</v>
+        <v>1250</v>
       </c>
       <c r="G829">
         <v>2</v>
@@ -27638,7 +27649,7 @@
     </row>
     <row r="830" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A830" s="6" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B830" s="5">
         <v>24000</v>
@@ -27653,7 +27664,7 @@
         <v>1081</v>
       </c>
       <c r="F830" s="8" t="s">
-        <v>1281</v>
+        <v>1249</v>
       </c>
       <c r="G830">
         <v>0.1</v>
@@ -27669,8 +27680,8 @@
       <c r="A831" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B831" s="5">
-        <v>6500</v>
+      <c r="B831" s="3">
+        <v>3500</v>
       </c>
       <c r="C831" s="5">
         <v>1</v>
@@ -27682,7 +27693,7 @@
         <v>1080</v>
       </c>
       <c r="F831" s="8" t="s">
-        <v>1288</v>
+        <v>1256</v>
       </c>
       <c r="G831">
         <v>5</v>
@@ -27694,15 +27705,15 @@
         <v>538</v>
       </c>
       <c r="O831" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="832" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A832" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B832" s="5">
-        <v>19500</v>
+      <c r="B832" s="3">
+        <v>10500</v>
       </c>
       <c r="C832" s="5">
         <v>1</v>
@@ -27714,7 +27725,7 @@
         <v>1080</v>
       </c>
       <c r="F832" s="8" t="s">
-        <v>1287</v>
+        <v>1255</v>
       </c>
       <c r="G832">
         <v>4</v>
@@ -27726,15 +27737,15 @@
         <v>538</v>
       </c>
       <c r="O832" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="833" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A833" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B833" s="5">
-        <v>39000</v>
+      <c r="B833" s="3">
+        <v>21000</v>
       </c>
       <c r="C833" s="5">
         <v>1</v>
@@ -27746,7 +27757,7 @@
         <v>1081</v>
       </c>
       <c r="F833" s="8" t="s">
-        <v>1286</v>
+        <v>1254</v>
       </c>
       <c r="G833">
         <v>1.5</v>
@@ -27755,15 +27766,15 @@
         <v>538</v>
       </c>
       <c r="O833" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="834" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A834" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B834" s="5">
-        <v>78000</v>
+      <c r="B834" s="3">
+        <v>42000</v>
       </c>
       <c r="C834" s="5">
         <v>1</v>
@@ -27775,7 +27786,7 @@
         <v>1081</v>
       </c>
       <c r="F834" s="8" t="s">
-        <v>1285</v>
+        <v>1253</v>
       </c>
       <c r="G834">
         <v>0.1</v>
@@ -27784,7 +27795,7 @@
         <v>538</v>
       </c>
       <c r="O834" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="835" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -27804,7 +27815,7 @@
         <v>1080</v>
       </c>
       <c r="F835" s="8" t="s">
-        <v>1289</v>
+        <v>1257</v>
       </c>
       <c r="G835">
         <v>3</v>
@@ -27816,51 +27827,47 @@
         <v>538</v>
       </c>
       <c r="O835" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="836" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A836" s="12" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B836" s="7">
-        <v>2400</v>
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="836" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A836" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B836" s="5">
+        <v>4000</v>
       </c>
       <c r="C836" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D836" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E836" s="3" t="str">
-        <f>H836&amp;", "&amp;I836&amp;", "&amp;J836&amp;", "&amp;K836&amp;", "&amp;L836&amp;", "&amp;M836&amp;", "&amp;N836</f>
-        <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
-      </c>
-      <c r="F836" s="8" t="s">
-        <v>1290</v>
+        <v>787</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F836" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="G836">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H836" t="s">
         <v>549</v>
       </c>
-      <c r="I836" t="s">
-        <v>536</v>
-      </c>
       <c r="K836" t="s">
         <v>538</v>
       </c>
       <c r="O836" t="s">
-        <v>1346</v>
+        <v>787</v>
       </c>
     </row>
     <row r="837" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A837" s="6" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B837" s="5">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="C837" s="5">
         <v>5</v>
@@ -27872,10 +27879,10 @@
         <v>1080</v>
       </c>
       <c r="F837" s="4" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="G837">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H837" t="s">
         <v>549</v>
@@ -27889,10 +27896,10 @@
     </row>
     <row r="838" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A838" s="6" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B838" s="5">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="C838" s="5">
         <v>5</v>
@@ -27901,16 +27908,13 @@
         <v>787</v>
       </c>
       <c r="E838" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F838" s="4" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="G838">
-        <v>5</v>
-      </c>
-      <c r="H838" t="s">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="K838" t="s">
         <v>538</v>
@@ -27919,12 +27923,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="839" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A839" s="6" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B839" s="5">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="C839" s="5">
         <v>5</v>
@@ -27936,10 +27940,10 @@
         <v>1081</v>
       </c>
       <c r="F839" s="4" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G839">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K839" t="s">
         <v>538</v>
@@ -27948,12 +27952,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="840" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A840" s="6" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B840" s="5">
-        <v>48000</v>
+        <v>4000</v>
       </c>
       <c r="C840" s="5">
         <v>5</v>
@@ -27962,13 +27966,16 @@
         <v>787</v>
       </c>
       <c r="E840" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F840" s="4" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="G840">
-        <v>0.1</v>
+        <v>8</v>
+      </c>
+      <c r="H840" t="s">
+        <v>549</v>
       </c>
       <c r="K840" t="s">
         <v>538</v>
@@ -27979,10 +27986,10 @@
     </row>
     <row r="841" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A841" s="6" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B841" s="5">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="C841" s="5">
         <v>5</v>
@@ -27994,10 +28001,10 @@
         <v>1080</v>
       </c>
       <c r="F841" s="4" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="G841">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H841" t="s">
         <v>549</v>
@@ -28011,10 +28018,10 @@
     </row>
     <row r="842" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A842" s="6" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B842" s="5">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="C842" s="5">
         <v>5</v>
@@ -28023,16 +28030,13 @@
         <v>787</v>
       </c>
       <c r="E842" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F842" s="4" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="G842">
-        <v>5</v>
-      </c>
-      <c r="H842" t="s">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="K842" t="s">
         <v>538</v>
@@ -28041,12 +28045,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="843" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A843" s="6" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B843" s="5">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="C843" s="5">
         <v>5</v>
@@ -28058,10 +28062,10 @@
         <v>1081</v>
       </c>
       <c r="F843" s="4" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G843">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K843" t="s">
         <v>538</v>
@@ -28070,12 +28074,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A844" s="6" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="B844" s="5">
-        <v>48000</v>
+        <v>4000</v>
       </c>
       <c r="C844" s="5">
         <v>5</v>
@@ -28084,13 +28088,16 @@
         <v>787</v>
       </c>
       <c r="E844" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F844" s="4" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="G844">
-        <v>0.1</v>
+        <v>8</v>
+      </c>
+      <c r="H844" t="s">
+        <v>549</v>
       </c>
       <c r="K844" t="s">
         <v>538</v>
@@ -28099,25 +28106,24 @@
         <v>787</v>
       </c>
     </row>
-    <row r="845" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A845" s="12" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B845" s="7">
-        <v>7200</v>
+    <row r="845" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A845" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B845" s="5">
+        <v>12000</v>
       </c>
       <c r="C845" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D845" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E845" s="3" t="str">
-        <f>H845&amp;", "&amp;I845&amp;", "&amp;J845&amp;", "&amp;K845&amp;", "&amp;L845&amp;", "&amp;M845&amp;", "&amp;N845</f>
-        <v xml:space="preserve">Hehler, , , Schmied, , , </v>
-      </c>
-      <c r="F845" s="8" t="s">
-        <v>1291</v>
+        <v>787</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F845" s="4" t="s">
+        <v>666</v>
       </c>
       <c r="G845">
         <v>5</v>
@@ -28129,15 +28135,15 @@
         <v>538</v>
       </c>
       <c r="O845" t="s">
-        <v>1346</v>
+        <v>787</v>
       </c>
     </row>
     <row r="846" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A846" s="6" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="B846" s="5">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="C846" s="5">
         <v>5</v>
@@ -28146,16 +28152,13 @@
         <v>787</v>
       </c>
       <c r="E846" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F846" s="4" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="G846">
-        <v>8</v>
-      </c>
-      <c r="H846" t="s">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="K846" t="s">
         <v>538</v>
@@ -28164,12 +28167,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="847" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A847" s="6" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="B847" s="5">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="C847" s="5">
         <v>5</v>
@@ -28178,16 +28181,13 @@
         <v>787</v>
       </c>
       <c r="E847" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F847" s="4" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="G847">
-        <v>5</v>
-      </c>
-      <c r="H847" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K847" t="s">
         <v>538</v>
@@ -28198,10 +28198,10 @@
     </row>
     <row r="848" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A848" s="6" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B848" s="5">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="C848" s="5">
         <v>5</v>
@@ -28210,13 +28210,16 @@
         <v>787</v>
       </c>
       <c r="E848" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F848" s="4" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G848">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="H848" t="s">
+        <v>549</v>
       </c>
       <c r="K848" t="s">
         <v>538</v>
@@ -28225,12 +28228,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="849" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A849" s="6" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B849" s="5">
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="C849" s="5">
         <v>5</v>
@@ -28239,13 +28242,16 @@
         <v>787</v>
       </c>
       <c r="E849" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F849" s="4" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G849">
-        <v>0.1</v>
+        <v>5</v>
+      </c>
+      <c r="H849" t="s">
+        <v>549</v>
       </c>
       <c r="K849" t="s">
         <v>538</v>
@@ -28256,10 +28262,10 @@
     </row>
     <row r="850" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A850" s="6" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="B850" s="5">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="C850" s="5">
         <v>5</v>
@@ -28268,16 +28274,13 @@
         <v>787</v>
       </c>
       <c r="E850" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F850" s="4" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="G850">
-        <v>8</v>
-      </c>
-      <c r="H850" t="s">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="K850" t="s">
         <v>538</v>
@@ -28286,12 +28289,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="851" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A851" s="6" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="B851" s="5">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="C851" s="5">
         <v>5</v>
@@ -28300,16 +28303,13 @@
         <v>787</v>
       </c>
       <c r="E851" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F851" s="4" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="G851">
-        <v>5</v>
-      </c>
-      <c r="H851" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K851" t="s">
         <v>538</v>
@@ -28320,10 +28320,10 @@
     </row>
     <row r="852" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A852" s="6" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B852" s="5">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="C852" s="5">
         <v>5</v>
@@ -28332,13 +28332,16 @@
         <v>787</v>
       </c>
       <c r="E852" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F852" s="4" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="G852">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="H852" t="s">
+        <v>549</v>
       </c>
       <c r="K852" t="s">
         <v>538</v>
@@ -28347,12 +28350,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="853" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A853" s="6" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B853" s="5">
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="C853" s="5">
         <v>5</v>
@@ -28361,13 +28364,16 @@
         <v>787</v>
       </c>
       <c r="E853" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F853" s="4" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G853">
-        <v>0.1</v>
+        <v>5</v>
+      </c>
+      <c r="H853" t="s">
+        <v>549</v>
       </c>
       <c r="K853" t="s">
         <v>538</v>
@@ -28378,10 +28384,10 @@
     </row>
     <row r="854" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A854" s="6" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="B854" s="5">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="C854" s="5">
         <v>5</v>
@@ -28390,16 +28396,13 @@
         <v>787</v>
       </c>
       <c r="E854" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F854" s="4" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="G854">
-        <v>8</v>
-      </c>
-      <c r="H854" t="s">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="K854" t="s">
         <v>538</v>
@@ -28408,12 +28411,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="855" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A855" s="6" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="B855" s="5">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="C855" s="5">
         <v>5</v>
@@ -28422,16 +28425,13 @@
         <v>787</v>
       </c>
       <c r="E855" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F855" s="4" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="G855">
-        <v>5</v>
-      </c>
-      <c r="H855" t="s">
-        <v>549</v>
+        <v>0.1</v>
       </c>
       <c r="K855" t="s">
         <v>538</v>
@@ -28440,73 +28440,84 @@
         <v>787</v>
       </c>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A856" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="B856" s="5">
-        <v>24000</v>
-      </c>
-      <c r="C856" s="5">
-        <v>5</v>
+    <row r="856" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A856" s="12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B856" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C856" s="3">
+        <v>0.3</v>
       </c>
       <c r="D856" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="E856" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F856" s="4" t="s">
-        <v>672</v>
+        <v>795</v>
+      </c>
+      <c r="E856" s="3" t="str">
+        <f>H856&amp;", "&amp;I856&amp;", "&amp;J856&amp;", "&amp;K856&amp;", "&amp;L856&amp;", "&amp;M856&amp;", "&amp;N856</f>
+        <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
+      </c>
+      <c r="F856" s="8" t="s">
+        <v>1336</v>
       </c>
       <c r="G856">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="H856" t="s">
+        <v>549</v>
+      </c>
+      <c r="I856" t="s">
+        <v>536</v>
       </c>
       <c r="K856" t="s">
         <v>538</v>
       </c>
       <c r="O856" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="857" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A857" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="B857" s="5">
-        <v>48000</v>
-      </c>
-      <c r="C857" s="5">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="857" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A857" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B857" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C857" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D857" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E857" s="3" t="str">
+        <f>H857&amp;", "&amp;I857&amp;", "&amp;J857&amp;", "&amp;K857&amp;", "&amp;L857&amp;", "&amp;M857&amp;", "&amp;N857</f>
+        <v xml:space="preserve">Hehler, , , Schmied, , , </v>
+      </c>
+      <c r="F857" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G857">
         <v>5</v>
       </c>
-      <c r="D857" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="E857" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F857" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="G857">
-        <v>0.1</v>
+      <c r="H857" t="s">
+        <v>549</v>
       </c>
       <c r="K857" t="s">
         <v>538</v>
       </c>
       <c r="O857" t="s">
-        <v>787</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="858" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A858" s="12" t="s">
         <v>1198</v>
       </c>
-      <c r="B858" s="7">
-        <v>14400</v>
-      </c>
-      <c r="C858" s="5">
-        <v>1</v>
+      <c r="B858" s="3">
+        <v>18000</v>
+      </c>
+      <c r="C858" s="3">
+        <v>0.3</v>
       </c>
       <c r="D858" s="5" t="s">
         <v>795</v>
@@ -28516,7 +28527,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F858" s="8" t="s">
-        <v>1292</v>
+        <v>1334</v>
       </c>
       <c r="G858">
         <v>1</v>
@@ -28525,18 +28536,18 @@
         <v>538</v>
       </c>
       <c r="O858" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="859" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A859" s="12" t="s">
         <v>1199</v>
       </c>
-      <c r="B859" s="7">
-        <v>28800</v>
-      </c>
-      <c r="C859" s="5">
-        <v>1</v>
+      <c r="B859" s="3">
+        <v>36000</v>
+      </c>
+      <c r="C859" s="3">
+        <v>0.3</v>
       </c>
       <c r="D859" s="5" t="s">
         <v>795</v>
@@ -28546,7 +28557,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F859" s="8" t="s">
-        <v>1293</v>
+        <v>1333</v>
       </c>
       <c r="G859">
         <v>0.1</v>
@@ -28555,12 +28566,12 @@
         <v>538</v>
       </c>
       <c r="O859" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="860" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A860" s="6" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B860" s="5">
         <v>3000</v>
@@ -28575,7 +28586,7 @@
         <v>1080</v>
       </c>
       <c r="F860" s="8" t="s">
-        <v>1297</v>
+        <v>1261</v>
       </c>
       <c r="G860">
         <v>8</v>
@@ -28587,12 +28598,12 @@
         <v>538</v>
       </c>
       <c r="O860" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="861" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A861" s="6" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B861" s="5">
         <v>9000</v>
@@ -28607,7 +28618,7 @@
         <v>1080</v>
       </c>
       <c r="F861" s="8" t="s">
-        <v>1296</v>
+        <v>1260</v>
       </c>
       <c r="G861">
         <v>6</v>
@@ -28619,12 +28630,12 @@
         <v>538</v>
       </c>
       <c r="O861" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="862" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A862" s="6" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B862" s="5">
         <v>18000</v>
@@ -28639,7 +28650,7 @@
         <v>1081</v>
       </c>
       <c r="F862" s="8" t="s">
-        <v>1295</v>
+        <v>1259</v>
       </c>
       <c r="G862">
         <v>1.5</v>
@@ -28648,12 +28659,12 @@
         <v>538</v>
       </c>
       <c r="O862" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="863" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A863" s="6" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B863" s="5">
         <v>36000</v>
@@ -28668,7 +28679,7 @@
         <v>1081</v>
       </c>
       <c r="F863" s="8" t="s">
-        <v>1294</v>
+        <v>1258</v>
       </c>
       <c r="G863">
         <v>0.1</v>
@@ -28677,7 +28688,7 @@
         <v>538</v>
       </c>
       <c r="O863" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="864" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -28697,7 +28708,7 @@
         <v>1080</v>
       </c>
       <c r="F864" s="8" t="s">
-        <v>1298</v>
+        <v>1262</v>
       </c>
       <c r="G864">
         <v>8</v>
@@ -28709,7 +28720,7 @@
         <v>538</v>
       </c>
       <c r="O864" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="865" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -28730,7 +28741,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F865" s="8" t="s">
-        <v>1303</v>
+        <v>1263</v>
       </c>
       <c r="G865">
         <v>2</v>
@@ -28742,15 +28753,15 @@
         <v>538</v>
       </c>
       <c r="O865" t="s">
-        <v>1345</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="866" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A866" s="12" t="s">
         <v>1192</v>
       </c>
-      <c r="B866" s="7">
-        <v>6500</v>
+      <c r="B866" s="3">
+        <v>6000</v>
       </c>
       <c r="C866" s="5">
         <v>3</v>
@@ -28763,7 +28774,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F866" s="8" t="s">
-        <v>1302</v>
+        <v>1340</v>
       </c>
       <c r="G866">
         <v>6</v>
@@ -28778,15 +28789,15 @@
         <v>538</v>
       </c>
       <c r="O866" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="867" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A867" s="12" t="s">
         <v>1193</v>
       </c>
-      <c r="B867" s="7">
-        <v>19500</v>
+      <c r="B867" s="3">
+        <v>18000</v>
       </c>
       <c r="C867" s="5">
         <v>3</v>
@@ -28799,7 +28810,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F867" s="8" t="s">
-        <v>1301</v>
+        <v>1339</v>
       </c>
       <c r="G867">
         <v>4</v>
@@ -28811,15 +28822,15 @@
         <v>538</v>
       </c>
       <c r="O867" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="868" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A868" s="12" t="s">
         <v>1194</v>
       </c>
-      <c r="B868" s="7">
-        <v>39000</v>
+      <c r="B868" s="3">
+        <v>36000</v>
       </c>
       <c r="C868" s="5">
         <v>3</v>
@@ -28832,7 +28843,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F868" s="8" t="s">
-        <v>1300</v>
+        <v>1338</v>
       </c>
       <c r="G868">
         <v>1</v>
@@ -28841,15 +28852,15 @@
         <v>538</v>
       </c>
       <c r="O868" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="869" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A869" s="12" t="s">
         <v>1195</v>
       </c>
-      <c r="B869" s="7">
-        <v>78000</v>
+      <c r="B869" s="3">
+        <v>72000</v>
       </c>
       <c r="C869" s="5">
         <v>3</v>
@@ -28862,7 +28873,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F869" s="8" t="s">
-        <v>1299</v>
+        <v>1337</v>
       </c>
       <c r="G869">
         <v>0.1</v>
@@ -28871,17 +28882,17 @@
         <v>538</v>
       </c>
       <c r="O869" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="870" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="870" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A870" s="12" t="s">
         <v>1180</v>
       </c>
-      <c r="B870" s="7">
-        <v>5500</v>
-      </c>
-      <c r="C870" s="5">
+      <c r="B870" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C870" s="3">
         <v>1</v>
       </c>
       <c r="D870" s="5" t="s">
@@ -28891,8 +28902,8 @@
         <f t="shared" si="12"/>
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
-      <c r="F870" s="8" t="s">
-        <v>1305</v>
+      <c r="F870" t="s">
+        <v>1343</v>
       </c>
       <c r="G870">
         <v>7</v>
@@ -28907,17 +28918,17 @@
         <v>538</v>
       </c>
       <c r="O870" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="871" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="871" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A871" s="12" t="s">
         <v>1181</v>
       </c>
-      <c r="B871" s="7">
-        <v>16500</v>
-      </c>
-      <c r="C871" s="5">
+      <c r="B871" s="3">
+        <v>18000</v>
+      </c>
+      <c r="C871" s="3">
         <v>1</v>
       </c>
       <c r="D871" s="5" t="s">
@@ -28927,8 +28938,8 @@
         <f t="shared" si="12"/>
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
-      <c r="F871" s="8" t="s">
-        <v>1304</v>
+      <c r="F871" t="s">
+        <v>1342</v>
       </c>
       <c r="G871">
         <v>5</v>
@@ -28940,17 +28951,17 @@
         <v>538</v>
       </c>
       <c r="O871" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="872" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="872" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A872" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="B872" s="7">
-        <v>33000</v>
-      </c>
-      <c r="C872" s="5">
+      <c r="B872" s="3">
+        <v>36000</v>
+      </c>
+      <c r="C872" s="3">
         <v>1</v>
       </c>
       <c r="D872" s="5" t="s">
@@ -28960,8 +28971,8 @@
         <f t="shared" si="12"/>
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
-      <c r="F872" s="8" t="s">
-        <v>1306</v>
+      <c r="F872" t="s">
+        <v>1341</v>
       </c>
       <c r="G872">
         <v>1</v>
@@ -28970,7 +28981,7 @@
         <v>538</v>
       </c>
       <c r="O872" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="873" spans="1:15" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
@@ -29659,10 +29670,10 @@
       <c r="A906" s="12" t="s">
         <v>1183</v>
       </c>
-      <c r="B906" s="7">
-        <v>66000</v>
-      </c>
-      <c r="C906" s="5">
+      <c r="B906" s="3">
+        <v>72000</v>
+      </c>
+      <c r="C906" s="3">
         <v>1</v>
       </c>
       <c r="D906" s="5" t="s">
@@ -29673,7 +29684,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F906" s="8" t="s">
-        <v>1307</v>
+        <v>1264</v>
       </c>
       <c r="G906">
         <v>0.1</v>
@@ -29682,17 +29693,17 @@
         <v>538</v>
       </c>
       <c r="O906" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="907" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A907" s="12" t="s">
         <v>1184</v>
       </c>
-      <c r="B907" s="7">
+      <c r="B907" s="3">
         <v>5000</v>
       </c>
-      <c r="C907" s="5">
+      <c r="C907" s="3">
         <v>1</v>
       </c>
       <c r="D907" s="5" t="s">
@@ -29703,7 +29714,7 @@
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
       <c r="F907" s="8" t="s">
-        <v>1311</v>
+        <v>1268</v>
       </c>
       <c r="G907">
         <v>8</v>
@@ -29718,17 +29729,17 @@
         <v>538</v>
       </c>
       <c r="O907" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="908" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A908" s="12" t="s">
         <v>1186</v>
       </c>
-      <c r="B908" s="7">
+      <c r="B908" s="3">
         <v>15000</v>
       </c>
-      <c r="C908" s="5">
+      <c r="C908" s="3">
         <v>1</v>
       </c>
       <c r="D908" s="5" t="s">
@@ -29739,7 +29750,7 @@
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
       <c r="F908" s="8" t="s">
-        <v>1310</v>
+        <v>1267</v>
       </c>
       <c r="G908">
         <v>6</v>
@@ -29751,17 +29762,17 @@
         <v>538</v>
       </c>
       <c r="O908" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="909" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A909" s="12" t="s">
         <v>1187</v>
       </c>
-      <c r="B909" s="7">
+      <c r="B909" s="3">
         <v>30000</v>
       </c>
-      <c r="C909" s="5">
+      <c r="C909" s="3">
         <v>1</v>
       </c>
       <c r="D909" s="5" t="s">
@@ -29772,7 +29783,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F909" s="8" t="s">
-        <v>1309</v>
+        <v>1266</v>
       </c>
       <c r="G909">
         <v>1.5</v>
@@ -29781,17 +29792,17 @@
         <v>538</v>
       </c>
       <c r="O909" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="910" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A910" s="12" t="s">
         <v>1188</v>
       </c>
-      <c r="B910" s="7">
+      <c r="B910" s="3">
         <v>60000</v>
       </c>
-      <c r="C910" s="5">
+      <c r="C910" s="3">
         <v>1</v>
       </c>
       <c r="D910" s="5" t="s">
@@ -29802,7 +29813,7 @@
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
       <c r="F910" s="8" t="s">
-        <v>1308</v>
+        <v>1265</v>
       </c>
       <c r="G910">
         <v>0.1</v>
@@ -29811,7 +29822,7 @@
         <v>538</v>
       </c>
       <c r="O910" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="911" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -29831,7 +29842,7 @@
         <v>1079</v>
       </c>
       <c r="F911" s="8" t="s">
-        <v>1315</v>
+        <v>1272</v>
       </c>
       <c r="G911">
         <v>9</v>
@@ -29866,7 +29877,7 @@
         <v>1080</v>
       </c>
       <c r="F912" s="8" t="s">
-        <v>1314</v>
+        <v>1271</v>
       </c>
       <c r="G912">
         <v>7</v>
@@ -29898,7 +29909,7 @@
         <v>1081</v>
       </c>
       <c r="F913" s="8" t="s">
-        <v>1313</v>
+        <v>1270</v>
       </c>
       <c r="G913">
         <v>2</v>
@@ -29927,7 +29938,7 @@
         <v>1081</v>
       </c>
       <c r="F914" s="8" t="s">
-        <v>1312</v>
+        <v>1269</v>
       </c>
       <c r="G914">
         <v>0.1</v>
@@ -29939,12 +29950,12 @@
         <v>552</v>
       </c>
     </row>
-    <row r="915" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A915" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B915" s="5">
-        <v>2000</v>
+      <c r="B915" s="3">
+        <v>1000</v>
       </c>
       <c r="C915" s="5">
         <v>0.2</v>
@@ -29955,8 +29966,8 @@
       <c r="E915" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="F915" s="8" t="s">
-        <v>1321</v>
+      <c r="F915" t="s">
+        <v>1344</v>
       </c>
       <c r="G915">
         <v>8</v>
@@ -29971,15 +29982,15 @@
         <v>538</v>
       </c>
       <c r="O915" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="916" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="916" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A916" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B916" s="5">
-        <v>6000</v>
+      <c r="B916" s="3">
+        <v>3000</v>
       </c>
       <c r="C916" s="5">
         <v>0.2</v>
@@ -29990,8 +30001,8 @@
       <c r="E916" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="F916" s="8" t="s">
-        <v>1320</v>
+      <c r="F916" t="s">
+        <v>1345</v>
       </c>
       <c r="G916">
         <v>4</v>
@@ -30003,15 +30014,15 @@
         <v>538</v>
       </c>
       <c r="O916" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="917" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="917" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A917" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B917" s="5">
-        <v>12000</v>
+      <c r="B917" s="3">
+        <v>6000</v>
       </c>
       <c r="C917" s="5">
         <v>0.2</v>
@@ -30022,8 +30033,8 @@
       <c r="E917" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="F917" s="8" t="s">
-        <v>1319</v>
+      <c r="F917" t="s">
+        <v>1346</v>
       </c>
       <c r="G917">
         <v>1.5</v>
@@ -30032,15 +30043,15 @@
         <v>538</v>
       </c>
       <c r="O917" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="918" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="918" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A918" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B918" s="5">
-        <v>24000</v>
+      <c r="B918" s="3">
+        <v>12000</v>
       </c>
       <c r="C918" s="5">
         <v>0.2</v>
@@ -30051,8 +30062,8 @@
       <c r="E918" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="F918" s="8" t="s">
-        <v>1318</v>
+      <c r="F918" t="s">
+        <v>1347</v>
       </c>
       <c r="G918">
         <v>0.1</v>
@@ -30061,7 +30072,7 @@
         <v>538</v>
       </c>
       <c r="O918" t="s">
-        <v>1348</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="919" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -30081,7 +30092,7 @@
         <v>1080</v>
       </c>
       <c r="F919" s="8" t="s">
-        <v>1317</v>
+        <v>1274</v>
       </c>
       <c r="G919">
         <v>8</v>
@@ -30093,7 +30104,7 @@
         <v>538</v>
       </c>
       <c r="O919" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="920" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -30113,7 +30124,7 @@
         <v>1080</v>
       </c>
       <c r="F920" s="8" t="s">
-        <v>1316</v>
+        <v>1273</v>
       </c>
       <c r="G920">
         <v>7</v>
@@ -30125,7 +30136,7 @@
         <v>538</v>
       </c>
       <c r="O920" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="921" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30145,7 +30156,7 @@
         <v>1079</v>
       </c>
       <c r="F921" s="8" t="s">
-        <v>1329</v>
+        <v>1282</v>
       </c>
       <c r="G921">
         <v>9</v>
@@ -30160,7 +30171,7 @@
         <v>538</v>
       </c>
       <c r="O921" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="922" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30180,7 +30191,7 @@
         <v>1080</v>
       </c>
       <c r="F922" s="8" t="s">
-        <v>1328</v>
+        <v>1281</v>
       </c>
       <c r="G922">
         <v>7</v>
@@ -30192,7 +30203,7 @@
         <v>538</v>
       </c>
       <c r="O922" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="923" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30212,7 +30223,7 @@
         <v>1081</v>
       </c>
       <c r="F923" s="8" t="s">
-        <v>1327</v>
+        <v>1280</v>
       </c>
       <c r="G923">
         <v>1.5</v>
@@ -30221,7 +30232,7 @@
         <v>538</v>
       </c>
       <c r="O923" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="924" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30241,7 +30252,7 @@
         <v>1081</v>
       </c>
       <c r="F924" s="8" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="G924">
         <v>0.1</v>
@@ -30250,7 +30261,7 @@
         <v>538</v>
       </c>
       <c r="O924" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="925" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30270,7 +30281,7 @@
         <v>1080</v>
       </c>
       <c r="F925" s="8" t="s">
-        <v>1325</v>
+        <v>1278</v>
       </c>
       <c r="G925">
         <v>8</v>
@@ -30282,7 +30293,7 @@
         <v>538</v>
       </c>
       <c r="O925" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="926" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30302,7 +30313,7 @@
         <v>1080</v>
       </c>
       <c r="F926" s="8" t="s">
-        <v>1324</v>
+        <v>1277</v>
       </c>
       <c r="G926">
         <v>6</v>
@@ -30314,7 +30325,7 @@
         <v>538</v>
       </c>
       <c r="O926" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="927" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30334,7 +30345,7 @@
         <v>1081</v>
       </c>
       <c r="F927" s="8" t="s">
-        <v>1323</v>
+        <v>1276</v>
       </c>
       <c r="G927">
         <v>1.5</v>
@@ -30343,7 +30354,7 @@
         <v>538</v>
       </c>
       <c r="O927" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="928" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30363,7 +30374,7 @@
         <v>1081</v>
       </c>
       <c r="F928" s="8" t="s">
-        <v>1322</v>
+        <v>1275</v>
       </c>
       <c r="G928">
         <v>0.1</v>
@@ -30372,7 +30383,7 @@
         <v>538</v>
       </c>
       <c r="O928" t="s">
-        <v>1350</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="929" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -30398,7 +30409,7 @@
         <v>0</v>
       </c>
       <c r="O929" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="930" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30418,7 +30429,7 @@
         <v>1079</v>
       </c>
       <c r="F930" s="8" t="s">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="G930">
         <v>7</v>
@@ -30433,7 +30444,7 @@
         <v>538</v>
       </c>
       <c r="O930" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="931" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30453,7 +30464,7 @@
         <v>1080</v>
       </c>
       <c r="F931" s="8" t="s">
-        <v>1332</v>
+        <v>1285</v>
       </c>
       <c r="G931">
         <v>5</v>
@@ -30465,7 +30476,7 @@
         <v>538</v>
       </c>
       <c r="O931" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="932" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30485,7 +30496,7 @@
         <v>1081</v>
       </c>
       <c r="F932" s="8" t="s">
-        <v>1331</v>
+        <v>1284</v>
       </c>
       <c r="G932">
         <v>1.5</v>
@@ -30494,7 +30505,7 @@
         <v>538</v>
       </c>
       <c r="O932" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="933" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30514,7 +30525,7 @@
         <v>1081</v>
       </c>
       <c r="F933" s="8" t="s">
-        <v>1330</v>
+        <v>1283</v>
       </c>
       <c r="G933">
         <v>0.1</v>
@@ -30523,7 +30534,7 @@
         <v>538</v>
       </c>
       <c r="O933" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="934" spans="1:15" ht="29.5" x14ac:dyDescent="0.75">
@@ -30543,7 +30554,7 @@
         <v>1080</v>
       </c>
       <c r="F934" s="8" t="s">
-        <v>1337</v>
+        <v>1290</v>
       </c>
       <c r="G934">
         <v>8</v>
@@ -30575,7 +30586,7 @@
         <v>1080</v>
       </c>
       <c r="F935" s="8" t="s">
-        <v>1336</v>
+        <v>1289</v>
       </c>
       <c r="G935">
         <v>5</v>
@@ -30607,7 +30618,7 @@
         <v>1081</v>
       </c>
       <c r="F936" s="8" t="s">
-        <v>1335</v>
+        <v>1288</v>
       </c>
       <c r="G936">
         <v>2</v>
@@ -30636,7 +30647,7 @@
         <v>1081</v>
       </c>
       <c r="F937" s="8" t="s">
-        <v>1334</v>
+        <v>1287</v>
       </c>
       <c r="G937">
         <v>0.1</v>
@@ -30665,7 +30676,7 @@
         <v>1080</v>
       </c>
       <c r="F938" s="8" t="s">
-        <v>1338</v>
+        <v>1291</v>
       </c>
       <c r="G938">
         <v>7</v>
@@ -30677,18 +30688,18 @@
         <v>538</v>
       </c>
       <c r="O938" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="939" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="939" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A939" s="12" t="s">
         <v>1200</v>
       </c>
-      <c r="B939" s="7">
-        <v>2400</v>
-      </c>
-      <c r="C939" s="5">
-        <v>1</v>
+      <c r="B939" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C939" s="3">
+        <v>0.3</v>
       </c>
       <c r="D939" s="5" t="s">
         <v>795</v>
@@ -30697,8 +30708,8 @@
         <f>H939&amp;", "&amp;I939&amp;", "&amp;J939&amp;", "&amp;K939&amp;", "&amp;L939&amp;", "&amp;M939&amp;", "&amp;N939</f>
         <v xml:space="preserve">Hehler, Allgemein, , Schmied, , , </v>
       </c>
-      <c r="F939" s="8" t="s">
-        <v>1339</v>
+      <c r="F939" t="s">
+        <v>1348</v>
       </c>
       <c r="G939">
         <v>7</v>
@@ -30713,18 +30724,18 @@
         <v>538</v>
       </c>
       <c r="O939" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="940" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="940" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A940" s="12" t="s">
         <v>1201</v>
       </c>
-      <c r="B940" s="7">
-        <v>7200</v>
-      </c>
-      <c r="C940" s="5">
-        <v>1</v>
+      <c r="B940" s="3">
+        <v>7500</v>
+      </c>
+      <c r="C940" s="3">
+        <v>0.3</v>
       </c>
       <c r="D940" s="5" t="s">
         <v>795</v>
@@ -30733,8 +30744,8 @@
         <f>H940&amp;", "&amp;I940&amp;", "&amp;J940&amp;", "&amp;K940&amp;", "&amp;L940&amp;", "&amp;M940&amp;", "&amp;N940</f>
         <v xml:space="preserve">Hehler, , , Schmied, , , </v>
       </c>
-      <c r="F940" s="8" t="s">
-        <v>1340</v>
+      <c r="F940" t="s">
+        <v>1349</v>
       </c>
       <c r="G940">
         <v>5</v>
@@ -30746,18 +30757,18 @@
         <v>538</v>
       </c>
       <c r="O940" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="941" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="941" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A941" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="B941" s="7">
-        <v>14400</v>
-      </c>
-      <c r="C941" s="5">
-        <v>1</v>
+      <c r="B941" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C941" s="3">
+        <v>0.3</v>
       </c>
       <c r="D941" s="5" t="s">
         <v>795</v>
@@ -30766,8 +30777,8 @@
         <f>H941&amp;", "&amp;I941&amp;", "&amp;J941&amp;", "&amp;K941&amp;", "&amp;L941&amp;", "&amp;M941&amp;", "&amp;N941</f>
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
-      <c r="F941" s="8" t="s">
-        <v>1341</v>
+      <c r="F941" t="s">
+        <v>1350</v>
       </c>
       <c r="G941">
         <v>1</v>
@@ -30776,18 +30787,18 @@
         <v>538</v>
       </c>
       <c r="O941" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="942" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="942" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A942" s="12" t="s">
         <v>1203</v>
       </c>
-      <c r="B942" s="7">
-        <v>28800</v>
-      </c>
-      <c r="C942" s="5">
-        <v>1</v>
+      <c r="B942" s="3">
+        <v>30000</v>
+      </c>
+      <c r="C942" s="3">
+        <v>0.3</v>
       </c>
       <c r="D942" s="5" t="s">
         <v>795</v>
@@ -30796,8 +30807,8 @@
         <f>H942&amp;", "&amp;I942&amp;", "&amp;J942&amp;", "&amp;K942&amp;", "&amp;L942&amp;", "&amp;M942&amp;", "&amp;N942</f>
         <v xml:space="preserve">, , , Schmied, , , </v>
       </c>
-      <c r="F942" s="8" t="s">
-        <v>1342</v>
+      <c r="F942" t="s">
+        <v>1351</v>
       </c>
       <c r="G942">
         <v>0.1</v>
@@ -30806,7 +30817,7 @@
         <v>538</v>
       </c>
       <c r="O942" t="s">
-        <v>1346</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="943" spans="1:15" ht="44.25" x14ac:dyDescent="0.75">
@@ -30826,7 +30837,7 @@
         <v>1080</v>
       </c>
       <c r="F943" s="8" t="s">
-        <v>1343</v>
+        <v>1292</v>
       </c>
       <c r="G943">
         <v>7</v>
@@ -30838,7 +30849,7 @@
         <v>538</v>
       </c>
       <c r="O943" t="s">
-        <v>1347</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>
